--- a/exo_control/neural_network_parameters/excel/timestamps_cp_cnn.xlsx
+++ b/exo_control/neural_network_parameters/excel/timestamps_cp_cnn.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.582568168640137</v>
+        <v>6.498940944671631</v>
       </c>
       <c r="B2" t="n">
-        <v>5.709909915924072</v>
+        <v>-9.081494331359863</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.219338417053223</v>
+        <v>-2.588740110397339</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.732343196868896</v>
+        <v>0.6123822331428528</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.671645879745483</v>
+        <v>-1.669172883033752</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.827714920043945</v>
+        <v>1.724342823028564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.512452363967896</v>
+        <v>7.419732093811035</v>
       </c>
       <c r="B3" t="n">
-        <v>3.320345401763916</v>
+        <v>-7.369844436645508</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.291317462921143</v>
+        <v>-4.081883430480957</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.3099684715271</v>
+        <v>4.70704460144043</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.342159271240234</v>
+        <v>-2.984396696090698</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.772674560546875</v>
+        <v>-1.130939364433289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.037606716156006</v>
+        <v>7.894673347473145</v>
       </c>
       <c r="B4" t="n">
-        <v>4.353262424468994</v>
+        <v>-6.989925384521484</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.367348194122314</v>
+        <v>-3.69034743309021</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.806039094924927</v>
+        <v>3.92263126373291</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.428502798080444</v>
+        <v>-3.32623028755188</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.658520102500916</v>
+        <v>-4.693217754364014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.711338996887207</v>
+        <v>5.980819702148438</v>
       </c>
       <c r="B5" t="n">
-        <v>1.616053581237793</v>
+        <v>-4.936611652374268</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.242414474487305</v>
+        <v>-4.263877868652344</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.801262021064758</v>
+        <v>7.363010406494141</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.876458764076233</v>
+        <v>-3.862355947494507</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.592131853103638</v>
+        <v>-6.529222965240479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.648024320602417</v>
+        <v>5.481729984283447</v>
       </c>
       <c r="B6" t="n">
-        <v>2.636449575424194</v>
+        <v>-4.5071120262146</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8584495186805725</v>
+        <v>-4.692027568817139</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.151457071304321</v>
+        <v>7.660763740539551</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4597509205341339</v>
+        <v>-3.726093292236328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6649014353752136</v>
+        <v>-8.326714515686035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.348967552185059</v>
+        <v>4.134990215301514</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008021249435842037</v>
+        <v>-3.272111892700195</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.585651397705078</v>
+        <v>-3.420788526535034</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.412589430809021</v>
+        <v>9.721028327941895</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4888320863246918</v>
+        <v>-3.570191621780396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8385321497917175</v>
+        <v>-8.435463905334473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.303134679794312</v>
+        <v>2.723605632781982</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7571316957473755</v>
+        <v>-2.360347747802734</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.072835683822632</v>
+        <v>-4.149685859680176</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.541669368743896</v>
+        <v>10.37658500671387</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.348529100418091</v>
+        <v>-2.222678661346436</v>
       </c>
       <c r="F8" t="n">
-        <v>0.678036093711853</v>
+        <v>-7.632271289825439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0898493230342865</v>
+        <v>1.867574214935303</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7554048299789429</v>
+        <v>-0.2502286434173584</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.975222587585449</v>
+        <v>-4.553636074066162</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.481424808502197</v>
+        <v>11.47921848297119</v>
       </c>
       <c r="E9" t="n">
-        <v>1.476007580757141</v>
+        <v>-1.307075977325439</v>
       </c>
       <c r="F9" t="n">
-        <v>1.734786152839661</v>
+        <v>-6.882914066314697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02116700634360313</v>
+        <v>0.04387130960822105</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8965478539466858</v>
+        <v>-0.3500947952270508</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.54701042175293</v>
+        <v>-5.363386154174805</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.878746271133423</v>
+        <v>11.47555923461914</v>
       </c>
       <c r="E10" t="n">
-        <v>1.827284812927246</v>
+        <v>-1.10030722618103</v>
       </c>
       <c r="F10" t="n">
-        <v>1.455327749252319</v>
+        <v>-4.168935775756836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.365463525056839</v>
+        <v>-0.6301521062850952</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9125776886940002</v>
+        <v>1.331214427947998</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.317650318145752</v>
+        <v>-5.994137763977051</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.736019611358643</v>
+        <v>10.60176277160645</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370157480239868</v>
+        <v>-0.7188830375671387</v>
       </c>
       <c r="F11" t="n">
-        <v>1.070475816726685</v>
+        <v>-1.90215539932251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.067999362945557</v>
+        <v>-0.2153980433940887</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.302920579910278</v>
+        <v>1.995667457580566</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.367450714111328</v>
+        <v>-7.029220104217529</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.683515548706055</v>
+        <v>8.457054138183594</v>
       </c>
       <c r="E12" t="n">
-        <v>2.155807256698608</v>
+        <v>0.3892450928688049</v>
       </c>
       <c r="F12" t="n">
-        <v>1.819854617118835</v>
+        <v>0.2113673985004425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.468990087509155</v>
+        <v>-2.115998506546021</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.933566331863403</v>
+        <v>2.273747444152832</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.315278053283691</v>
+        <v>-6.32069206237793</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.982283592224121</v>
+        <v>8.858763694763184</v>
       </c>
       <c r="E13" t="n">
-        <v>1.07963240146637</v>
+        <v>1.062318563461304</v>
       </c>
       <c r="F13" t="n">
-        <v>2.316527843475342</v>
+        <v>0.4699352383613586</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.121798038482666</v>
+        <v>-2.57712984085083</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.916686296463013</v>
+        <v>3.72309684753418</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.265992164611816</v>
+        <v>-7.096594333648682</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.942502737045288</v>
+        <v>5.391919612884521</v>
       </c>
       <c r="E14" t="n">
-        <v>2.088790416717529</v>
+        <v>2.048401117324829</v>
       </c>
       <c r="F14" t="n">
-        <v>2.218817234039307</v>
+        <v>1.106813430786133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.29886794090271</v>
+        <v>-2.984590530395508</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.359254837036133</v>
+        <v>2.904126167297363</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.794853210449219</v>
+        <v>-6.324439525604248</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.933933258056641</v>
+        <v>3.765424251556396</v>
       </c>
       <c r="E15" t="n">
-        <v>2.386826753616333</v>
+        <v>3.046038866043091</v>
       </c>
       <c r="F15" t="n">
-        <v>2.798182725906372</v>
+        <v>1.06106162071228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.077460289001465</v>
+        <v>-3.524429321289062</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.985797882080078</v>
+        <v>3.653351306915283</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.561226367950439</v>
+        <v>-6.248491287231445</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.343197822570801</v>
+        <v>0.5264716744422913</v>
       </c>
       <c r="E16" t="n">
-        <v>3.139485120773315</v>
+        <v>4.105409145355225</v>
       </c>
       <c r="F16" t="n">
-        <v>3.760410785675049</v>
+        <v>1.340039730072021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.56515645980835</v>
+        <v>-4.399056434631348</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.036970853805542</v>
+        <v>3.187794208526611</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.582993030548096</v>
+        <v>-6.352148532867432</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.918999195098877</v>
+        <v>-1.354034066200256</v>
       </c>
       <c r="E17" t="n">
-        <v>3.795608043670654</v>
+        <v>4.534605026245117</v>
       </c>
       <c r="F17" t="n">
-        <v>3.423274993896484</v>
+        <v>0.3262442350387573</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.432087898254395</v>
+        <v>-3.957127809524536</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.483302593231201</v>
+        <v>2.309409379959106</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.379995346069336</v>
+        <v>-6.317416667938232</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.757960796356201</v>
+        <v>-5.720002174377441</v>
       </c>
       <c r="E18" t="n">
-        <v>4.190491676330566</v>
+        <v>5.511129856109619</v>
       </c>
       <c r="F18" t="n">
-        <v>4.409193515777588</v>
+        <v>0.3766191601753235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.040127277374268</v>
+        <v>-6.447479724884033</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.721042633056641</v>
+        <v>1.711718559265137</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.241107940673828</v>
+        <v>-6.411365985870361</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.944648742675781</v>
+        <v>-7.555004119873047</v>
       </c>
       <c r="E19" t="n">
-        <v>5.168360233306885</v>
+        <v>5.310935497283936</v>
       </c>
       <c r="F19" t="n">
-        <v>4.75119161605835</v>
+        <v>-0.7563514709472656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.210784435272217</v>
+        <v>-5.509518146514893</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.842182636260986</v>
+        <v>2.121188640594482</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.874269485473633</v>
+        <v>-5.053580760955811</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.594219207763672</v>
+        <v>-7.574501037597656</v>
       </c>
       <c r="E20" t="n">
-        <v>4.735635280609131</v>
+        <v>6.554378986358643</v>
       </c>
       <c r="F20" t="n">
-        <v>5.593050956726074</v>
+        <v>-0.2370712757110596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.656375408172607</v>
+        <v>-4.455513000488281</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.942012310028076</v>
+        <v>1.637367963790894</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.819230079650879</v>
+        <v>-6.729426860809326</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.423690795898438</v>
+        <v>-9.661033630371094</v>
       </c>
       <c r="E21" t="n">
-        <v>5.109001159667969</v>
+        <v>5.214428424835205</v>
       </c>
       <c r="F21" t="n">
-        <v>6.154072761535645</v>
+        <v>-0.7487561702728271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-6.477687835693359</v>
+        <v>-6.200402736663818</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.770505428314209</v>
+        <v>1.949490785598755</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.89535665512085</v>
+        <v>-5.680915355682373</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.9321608543396</v>
+        <v>-8.513836860656738</v>
       </c>
       <c r="E22" t="n">
-        <v>3.86689305305481</v>
+        <v>6.073798656463623</v>
       </c>
       <c r="F22" t="n">
-        <v>5.631470680236816</v>
+        <v>-0.5686745643615723</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-7.843156814575195</v>
+        <v>-6.150218963623047</v>
       </c>
       <c r="B23" t="n">
-        <v>-8.080196380615234</v>
+        <v>0.8735877275466919</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.672142505645752</v>
+        <v>-6.849732875823975</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.168544292449951</v>
+        <v>-7.248191356658936</v>
       </c>
       <c r="E23" t="n">
-        <v>5.698523044586182</v>
+        <v>5.768042087554932</v>
       </c>
       <c r="F23" t="n">
-        <v>6.743171215057373</v>
+        <v>-0.3653029203414917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-8.660000801086426</v>
+        <v>-6.840816497802734</v>
       </c>
       <c r="B24" t="n">
-        <v>-9.978091239929199</v>
+        <v>2.22522759437561</v>
       </c>
       <c r="C24" t="n">
-        <v>-8.73383903503418</v>
+        <v>-5.610056400299072</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.334870338439941</v>
+        <v>-7.781589031219482</v>
       </c>
       <c r="E24" t="n">
-        <v>4.758449077606201</v>
+        <v>6.429737567901611</v>
       </c>
       <c r="F24" t="n">
-        <v>6.316103935241699</v>
+        <v>-0.7691190242767334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-9.745678901672363</v>
+        <v>-8.966061592102051</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.635356903076172</v>
+        <v>3.042771816253662</v>
       </c>
       <c r="C25" t="n">
-        <v>-9.032903671264648</v>
+        <v>-7.708451271057129</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.735648155212402</v>
+        <v>-6.972136497497559</v>
       </c>
       <c r="E25" t="n">
-        <v>4.26954984664917</v>
+        <v>5.798070430755615</v>
       </c>
       <c r="F25" t="n">
-        <v>6.362290859222412</v>
+        <v>-1.422301411628723</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-10.28555583953857</v>
+        <v>-8.551419258117676</v>
       </c>
       <c r="B26" t="n">
-        <v>-9.30510425567627</v>
+        <v>4.045602798461914</v>
       </c>
       <c r="C26" t="n">
-        <v>-9.354741096496582</v>
+        <v>-6.181337833404541</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.811368465423584</v>
+        <v>-4.343911170959473</v>
       </c>
       <c r="E26" t="n">
-        <v>5.644543170928955</v>
+        <v>4.217885971069336</v>
       </c>
       <c r="F26" t="n">
-        <v>6.992528915405273</v>
+        <v>-0.8123645782470703</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-11.78495788574219</v>
+        <v>-8.556020736694336</v>
       </c>
       <c r="B27" t="n">
-        <v>-11.2381420135498</v>
+        <v>4.910126209259033</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.788806915283203</v>
+        <v>-5.043774127960205</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.421614170074463</v>
+        <v>-4.02112340927124</v>
       </c>
       <c r="E27" t="n">
-        <v>5.971385478973389</v>
+        <v>2.942135572433472</v>
       </c>
       <c r="F27" t="n">
-        <v>6.11305046081543</v>
+        <v>-1.306727647781372</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-12.00975894927979</v>
+        <v>-10.22483539581299</v>
       </c>
       <c r="B28" t="n">
-        <v>-11.4492654800415</v>
+        <v>5.704874992370605</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.388631343841553</v>
+        <v>-5.955020904541016</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.276041984558105</v>
+        <v>-0.5370035171508789</v>
       </c>
       <c r="E28" t="n">
-        <v>4.695642948150635</v>
+        <v>0.5040566921234131</v>
       </c>
       <c r="F28" t="n">
-        <v>5.912543773651123</v>
+        <v>-2.533306121826172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-11.99794101715088</v>
+        <v>-9.896446228027344</v>
       </c>
       <c r="B29" t="n">
-        <v>-12.35254001617432</v>
+        <v>5.052899360656738</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.805713653564453</v>
+        <v>-5.697148323059082</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.870856285095215</v>
+        <v>-1.664499640464783</v>
       </c>
       <c r="E29" t="n">
-        <v>5.163454532623291</v>
+        <v>-3.201275587081909</v>
       </c>
       <c r="F29" t="n">
-        <v>6.281115531921387</v>
+        <v>-2.108338117599487</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-13.43096733093262</v>
+        <v>-9.034979820251465</v>
       </c>
       <c r="B30" t="n">
-        <v>-11.83919525146484</v>
+        <v>5.276443004608154</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.267479419708252</v>
+        <v>-3.931360244750977</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.863696098327637</v>
+        <v>-1.463022589683533</v>
       </c>
       <c r="E30" t="n">
-        <v>5.724966526031494</v>
+        <v>-6.116608142852783</v>
       </c>
       <c r="F30" t="n">
-        <v>3.131980895996094</v>
+        <v>-1.405981779098511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-12.29637718200684</v>
+        <v>-9.322298049926758</v>
       </c>
       <c r="B31" t="n">
-        <v>-11.69559669494629</v>
+        <v>4.362647533416748</v>
       </c>
       <c r="C31" t="n">
-        <v>-4.486729621887207</v>
+        <v>-1.576257586479187</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.745892524719238</v>
+        <v>-1.411920070648193</v>
       </c>
       <c r="E31" t="n">
-        <v>4.72567081451416</v>
+        <v>-7.995766162872314</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6361422538757324</v>
+        <v>-1.589511513710022</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-10.77419567108154</v>
+        <v>-8.124809265136719</v>
       </c>
       <c r="B32" t="n">
-        <v>-12.45870304107666</v>
+        <v>4.017187118530273</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.03088033385574818</v>
+        <v>1.490666389465332</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9970532655715942</v>
+        <v>-3.619146585464478</v>
       </c>
       <c r="E32" t="n">
-        <v>1.153201222419739</v>
+        <v>-11.00168132781982</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.547706127166748</v>
+        <v>-1.326343297958374</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-8.986638069152832</v>
+        <v>-6.086593627929688</v>
       </c>
       <c r="B33" t="n">
-        <v>-10.5843505859375</v>
+        <v>3.046809673309326</v>
       </c>
       <c r="C33" t="n">
-        <v>6.04155445098877</v>
+        <v>4.727365016937256</v>
       </c>
       <c r="D33" t="n">
-        <v>1.685431599617004</v>
+        <v>-1.699880480766296</v>
       </c>
       <c r="E33" t="n">
-        <v>-5.918323993682861</v>
+        <v>-13.04590797424316</v>
       </c>
       <c r="F33" t="n">
-        <v>-10.55922794342041</v>
+        <v>-0.6463808417320251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-7.259774684906006</v>
+        <v>-3.719062566757202</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.474461078643799</v>
+        <v>2.476871967315674</v>
       </c>
       <c r="C34" t="n">
-        <v>7.476318836212158</v>
+        <v>7.74790620803833</v>
       </c>
       <c r="D34" t="n">
-        <v>6.091389179229736</v>
+        <v>-2.545617580413818</v>
       </c>
       <c r="E34" t="n">
-        <v>-12.66981601715088</v>
+        <v>-14.2831392288208</v>
       </c>
       <c r="F34" t="n">
-        <v>-11.9295482635498</v>
+        <v>0.3702577948570251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-4.956679344177246</v>
+        <v>-2.852480888366699</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.301475048065186</v>
+        <v>1.852130889892578</v>
       </c>
       <c r="C35" t="n">
-        <v>12.58070945739746</v>
+        <v>10.23462867736816</v>
       </c>
       <c r="D35" t="n">
-        <v>10.49392890930176</v>
+        <v>-2.742003440856934</v>
       </c>
       <c r="E35" t="n">
-        <v>-14.70626640319824</v>
+        <v>-12.14032459259033</v>
       </c>
       <c r="F35" t="n">
-        <v>-10.78603839874268</v>
+        <v>0.8083098530769348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-3.034206628799438</v>
+        <v>-0.7574760317802429</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.22043514251709</v>
+        <v>-0.05832181870937347</v>
       </c>
       <c r="C36" t="n">
-        <v>17.36606788635254</v>
+        <v>13.7683687210083</v>
       </c>
       <c r="D36" t="n">
-        <v>14.78419399261475</v>
+        <v>-2.138825654983521</v>
       </c>
       <c r="E36" t="n">
-        <v>-11.67231178283691</v>
+        <v>-10.26170063018799</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.114016532897949</v>
+        <v>1.986169338226318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.1509175598621368</v>
+        <v>3.062165021896362</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.290094256401062</v>
+        <v>-1.243809580802917</v>
       </c>
       <c r="C37" t="n">
-        <v>17.4885368347168</v>
+        <v>14.93216991424561</v>
       </c>
       <c r="D37" t="n">
-        <v>18.28475379943848</v>
+        <v>-3.159217596054077</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.99515962600708</v>
+        <v>-7.092676639556885</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.047714710235596</v>
+        <v>1.907407164573669</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.167677164077759</v>
+        <v>4.088184356689453</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4665073156356812</v>
+        <v>-0.9422409534454346</v>
       </c>
       <c r="C38" t="n">
-        <v>16.73342132568359</v>
+        <v>17.27369117736816</v>
       </c>
       <c r="D38" t="n">
-        <v>18.0008373260498</v>
+        <v>-2.958331108093262</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.051735401153564</v>
+        <v>-3.461727380752563</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.043021202087402</v>
+        <v>3.478938817977905</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.436484813690186</v>
+        <v>6.949578285217285</v>
       </c>
       <c r="B39" t="n">
-        <v>2.089983701705933</v>
+        <v>-3.205777168273926</v>
       </c>
       <c r="C39" t="n">
-        <v>15.74656200408936</v>
+        <v>16.58801651000977</v>
       </c>
       <c r="D39" t="n">
-        <v>17.14773178100586</v>
+        <v>-3.660687446594238</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.007037401199341</v>
+        <v>-0.2072414308786392</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.117977857589722</v>
+        <v>3.311680555343628</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.680887699127197</v>
+        <v>6.40623140335083</v>
       </c>
       <c r="B40" t="n">
-        <v>3.800690650939941</v>
+        <v>-3.024046897888184</v>
       </c>
       <c r="C40" t="n">
-        <v>15.29259777069092</v>
+        <v>14.02174663543701</v>
       </c>
       <c r="D40" t="n">
-        <v>14.7959098815918</v>
+        <v>-3.728332281112671</v>
       </c>
       <c r="E40" t="n">
-        <v>1.015067577362061</v>
+        <v>1.047242999076843</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.564366817474365</v>
+        <v>4.340020179748535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.994811534881592</v>
+        <v>7.331977844238281</v>
       </c>
       <c r="B41" t="n">
-        <v>4.057119846343994</v>
+        <v>-3.914822340011597</v>
       </c>
       <c r="C41" t="n">
-        <v>13.49236583709717</v>
+        <v>14.22721099853516</v>
       </c>
       <c r="D41" t="n">
-        <v>13.85258769989014</v>
+        <v>-5.230742454528809</v>
       </c>
       <c r="E41" t="n">
-        <v>0.345532238483429</v>
+        <v>2.994374513626099</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3849335014820099</v>
+        <v>4.151856899261475</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.954270839691162</v>
+        <v>9.293944358825684</v>
       </c>
       <c r="B42" t="n">
-        <v>5.350172996520996</v>
+        <v>-4.764830589294434</v>
       </c>
       <c r="C42" t="n">
-        <v>10.53188705444336</v>
+        <v>11.74297714233398</v>
       </c>
       <c r="D42" t="n">
-        <v>11.07052230834961</v>
+        <v>-5.994757652282715</v>
       </c>
       <c r="E42" t="n">
-        <v>3.01265549659729</v>
+        <v>4.577490329742432</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07191075384616852</v>
+        <v>4.841482162475586</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.530438423156738</v>
+        <v>8.933653831481934</v>
       </c>
       <c r="B43" t="n">
-        <v>6.180160522460938</v>
+        <v>-5.136164665222168</v>
       </c>
       <c r="C43" t="n">
-        <v>7.17519998550415</v>
+        <v>8.319557189941406</v>
       </c>
       <c r="D43" t="n">
-        <v>9.84304141998291</v>
+        <v>-5.764223575592041</v>
       </c>
       <c r="E43" t="n">
-        <v>2.722352266311646</v>
+        <v>4.23281192779541</v>
       </c>
       <c r="F43" t="n">
-        <v>1.403770923614502</v>
+        <v>4.597516536712646</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.993087768554688</v>
+        <v>8.926946640014648</v>
       </c>
       <c r="B44" t="n">
-        <v>6.07520866394043</v>
+        <v>-5.942187786102295</v>
       </c>
       <c r="C44" t="n">
-        <v>2.787395238876343</v>
+        <v>5.189466953277588</v>
       </c>
       <c r="D44" t="n">
-        <v>4.934103012084961</v>
+        <v>-7.08273983001709</v>
       </c>
       <c r="E44" t="n">
-        <v>1.373521447181702</v>
+        <v>4.161820411682129</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9349069595336914</v>
+        <v>4.6790452003479</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.526359558105469</v>
+        <v>8.97100830078125</v>
       </c>
       <c r="B45" t="n">
-        <v>9.30410099029541</v>
+        <v>-6.067594528198242</v>
       </c>
       <c r="C45" t="n">
-        <v>1.424739122390747</v>
+        <v>-0.01669335551559925</v>
       </c>
       <c r="D45" t="n">
-        <v>3.581333160400391</v>
+        <v>-6.780985355377197</v>
       </c>
       <c r="E45" t="n">
-        <v>1.011625289916992</v>
+        <v>3.533888339996338</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1957817375659943</v>
+        <v>5.329485893249512</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.45777988433838</v>
+        <v>8.912443161010742</v>
       </c>
       <c r="B46" t="n">
-        <v>9.260894775390625</v>
+        <v>-6.680742740631104</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.248945951461792</v>
+        <v>-0.8436214327812195</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1527514606714249</v>
+        <v>-7.276798725128174</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.020983695983887</v>
+        <v>3.285878896713257</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.150470972061157</v>
+        <v>6.054555892944336</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.02708148956299</v>
+        <v>9.099350929260254</v>
       </c>
       <c r="B47" t="n">
-        <v>9.310085296630859</v>
+        <v>-6.354671001434326</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.029356956481934</v>
+        <v>-7.044410705566406</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.145509481430054</v>
+        <v>-5.349267959594727</v>
       </c>
       <c r="E47" t="n">
-        <v>-3.075310707092285</v>
+        <v>1.46776282787323</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.489438414573669</v>
+        <v>6.135457992553711</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12.70323657989502</v>
+        <v>8.517467498779297</v>
       </c>
       <c r="B48" t="n">
-        <v>9.929962158203125</v>
+        <v>-7.266970157623291</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.08379602432251</v>
+        <v>-9.692246437072754</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.126177787780762</v>
+        <v>-5.147132873535156</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.787253141403198</v>
+        <v>-0.09105630218982697</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.071758270263672</v>
+        <v>6.133584022521973</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.982620239257812</v>
+        <v>6.86590051651001</v>
       </c>
       <c r="B49" t="n">
-        <v>9.58454704284668</v>
+        <v>-7.811945915222168</v>
       </c>
       <c r="C49" t="n">
-        <v>-8.63723087310791</v>
+        <v>-9.507925987243652</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.486493110656738</v>
+        <v>-5.994921207427979</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.837363004684448</v>
+        <v>-1.268426656723022</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8254784345626831</v>
+        <v>7.382845878601074</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12.05776691436768</v>
+        <v>2.854890584945679</v>
       </c>
       <c r="B50" t="n">
-        <v>11.40125560760498</v>
+        <v>-7.632534503936768</v>
       </c>
       <c r="C50" t="n">
-        <v>-9.069931983947754</v>
+        <v>-10.7373161315918</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.365156173706055</v>
+        <v>-5.517134666442871</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.543804168701172</v>
+        <v>-1.05673348903656</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.738467812538147</v>
+        <v>5.139836311340332</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11.93603324890137</v>
+        <v>0.4223047196865082</v>
       </c>
       <c r="B51" t="n">
-        <v>9.289484024047852</v>
+        <v>-6.642241477966309</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.16266632080078</v>
+        <v>-9.636573791503906</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.634700775146484</v>
+        <v>-5.093550205230713</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.434473991394043</v>
+        <v>-1.85161554813385</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.628177046775818</v>
+        <v>3.660084247589111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.101595878601074</v>
+        <v>1.470050096511841</v>
       </c>
       <c r="B52" t="n">
-        <v>7.115489482879639</v>
+        <v>-8.101500511169434</v>
       </c>
       <c r="C52" t="n">
-        <v>-8.640172004699707</v>
+        <v>-9.585416793823242</v>
       </c>
       <c r="D52" t="n">
-        <v>-9.741493225097656</v>
+        <v>-4.007035732269287</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.131132841110229</v>
+        <v>-1.185556769371033</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.154492378234863</v>
+        <v>2.849408864974976</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.284984588623047</v>
+        <v>6.188965320587158</v>
       </c>
       <c r="B53" t="n">
-        <v>6.442661762237549</v>
+        <v>-10.39083290100098</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.256380081176758</v>
+        <v>-3.98674464225769</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.053324222564697</v>
+        <v>-0.4933388531208038</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.722050189971924</v>
+        <v>-2.573918581008911</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.397743463516235</v>
+        <v>1.113950252532959</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.400911808013916</v>
+        <v>6.698354244232178</v>
       </c>
       <c r="B54" t="n">
-        <v>5.035347938537598</v>
+        <v>-9.211451530456543</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.148524284362793</v>
+        <v>-4.241443157196045</v>
       </c>
       <c r="D54" t="n">
-        <v>-5.375106811523438</v>
+        <v>2.167216539382935</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.794945955276489</v>
+        <v>-3.437146425247192</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.984055280685425</v>
+        <v>-1.95454216003418</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.79946756362915</v>
+        <v>6.548327922821045</v>
       </c>
       <c r="B55" t="n">
-        <v>4.642302513122559</v>
+        <v>-8.561297416687012</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.667094945907593</v>
+        <v>-4.15663480758667</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.753727436065674</v>
+        <v>3.498720169067383</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.314907312393188</v>
+        <v>-3.81970477104187</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.526596069335938</v>
+        <v>-4.730879306793213</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.807944297790527</v>
+        <v>5.55871057510376</v>
       </c>
       <c r="B56" t="n">
-        <v>3.389349460601807</v>
+        <v>-7.054652690887451</v>
       </c>
       <c r="C56" t="n">
-        <v>-3.614291906356812</v>
+        <v>-4.530282974243164</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.335658073425293</v>
+        <v>6.492475032806396</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.523959755897522</v>
+        <v>-4.084486961364746</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.153505921363831</v>
+        <v>-6.602520942687988</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.728265047073364</v>
+        <v>4.639575958251953</v>
       </c>
       <c r="B57" t="n">
-        <v>2.303917169570923</v>
+        <v>-6.022919654846191</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.041486263275146</v>
+        <v>-4.869576930999756</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.519523859024048</v>
+        <v>8.129344940185547</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5759340524673462</v>
+        <v>-3.843417882919312</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2495715618133545</v>
+        <v>-8.352746963500977</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.40062403678894</v>
+        <v>3.35458779335022</v>
       </c>
       <c r="B58" t="n">
-        <v>1.155022740364075</v>
+        <v>-4.745637893676758</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.772458553314209</v>
+        <v>-4.363290309906006</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.714517593383789</v>
+        <v>10.19211864471436</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4266336262226105</v>
+        <v>-3.543714761734009</v>
       </c>
       <c r="F58" t="n">
-        <v>0.480403870344162</v>
+        <v>-8.137243270874023</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.226098537445068</v>
+        <v>2.17828106880188</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6098541021347046</v>
+        <v>-3.20079779624939</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.520830631256104</v>
+        <v>-4.673643112182617</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.463486909866333</v>
+        <v>11.77448749542236</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3732660114765167</v>
+        <v>-2.676049470901489</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6659079790115356</v>
+        <v>-7.188125133514404</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6608863472938538</v>
+        <v>1.399095296859741</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4509521722793579</v>
+        <v>-1.170878767967224</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.674220561981201</v>
+        <v>-4.79802131652832</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.308358192443848</v>
+        <v>12.7733907699585</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6704242825508118</v>
+        <v>-1.872610926628113</v>
       </c>
       <c r="F60" t="n">
-        <v>1.711098432540894</v>
+        <v>-5.361061573028564</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.3020924627780914</v>
+        <v>0.1931202113628387</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.3427214920520782</v>
+        <v>-0.5131891965866089</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.544485092163086</v>
+        <v>-5.363430976867676</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.694806098937988</v>
+        <v>12.47745037078857</v>
       </c>
       <c r="E61" t="n">
-        <v>1.103936910629272</v>
+        <v>-1.419730067253113</v>
       </c>
       <c r="F61" t="n">
-        <v>1.762813210487366</v>
+        <v>-3.46600604057312</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.033802151679993</v>
+        <v>-0.736524224281311</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.033440113067627</v>
+        <v>0.7565764188766479</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.081509113311768</v>
+        <v>-5.572301864624023</v>
       </c>
       <c r="D62" t="n">
-        <v>-5.238606452941895</v>
+        <v>12.07063674926758</v>
       </c>
       <c r="E62" t="n">
-        <v>1.233041882514954</v>
+        <v>-0.6853172779083252</v>
       </c>
       <c r="F62" t="n">
-        <v>2.092201948165894</v>
+        <v>-1.177779793739319</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1.852293252944946</v>
+        <v>-0.9953418374061584</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.903016567230225</v>
+        <v>1.778813123703003</v>
       </c>
       <c r="C63" t="n">
-        <v>-6.006360054016113</v>
+        <v>-6.121986389160156</v>
       </c>
       <c r="D63" t="n">
-        <v>-5.495103359222412</v>
+        <v>9.988921165466309</v>
       </c>
       <c r="E63" t="n">
-        <v>1.859117984771729</v>
+        <v>0.3578066825866699</v>
       </c>
       <c r="F63" t="n">
-        <v>2.225884199142456</v>
+        <v>0.414350301027298</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-2.492490291595459</v>
+        <v>-2.12512469291687</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.120947122573853</v>
+        <v>2.48872971534729</v>
       </c>
       <c r="C64" t="n">
-        <v>-6.470156669616699</v>
+        <v>-5.917012691497803</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.015366554260254</v>
+        <v>9.400992393493652</v>
       </c>
       <c r="E64" t="n">
-        <v>1.864468455314636</v>
+        <v>1.10438346862793</v>
       </c>
       <c r="F64" t="n">
-        <v>2.149325370788574</v>
+        <v>1.274479508399963</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-3.326810598373413</v>
+        <v>-2.679187059402466</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.601855993270874</v>
+        <v>3.424592018127441</v>
       </c>
       <c r="C65" t="n">
-        <v>-6.761997222900391</v>
+        <v>-6.413265705108643</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.51671314239502</v>
+        <v>6.291917324066162</v>
       </c>
       <c r="E65" t="n">
-        <v>2.288304805755615</v>
+        <v>1.909469962120056</v>
       </c>
       <c r="F65" t="n">
-        <v>2.673504590988159</v>
+        <v>2.092583417892456</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-3.959123849868774</v>
+        <v>-3.293946981430054</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.373558282852173</v>
+        <v>3.307803153991699</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.943678855895996</v>
+        <v>-5.779412269592285</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.834521293640137</v>
+        <v>3.916753768920898</v>
       </c>
       <c r="E66" t="n">
-        <v>2.77076530456543</v>
+        <v>2.941848278045654</v>
       </c>
       <c r="F66" t="n">
-        <v>2.982750654220581</v>
+        <v>2.117288112640381</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.691798210144043</v>
+        <v>-3.707327604293823</v>
       </c>
       <c r="B67" t="n">
-        <v>-3.517372608184814</v>
+        <v>3.710919380187988</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.000406265258789</v>
+        <v>-6.298202514648438</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.529913902282715</v>
+        <v>0.653383195400238</v>
       </c>
       <c r="E67" t="n">
-        <v>3.491142272949219</v>
+        <v>3.85637640953064</v>
       </c>
       <c r="F67" t="n">
-        <v>3.508282423019409</v>
+        <v>2.008312702178955</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-5.657354354858398</v>
+        <v>-4.609371185302734</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.835119485855103</v>
+        <v>3.664998054504395</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.863380908966064</v>
+        <v>-6.584253311157227</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.721756458282471</v>
+        <v>-2.055697441101074</v>
       </c>
       <c r="E68" t="n">
-        <v>3.746343374252319</v>
+        <v>4.484315872192383</v>
       </c>
       <c r="F68" t="n">
-        <v>3.541890621185303</v>
+        <v>1.394923210144043</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-6.073068618774414</v>
+        <v>-4.619525909423828</v>
       </c>
       <c r="B69" t="n">
-        <v>-4.650603771209717</v>
+        <v>3.223566055297852</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.731451511383057</v>
+        <v>-6.549561977386475</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.395523071289062</v>
+        <v>-5.369757175445557</v>
       </c>
       <c r="E69" t="n">
-        <v>4.15488862991333</v>
+        <v>5.144467830657959</v>
       </c>
       <c r="F69" t="n">
-        <v>4.355839252471924</v>
+        <v>0.9376504421234131</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-6.201671600341797</v>
+        <v>-5.744335651397705</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.196924209594727</v>
+        <v>2.812976598739624</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.859935283660889</v>
+        <v>-6.581867694854736</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.25839376449585</v>
+        <v>-7.824453353881836</v>
       </c>
       <c r="E70" t="n">
-        <v>4.80485200881958</v>
+        <v>5.62746524810791</v>
       </c>
       <c r="F70" t="n">
-        <v>4.760969638824463</v>
+        <v>0.2950266599655151</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-6.976143360137939</v>
+        <v>-5.880734920501709</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.842061519622803</v>
+        <v>3.103414297103882</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.348854064941406</v>
+        <v>-6.096587181091309</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.855532646179199</v>
+        <v>-8.78572940826416</v>
       </c>
       <c r="E71" t="n">
-        <v>4.935136795043945</v>
+        <v>6.334722995758057</v>
       </c>
       <c r="F71" t="n">
-        <v>5.364265441894531</v>
+        <v>0.001007823157124221</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-7.054979801177979</v>
+        <v>-5.836726665496826</v>
       </c>
       <c r="B72" t="n">
-        <v>-6.034068584442139</v>
+        <v>2.72372031211853</v>
       </c>
       <c r="C72" t="n">
-        <v>-8.214401245117188</v>
+        <v>-6.719486236572266</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.308992385864258</v>
+        <v>-9.956826210021973</v>
       </c>
       <c r="E72" t="n">
-        <v>5.273675918579102</v>
+        <v>6.277256488800049</v>
       </c>
       <c r="F72" t="n">
-        <v>5.687267303466797</v>
+        <v>-0.285353422164917</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-7.534406185150146</v>
+        <v>-6.871262550354004</v>
       </c>
       <c r="B73" t="n">
-        <v>-6.705233573913574</v>
+        <v>2.978492259979248</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.150127410888672</v>
+        <v>-6.732328414916992</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.515131950378418</v>
+        <v>-9.501616477966309</v>
       </c>
       <c r="E73" t="n">
-        <v>5.18195104598999</v>
+        <v>6.904998302459717</v>
       </c>
       <c r="F73" t="n">
-        <v>5.579022884368896</v>
+        <v>-0.5123389959335327</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-8.364682197570801</v>
+        <v>-7.281414031982422</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.97306489944458</v>
+        <v>2.794151306152344</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.874896049499512</v>
+        <v>-6.892455577850342</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.948935031890869</v>
+        <v>-8.577767372131348</v>
       </c>
       <c r="E74" t="n">
-        <v>5.783843040466309</v>
+        <v>6.831084251403809</v>
       </c>
       <c r="F74" t="n">
-        <v>6.119352340698242</v>
+        <v>-0.6065515875816345</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-9.27613353729248</v>
+        <v>-7.950164794921875</v>
       </c>
       <c r="B75" t="n">
-        <v>-9.038912773132324</v>
+        <v>3.806277751922607</v>
       </c>
       <c r="C75" t="n">
-        <v>-8.586915969848633</v>
+        <v>-6.683338165283203</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.602272033691406</v>
+        <v>-7.942224025726318</v>
       </c>
       <c r="E75" t="n">
-        <v>5.35542631149292</v>
+        <v>7.011356830596924</v>
       </c>
       <c r="F75" t="n">
-        <v>6.107404708862305</v>
+        <v>-1.071488976478577</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-9.813647270202637</v>
+        <v>-9.263653755187988</v>
       </c>
       <c r="B76" t="n">
-        <v>-9.074947357177734</v>
+        <v>4.523077487945557</v>
       </c>
       <c r="C76" t="n">
-        <v>-9.182173728942871</v>
+        <v>-7.083364486694336</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.125544548034668</v>
+        <v>-6.690633296966553</v>
       </c>
       <c r="E76" t="n">
-        <v>5.209408760070801</v>
+        <v>6.737560749053955</v>
       </c>
       <c r="F76" t="n">
-        <v>5.941611289978027</v>
+        <v>-1.67444121837616</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-10.39594173431396</v>
+        <v>-9.038564682006836</v>
       </c>
       <c r="B77" t="n">
-        <v>-9.669121742248535</v>
+        <v>5.38131856918335</v>
       </c>
       <c r="C77" t="n">
-        <v>-9.300959587097168</v>
+        <v>-6.781251907348633</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.674380302429199</v>
+        <v>-4.761731624603271</v>
       </c>
       <c r="E77" t="n">
-        <v>4.995758533477783</v>
+        <v>5.705905914306641</v>
       </c>
       <c r="F77" t="n">
-        <v>5.756973743438721</v>
+        <v>-1.81282639503479</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-11.98878002166748</v>
+        <v>-9.603362083435059</v>
       </c>
       <c r="B78" t="n">
-        <v>-10.87471675872803</v>
+        <v>6.009079456329346</v>
       </c>
       <c r="C78" t="n">
-        <v>-8.410649299621582</v>
+        <v>-6.018595695495605</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.071452140808105</v>
+        <v>-3.702552318572998</v>
       </c>
       <c r="E78" t="n">
-        <v>4.888525009155273</v>
+        <v>4.252767086029053</v>
       </c>
       <c r="F78" t="n">
-        <v>5.714736938476562</v>
+        <v>-2.39767861366272</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-12.28911113739014</v>
+        <v>-10.49158191680908</v>
       </c>
       <c r="B79" t="n">
-        <v>-11.32615661621094</v>
+        <v>6.517171859741211</v>
       </c>
       <c r="C79" t="n">
-        <v>-8.073623657226562</v>
+        <v>-5.930256843566895</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.112508773803711</v>
+        <v>-1.968678951263428</v>
       </c>
       <c r="E79" t="n">
-        <v>4.459052085876465</v>
+        <v>1.929089546203613</v>
       </c>
       <c r="F79" t="n">
-        <v>5.506048202514648</v>
+        <v>-3.107742309570312</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-12.57635116577148</v>
+        <v>-10.46587753295898</v>
       </c>
       <c r="B80" t="n">
-        <v>-12.17219829559326</v>
+        <v>6.080338954925537</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.890183448791504</v>
+        <v>-4.682556629180908</v>
       </c>
       <c r="D80" t="n">
-        <v>-6.671243190765381</v>
+        <v>-1.844170570373535</v>
       </c>
       <c r="E80" t="n">
-        <v>3.992140054702759</v>
+        <v>-1.219164848327637</v>
       </c>
       <c r="F80" t="n">
-        <v>5.031835079193115</v>
+        <v>-3.295187473297119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-12.79114627838135</v>
+        <v>-9.834240913391113</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.01734256744385</v>
+        <v>5.924465656280518</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.995248317718506</v>
+        <v>-3.100964546203613</v>
       </c>
       <c r="D81" t="n">
-        <v>-5.384190559387207</v>
+        <v>-1.552487254142761</v>
       </c>
       <c r="E81" t="n">
-        <v>3.63253927230835</v>
+        <v>-4.522623062133789</v>
       </c>
       <c r="F81" t="n">
-        <v>2.23563289642334</v>
+        <v>-2.811951160430908</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-12.16519451141357</v>
+        <v>-9.416122436523438</v>
       </c>
       <c r="B82" t="n">
-        <v>-11.58966827392578</v>
+        <v>5.216335296630859</v>
       </c>
       <c r="C82" t="n">
-        <v>-3.332165002822876</v>
+        <v>-0.3182590007781982</v>
       </c>
       <c r="D82" t="n">
-        <v>-3.361543655395508</v>
+        <v>-1.643606543540955</v>
       </c>
       <c r="E82" t="n">
-        <v>1.265249729156494</v>
+        <v>-7.506141185760498</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.510026574134827</v>
+        <v>-2.804412603378296</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-10.77818870544434</v>
+        <v>-8.302833557128906</v>
       </c>
       <c r="B83" t="n">
-        <v>-11.28769207000732</v>
+        <v>4.322958946228027</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3926681280136108</v>
+        <v>2.61931848526001</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.540554404258728</v>
+        <v>-2.292010307312012</v>
       </c>
       <c r="E83" t="n">
-        <v>-2.232901811599731</v>
+        <v>-10.18679332733154</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.152854442596436</v>
+        <v>-2.373061418533325</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-8.54649543762207</v>
+        <v>-6.46459436416626</v>
       </c>
       <c r="B84" t="n">
-        <v>-9.704791069030762</v>
+        <v>3.332014560699463</v>
       </c>
       <c r="C84" t="n">
-        <v>5.935554981231689</v>
+        <v>6.191863536834717</v>
       </c>
       <c r="D84" t="n">
-        <v>2.752800941467285</v>
+        <v>-1.580262660980225</v>
       </c>
       <c r="E84" t="n">
-        <v>-8.025617599487305</v>
+        <v>-12.05801868438721</v>
       </c>
       <c r="F84" t="n">
-        <v>-11.20261764526367</v>
+        <v>-1.367087483406067</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-6.190732955932617</v>
+        <v>-4.540575504302979</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.695076465606689</v>
+        <v>2.379852056503296</v>
       </c>
       <c r="C85" t="n">
-        <v>9.688848495483398</v>
+        <v>9.492849349975586</v>
       </c>
       <c r="D85" t="n">
-        <v>7.137259483337402</v>
+        <v>-2.081669807434082</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.347975730896</v>
+        <v>-12.89154434204102</v>
       </c>
       <c r="F85" t="n">
-        <v>-12.87938499450684</v>
+        <v>-0.3918691873550415</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-3.575406789779663</v>
+        <v>-2.827863693237305</v>
       </c>
       <c r="B86" t="n">
-        <v>-4.979935169219971</v>
+        <v>1.516571521759033</v>
       </c>
       <c r="C86" t="n">
-        <v>14.35756397247314</v>
+        <v>12.44491577148438</v>
       </c>
       <c r="D86" t="n">
-        <v>11.84492015838623</v>
+        <v>-2.569791793823242</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.50295734405518</v>
+        <v>-11.90642070770264</v>
       </c>
       <c r="F86" t="n">
-        <v>-11.90073776245117</v>
+        <v>0.4607704281806946</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.483127593994141</v>
+        <v>-0.8322404623031616</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.365241050720215</v>
+        <v>0.3078501224517822</v>
       </c>
       <c r="C87" t="n">
-        <v>18.0229377746582</v>
+        <v>15.50058650970459</v>
       </c>
       <c r="D87" t="n">
-        <v>15.7589807510376</v>
+        <v>-2.618407964706421</v>
       </c>
       <c r="E87" t="n">
-        <v>-11.19572067260742</v>
+        <v>-9.964083671569824</v>
       </c>
       <c r="F87" t="n">
-        <v>-9.064521789550781</v>
+        <v>1.56235682964325</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.041138648986816</v>
+        <v>1.942174673080444</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.3380287289619446</v>
+        <v>-0.8503335118293762</v>
       </c>
       <c r="C88" t="n">
-        <v>19.38101768493652</v>
+        <v>17.08100700378418</v>
       </c>
       <c r="D88" t="n">
-        <v>18.51577186584473</v>
+        <v>-3.293813705444336</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.308784008026123</v>
+        <v>-6.996984958648682</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.761521816253662</v>
+        <v>2.052438259124756</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.181753873825073</v>
+        <v>3.442600965499878</v>
       </c>
       <c r="B89" t="n">
-        <v>1.217247724533081</v>
+        <v>-1.309559464454651</v>
       </c>
       <c r="C89" t="n">
-        <v>19.86897087097168</v>
+        <v>18.48695373535156</v>
       </c>
       <c r="D89" t="n">
-        <v>19.02492141723633</v>
+        <v>-3.650275945663452</v>
       </c>
       <c r="E89" t="n">
-        <v>-4.086232662200928</v>
+        <v>-3.930546522140503</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.34632682800293</v>
+        <v>2.795571804046631</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.002627849578857</v>
+        <v>5.300206184387207</v>
       </c>
       <c r="B90" t="n">
-        <v>2.649582147598267</v>
+        <v>-2.722264528274536</v>
       </c>
       <c r="C90" t="n">
-        <v>18.62399101257324</v>
+        <v>18.1073169708252</v>
       </c>
       <c r="D90" t="n">
-        <v>18.45922470092773</v>
+        <v>-4.240831851959229</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.128772854804993</v>
+        <v>-0.6068086624145508</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.554731845855713</v>
+        <v>3.037024259567261</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.319136142730713</v>
+        <v>6.104838371276855</v>
       </c>
       <c r="B91" t="n">
-        <v>3.997532844543457</v>
+        <v>-3.334496021270752</v>
       </c>
       <c r="C91" t="n">
-        <v>17.44380569458008</v>
+        <v>16.49857139587402</v>
       </c>
       <c r="D91" t="n">
-        <v>16.4974193572998</v>
+        <v>-4.619723796844482</v>
       </c>
       <c r="E91" t="n">
-        <v>1.029248476028442</v>
+        <v>1.612359881401062</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.200774908065796</v>
+        <v>3.773396492004395</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.031084537506104</v>
+        <v>6.967159271240234</v>
       </c>
       <c r="B92" t="n">
-        <v>4.963037490844727</v>
+        <v>-4.165793418884277</v>
       </c>
       <c r="C92" t="n">
-        <v>14.83487606048584</v>
+        <v>15.17019748687744</v>
       </c>
       <c r="D92" t="n">
-        <v>14.77360916137695</v>
+        <v>-5.625344276428223</v>
       </c>
       <c r="E92" t="n">
-        <v>1.935507535934448</v>
+        <v>3.338679790496826</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5468153953552246</v>
+        <v>4.09882926940918</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.16925048828125</v>
+        <v>8.286325454711914</v>
       </c>
       <c r="B93" t="n">
-        <v>5.614122867584229</v>
+        <v>-4.758194446563721</v>
       </c>
       <c r="C93" t="n">
-        <v>11.17836952209473</v>
+        <v>12.42541790008545</v>
       </c>
       <c r="D93" t="n">
-        <v>11.91502475738525</v>
+        <v>-6.053153991699219</v>
       </c>
       <c r="E93" t="n">
-        <v>3.170056104660034</v>
+        <v>4.515304565429688</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9564177393913269</v>
+        <v>4.651861667633057</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.864269256591797</v>
+        <v>8.426851272583008</v>
       </c>
       <c r="B94" t="n">
-        <v>6.245520114898682</v>
+        <v>-5.35249137878418</v>
       </c>
       <c r="C94" t="n">
-        <v>7.751326084136963</v>
+        <v>9.281170845031738</v>
       </c>
       <c r="D94" t="n">
-        <v>9.15446949005127</v>
+        <v>-6.292961597442627</v>
       </c>
       <c r="E94" t="n">
-        <v>3.108603000640869</v>
+        <v>4.684365749359131</v>
       </c>
       <c r="F94" t="n">
-        <v>1.42350971698761</v>
+        <v>4.91227912902832</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.819189071655273</v>
+        <v>8.733976364135742</v>
       </c>
       <c r="B95" t="n">
-        <v>7.034124374389648</v>
+        <v>-5.988065719604492</v>
       </c>
       <c r="C95" t="n">
-        <v>2.861613512039185</v>
+        <v>5.578368663787842</v>
       </c>
       <c r="D95" t="n">
-        <v>5.220818042755127</v>
+        <v>-6.844196319580078</v>
       </c>
       <c r="E95" t="n">
-        <v>2.199895143508911</v>
+        <v>4.576970100402832</v>
       </c>
       <c r="F95" t="n">
-        <v>1.274506330490112</v>
+        <v>5.222512245178223</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.996767044067383</v>
+        <v>8.770902633666992</v>
       </c>
       <c r="B96" t="n">
-        <v>8.470763206481934</v>
+        <v>-6.391308307647705</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2780637741088867</v>
+        <v>1.552103757858276</v>
       </c>
       <c r="D96" t="n">
-        <v>3.099437713623047</v>
+        <v>-6.809089660644531</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7524127960205078</v>
+        <v>3.803637742996216</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7416244745254517</v>
+        <v>5.621984004974365</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.531951904296875</v>
+        <v>8.409145355224609</v>
       </c>
       <c r="B97" t="n">
-        <v>8.973282814025879</v>
+        <v>-7.040032386779785</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.802520990371704</v>
+        <v>-1.186263918876648</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.6974923610687256</v>
+        <v>-7.321076393127441</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.740520000457764</v>
+        <v>3.542428493499756</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1940382719039917</v>
+        <v>6.428023815155029</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.508715629577637</v>
+        <v>8.618523597717285</v>
       </c>
       <c r="B98" t="n">
-        <v>9.691636085510254</v>
+        <v>-6.987524509429932</v>
       </c>
       <c r="C98" t="n">
-        <v>-6.092700004577637</v>
+        <v>-5.505190849304199</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.838151216506958</v>
+        <v>-6.326859474182129</v>
       </c>
       <c r="E98" t="n">
-        <v>-3.189677953720093</v>
+        <v>2.407835245132446</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.7310159206390381</v>
+        <v>6.605914115905762</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.26124286651611</v>
+        <v>8.248377799987793</v>
       </c>
       <c r="B99" t="n">
-        <v>9.51332950592041</v>
+        <v>-7.500409603118896</v>
       </c>
       <c r="C99" t="n">
-        <v>-8.688373565673828</v>
+        <v>-8.101581573486328</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.233551502227783</v>
+        <v>-6.235574722290039</v>
       </c>
       <c r="E99" t="n">
-        <v>-4.009417057037354</v>
+        <v>1.146999359130859</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.192824959754944</v>
+        <v>6.704322814941406</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.130588531494141</v>
+        <v>6.447697639465332</v>
       </c>
       <c r="B100" t="n">
-        <v>9.336097717285156</v>
+        <v>-8.422094345092773</v>
       </c>
       <c r="C100" t="n">
-        <v>-9.516086578369141</v>
+        <v>-9.483222007751465</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.228216171264648</v>
+        <v>-6.022911071777344</v>
       </c>
       <c r="E100" t="n">
-        <v>-4.216460227966309</v>
+        <v>0.2102284133434296</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.9287153482437134</v>
+        <v>7.23848295211792</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.47012996673584</v>
+        <v>3.171900987625122</v>
       </c>
       <c r="B101" t="n">
-        <v>9.583486557006836</v>
+        <v>-8.399507522583008</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.57058715820312</v>
+        <v>-10.5305814743042</v>
       </c>
       <c r="D101" t="n">
-        <v>-9.806607246398926</v>
+        <v>-5.384331703186035</v>
       </c>
       <c r="E101" t="n">
-        <v>-4.351583480834961</v>
+        <v>-0.3707426488399506</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.296658515930176</v>
+        <v>5.973850250244141</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.15120506286621</v>
+        <v>1.46938157081604</v>
       </c>
       <c r="B102" t="n">
-        <v>8.353891372680664</v>
+        <v>-8.558789253234863</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.15126323699951</v>
+        <v>-10.45189762115479</v>
       </c>
       <c r="D102" t="n">
-        <v>-9.829251289367676</v>
+        <v>-4.679000377655029</v>
       </c>
       <c r="E102" t="n">
-        <v>-4.259195804595947</v>
+        <v>-0.8469953536987305</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.265553951263428</v>
+        <v>4.804845809936523</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7.460274696350098</v>
+        <v>1.654869318008423</v>
       </c>
       <c r="B103" t="n">
-        <v>6.831722259521484</v>
+        <v>-9.02448844909668</v>
       </c>
       <c r="C103" t="n">
-        <v>-9.59471607208252</v>
+        <v>-10.08729076385498</v>
       </c>
       <c r="D103" t="n">
-        <v>-9.121687889099121</v>
+        <v>-3.549450874328613</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.666447877883911</v>
+        <v>-1.00617241859436</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.301292419433594</v>
+        <v>3.204536437988281</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6.523857116699219</v>
+        <v>6.117585182189941</v>
       </c>
       <c r="B104" t="n">
-        <v>6.486357688903809</v>
+        <v>-10.98670482635498</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.329830646514893</v>
+        <v>-4.7847900390625</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.789074420928955</v>
+        <v>-1.062853932380676</v>
       </c>
       <c r="E104" t="n">
-        <v>-3.008544683456421</v>
+        <v>-3.167910575866699</v>
       </c>
       <c r="F104" t="n">
-        <v>-2.247557640075684</v>
+        <v>0.7404165863990784</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6.006002902984619</v>
+        <v>6.378873825073242</v>
       </c>
       <c r="B105" t="n">
-        <v>5.139388084411621</v>
+        <v>-10.04542350769043</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.328459739685059</v>
+        <v>-4.60003137588501</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.361244678497314</v>
+        <v>1.176595330238342</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.136640071868896</v>
+        <v>-3.742562055587769</v>
       </c>
       <c r="F105" t="n">
-        <v>-2.206739187240601</v>
+        <v>-2.390582323074341</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6.102521419525146</v>
+        <v>6.003982543945312</v>
       </c>
       <c r="B106" t="n">
-        <v>4.427767276763916</v>
+        <v>-9.227846145629883</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.247772216796875</v>
+        <v>-4.423208713531494</v>
       </c>
       <c r="D106" t="n">
-        <v>-5.675629138946533</v>
+        <v>3.309612274169922</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.198523998260498</v>
+        <v>-4.028934478759766</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.827870607376099</v>
+        <v>-4.705132961273193</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.99597692489624</v>
+        <v>5.404353618621826</v>
       </c>
       <c r="B107" t="n">
-        <v>3.617403507232666</v>
+        <v>-7.923262596130371</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.942843675613403</v>
+        <v>-4.874207019805908</v>
       </c>
       <c r="D107" t="n">
-        <v>-4.237934112548828</v>
+        <v>6.244225025177002</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.277819991111755</v>
+        <v>-4.287708759307861</v>
       </c>
       <c r="F107" t="n">
-        <v>-1.217101812362671</v>
+        <v>-6.615484714508057</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.81335711479187</v>
+        <v>4.277064323425293</v>
       </c>
       <c r="B108" t="n">
-        <v>2.449010610580444</v>
+        <v>-6.653602600097656</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.921006679534912</v>
+        <v>-5.038165092468262</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.346718788146973</v>
+        <v>8.399154663085938</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.8038525581359863</v>
+        <v>-3.904151201248169</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.4515169262886047</v>
+        <v>-8.258113861083984</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.583014965057373</v>
+        <v>3.131689310073853</v>
       </c>
       <c r="B109" t="n">
-        <v>1.251598358154297</v>
+        <v>-5.263531684875488</v>
       </c>
       <c r="C109" t="n">
-        <v>-4.734705924987793</v>
+        <v>-4.667544364929199</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.539648532867432</v>
+        <v>10.48186302185059</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.3505323231220245</v>
+        <v>-3.445755243301392</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2227583080530167</v>
+        <v>-7.844107151031494</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.917063474655151</v>
+        <v>2.062974691390991</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6272869110107422</v>
+        <v>-3.51201868057251</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.281318187713623</v>
+        <v>-4.608925342559814</v>
       </c>
       <c r="D110" t="n">
-        <v>-4.468778610229492</v>
+        <v>12.45033550262451</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.1097560971975327</v>
+        <v>-2.744503498077393</v>
       </c>
       <c r="F110" t="n">
-        <v>0.640706479549408</v>
+        <v>-6.847192764282227</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.7614635825157166</v>
+        <v>1.21348237991333</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1291416436433792</v>
+        <v>-1.46672797203064</v>
       </c>
       <c r="C111" t="n">
-        <v>-5.825123310089111</v>
+        <v>-4.649477481842041</v>
       </c>
       <c r="D111" t="n">
-        <v>-4.917495250701904</v>
+        <v>13.6602954864502</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2459166795015335</v>
+        <v>-1.990442872047424</v>
       </c>
       <c r="F111" t="n">
-        <v>1.480236530303955</v>
+        <v>-4.653482913970947</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.1641986668109894</v>
+        <v>0.3112605512142181</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.2130657881498337</v>
+        <v>-0.3615992069244385</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.874966144561768</v>
+        <v>-5.30778169631958</v>
       </c>
       <c r="D112" t="n">
-        <v>-5.457828521728516</v>
+        <v>13.09801387786865</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7280051112174988</v>
+        <v>-1.469062566757202</v>
       </c>
       <c r="F112" t="n">
-        <v>1.800464391708374</v>
+        <v>-2.745355367660522</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.19891881942749</v>
+        <v>-0.6667280793190002</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.059672951698303</v>
+        <v>0.6222450733184814</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.918870449066162</v>
+        <v>-5.317442893981934</v>
       </c>
       <c r="D113" t="n">
-        <v>-5.408890724182129</v>
+        <v>13.03572654724121</v>
       </c>
       <c r="E113" t="n">
-        <v>1.314082026481628</v>
+        <v>-0.6465104818344116</v>
       </c>
       <c r="F113" t="n">
-        <v>2.245766878128052</v>
+        <v>-0.5075562596321106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.803120493888855</v>
+        <v>-1.254299879074097</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.031243562698364</v>
+        <v>1.950875997543335</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.204925060272217</v>
+        <v>-5.743876457214355</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.097522258758545</v>
+        <v>11.00563621520996</v>
       </c>
       <c r="E114" t="n">
-        <v>1.815045714378357</v>
+        <v>0.4196422100067139</v>
       </c>
       <c r="F114" t="n">
-        <v>2.22585654258728</v>
+        <v>0.9571998715400696</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-2.544877767562866</v>
+        <v>-1.948260903358459</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.371031999588013</v>
+        <v>2.750715017318726</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.81065559387207</v>
+        <v>-5.644401550292969</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.192762851715088</v>
+        <v>9.725042343139648</v>
       </c>
       <c r="E115" t="n">
-        <v>2.036955595016479</v>
+        <v>1.163089156150818</v>
       </c>
       <c r="F115" t="n">
-        <v>2.231894493103027</v>
+        <v>1.971283197402954</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-3.267937898635864</v>
+        <v>-2.57252049446106</v>
       </c>
       <c r="B116" t="n">
-        <v>-2.630512237548828</v>
+        <v>3.487252235412598</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.714493751525879</v>
+        <v>-5.953510284423828</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.163781642913818</v>
+        <v>6.718515396118164</v>
       </c>
       <c r="E116" t="n">
-        <v>2.457193851470947</v>
+        <v>1.883554339408875</v>
       </c>
       <c r="F116" t="n">
-        <v>2.84330415725708</v>
+        <v>2.804440259933472</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.197868347167969</v>
+        <v>-3.320551872253418</v>
       </c>
       <c r="B117" t="n">
-        <v>-3.165410041809082</v>
+        <v>3.593725681304932</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.245944023132324</v>
+        <v>-5.63289737701416</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.972611904144287</v>
+        <v>4.011490345001221</v>
       </c>
       <c r="E117" t="n">
-        <v>2.988380432128906</v>
+        <v>2.846148490905762</v>
       </c>
       <c r="F117" t="n">
-        <v>3.080697536468506</v>
+        <v>2.886379718780518</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.001914024353027</v>
+        <v>-3.552720308303833</v>
       </c>
       <c r="B118" t="n">
-        <v>-3.922784566879272</v>
+        <v>3.895097255706787</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.502520084381104</v>
+        <v>-6.329409599304199</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.216314792633057</v>
+        <v>0.79889315366745</v>
       </c>
       <c r="E118" t="n">
-        <v>3.512014627456665</v>
+        <v>3.771881818771362</v>
       </c>
       <c r="F118" t="n">
-        <v>3.407546520233154</v>
+        <v>2.513204097747803</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.950902938842773</v>
+        <v>-4.683213710784912</v>
       </c>
       <c r="B119" t="n">
-        <v>-4.316573619842529</v>
+        <v>3.872469902038574</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.204301834106445</v>
+        <v>-6.643031597137451</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.316268920898438</v>
+        <v>-2.324398040771484</v>
       </c>
       <c r="E119" t="n">
-        <v>3.814625024795532</v>
+        <v>4.50348424911499</v>
       </c>
       <c r="F119" t="n">
-        <v>3.546280145645142</v>
+        <v>2.124260187149048</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-6.629513740539551</v>
+        <v>-4.822390079498291</v>
       </c>
       <c r="B120" t="n">
-        <v>-4.779009819030762</v>
+        <v>3.687173843383789</v>
       </c>
       <c r="C120" t="n">
-        <v>-8.114036560058594</v>
+        <v>-6.722508430480957</v>
       </c>
       <c r="D120" t="n">
-        <v>-7.733907699584961</v>
+        <v>-5.531871795654297</v>
       </c>
       <c r="E120" t="n">
-        <v>4.273848533630371</v>
+        <v>5.060701847076416</v>
       </c>
       <c r="F120" t="n">
-        <v>4.203494548797607</v>
+        <v>1.336526155471802</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-6.904550075531006</v>
+        <v>-5.589760303497314</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.520753383636475</v>
+        <v>3.38485860824585</v>
       </c>
       <c r="C121" t="n">
-        <v>-8.371818542480469</v>
+        <v>-6.685416221618652</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.66660213470459</v>
+        <v>-8.051144599914551</v>
       </c>
       <c r="E121" t="n">
-        <v>4.742965698242188</v>
+        <v>5.669878482818604</v>
       </c>
       <c r="F121" t="n">
-        <v>4.726994514465332</v>
+        <v>0.7756920456886292</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-7.422578811645508</v>
+        <v>-5.994189262390137</v>
       </c>
       <c r="B122" t="n">
-        <v>-6.075841903686523</v>
+        <v>3.527351856231689</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.920251846313477</v>
+        <v>-6.617673873901367</v>
       </c>
       <c r="D122" t="n">
-        <v>-8.078797340393066</v>
+        <v>-9.509793281555176</v>
       </c>
       <c r="E122" t="n">
-        <v>5.072368621826172</v>
+        <v>6.209839344024658</v>
       </c>
       <c r="F122" t="n">
-        <v>5.240435123443604</v>
+        <v>0.03916406258940697</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-7.725718975067139</v>
+        <v>-6.448198318481445</v>
       </c>
       <c r="B123" t="n">
-        <v>-6.549234390258789</v>
+        <v>3.315096855163574</v>
       </c>
       <c r="C123" t="n">
-        <v>-8.573018074035645</v>
+        <v>-6.923920154571533</v>
       </c>
       <c r="D123" t="n">
-        <v>-8.640572547912598</v>
+        <v>-10.01366424560547</v>
       </c>
       <c r="E123" t="n">
-        <v>5.430419921875</v>
+        <v>6.640005111694336</v>
       </c>
       <c r="F123" t="n">
-        <v>5.441334247589111</v>
+        <v>-0.1994040012359619</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-8.175758361816406</v>
+        <v>-7.229930400848389</v>
       </c>
       <c r="B124" t="n">
-        <v>-7.272836208343506</v>
+        <v>3.476010322570801</v>
       </c>
       <c r="C124" t="n">
-        <v>-8.644712448120117</v>
+        <v>-7.22075080871582</v>
       </c>
       <c r="D124" t="n">
-        <v>-8.279940605163574</v>
+        <v>-10.03044128417969</v>
       </c>
       <c r="E124" t="n">
-        <v>5.872867584228516</v>
+        <v>7.152095317840576</v>
       </c>
       <c r="F124" t="n">
-        <v>5.421507358551025</v>
+        <v>-0.678025484085083</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-8.879148483276367</v>
+        <v>-7.846001148223877</v>
       </c>
       <c r="B125" t="n">
-        <v>-8.098167419433594</v>
+        <v>3.513423919677734</v>
       </c>
       <c r="C125" t="n">
-        <v>-9.064587593078613</v>
+        <v>-6.977472305297852</v>
       </c>
       <c r="D125" t="n">
-        <v>-8.668038368225098</v>
+        <v>-9.190008163452148</v>
       </c>
       <c r="E125" t="n">
-        <v>6.012638568878174</v>
+        <v>7.279304981231689</v>
       </c>
       <c r="F125" t="n">
-        <v>5.814406394958496</v>
+        <v>-1.015658140182495</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-9.613144874572754</v>
+        <v>-8.55095386505127</v>
       </c>
       <c r="B126" t="n">
-        <v>-8.963410377502441</v>
+        <v>4.39869213104248</v>
       </c>
       <c r="C126" t="n">
-        <v>-8.72878360748291</v>
+        <v>-7.205324649810791</v>
       </c>
       <c r="D126" t="n">
-        <v>-8.46040153503418</v>
+        <v>-8.148728370666504</v>
       </c>
       <c r="E126" t="n">
-        <v>5.970552444458008</v>
+        <v>7.419460773468018</v>
       </c>
       <c r="F126" t="n">
-        <v>5.874116897583008</v>
+        <v>-1.628293871879578</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-10.28833770751953</v>
+        <v>-9.722994804382324</v>
       </c>
       <c r="B127" t="n">
-        <v>-9.271201133728027</v>
+        <v>5.092922687530518</v>
       </c>
       <c r="C127" t="n">
-        <v>-9.153688430786133</v>
+        <v>-7.057248115539551</v>
       </c>
       <c r="D127" t="n">
-        <v>-8.447002410888672</v>
+        <v>-6.828658103942871</v>
       </c>
       <c r="E127" t="n">
-        <v>5.951414585113525</v>
+        <v>7.191053867340088</v>
       </c>
       <c r="F127" t="n">
-        <v>5.803832530975342</v>
+        <v>-2.100977182388306</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-10.73843002319336</v>
+        <v>-9.529323577880859</v>
       </c>
       <c r="B128" t="n">
-        <v>-10.03807353973389</v>
+        <v>5.820701122283936</v>
       </c>
       <c r="C128" t="n">
-        <v>-9.222718238830566</v>
+        <v>-7.248292922973633</v>
       </c>
       <c r="D128" t="n">
-        <v>-8.032953262329102</v>
+        <v>-5.141837596893311</v>
       </c>
       <c r="E128" t="n">
-        <v>5.315911769866943</v>
+        <v>6.62424373626709</v>
       </c>
       <c r="F128" t="n">
-        <v>5.514791965484619</v>
+        <v>-2.504956245422363</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-12.3645133972168</v>
+        <v>-10.25747776031494</v>
       </c>
       <c r="B129" t="n">
-        <v>-11.21460151672363</v>
+        <v>6.467331409454346</v>
       </c>
       <c r="C129" t="n">
-        <v>-8.319849014282227</v>
+        <v>-6.495489120483398</v>
       </c>
       <c r="D129" t="n">
-        <v>-7.386528491973877</v>
+        <v>-3.91576623916626</v>
       </c>
       <c r="E129" t="n">
-        <v>4.837998390197754</v>
+        <v>5.027835845947266</v>
       </c>
       <c r="F129" t="n">
-        <v>5.421548843383789</v>
+        <v>-3.076140642166138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-12.63307285308838</v>
+        <v>-10.93492698669434</v>
       </c>
       <c r="B130" t="n">
-        <v>-11.47806262969971</v>
+        <v>6.942856788635254</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.865026473999023</v>
+        <v>-5.998741626739502</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.053200721740723</v>
+        <v>-2.537000417709351</v>
       </c>
       <c r="E130" t="n">
-        <v>4.320452690124512</v>
+        <v>2.761672735214233</v>
       </c>
       <c r="F130" t="n">
-        <v>5.31330680847168</v>
+        <v>-3.566581249237061</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-13.09972476959229</v>
+        <v>-10.90577697753906</v>
       </c>
       <c r="B131" t="n">
-        <v>-12.45204830169678</v>
+        <v>6.514602661132812</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.55636739730835</v>
+        <v>-4.363712310791016</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.608708381652832</v>
+        <v>-2.118213415145874</v>
       </c>
       <c r="E131" t="n">
-        <v>3.305382251739502</v>
+        <v>-0.1868966966867447</v>
       </c>
       <c r="F131" t="n">
-        <v>4.565135478973389</v>
+        <v>-3.883092403411865</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-12.97117519378662</v>
+        <v>-10.21850204467773</v>
       </c>
       <c r="B132" t="n">
-        <v>-12.19017314910889</v>
+        <v>6.228253841400146</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.293566703796387</v>
+        <v>-2.672065258026123</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.203535079956055</v>
+        <v>-1.489620089530945</v>
       </c>
       <c r="E132" t="n">
-        <v>2.469264030456543</v>
+        <v>-3.682471036911011</v>
       </c>
       <c r="F132" t="n">
-        <v>1.845825552940369</v>
+        <v>-3.394691705703735</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-12.3897533416748</v>
+        <v>-9.689899444580078</v>
       </c>
       <c r="B133" t="n">
-        <v>-11.90225696563721</v>
+        <v>5.68406343460083</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.457298994064331</v>
+        <v>0.04178285598754883</v>
       </c>
       <c r="D133" t="n">
-        <v>-3.022471189498901</v>
+        <v>-1.410943031311035</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.03158478066325188</v>
+        <v>-7.163837909698486</v>
       </c>
       <c r="F133" t="n">
-        <v>-1.907030344009399</v>
+        <v>-3.369280338287354</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-10.89534664154053</v>
+        <v>-8.600218772888184</v>
       </c>
       <c r="B134" t="n">
-        <v>-11.13287448883057</v>
+        <v>4.681842803955078</v>
       </c>
       <c r="C134" t="n">
-        <v>1.136725425720215</v>
+        <v>3.074079751968384</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.2665674388408661</v>
+        <v>-1.672297120094299</v>
       </c>
       <c r="E134" t="n">
-        <v>-3.715923309326172</v>
+        <v>-9.860529899597168</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.627929210662842</v>
+        <v>-2.790268659591675</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-8.570324897766113</v>
+        <v>-6.772644519805908</v>
       </c>
       <c r="B135" t="n">
-        <v>-9.533733367919922</v>
+        <v>3.772136211395264</v>
       </c>
       <c r="C135" t="n">
-        <v>6.163617610931396</v>
+        <v>6.757029056549072</v>
       </c>
       <c r="D135" t="n">
-        <v>3.295700550079346</v>
+        <v>-1.116091251373291</v>
       </c>
       <c r="E135" t="n">
-        <v>-8.804141998291016</v>
+        <v>-11.6908597946167</v>
       </c>
       <c r="F135" t="n">
-        <v>-11.54685592651367</v>
+        <v>-1.632962703704834</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-5.957184314727783</v>
+        <v>-5.080100536346436</v>
       </c>
       <c r="B136" t="n">
-        <v>-6.763288497924805</v>
+        <v>2.787589550018311</v>
       </c>
       <c r="C136" t="n">
-        <v>10.68898868560791</v>
+        <v>10.06548118591309</v>
       </c>
       <c r="D136" t="n">
-        <v>8.148961067199707</v>
+        <v>-1.416171193122864</v>
       </c>
       <c r="E136" t="n">
-        <v>-12.3552770614624</v>
+        <v>-12.49819564819336</v>
       </c>
       <c r="F136" t="n">
-        <v>-13.48538780212402</v>
+        <v>-0.6929759979248047</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-3.18107795715332</v>
+        <v>-3.073713779449463</v>
       </c>
       <c r="B137" t="n">
-        <v>-4.770442962646484</v>
+        <v>1.650441884994507</v>
       </c>
       <c r="C137" t="n">
-        <v>15.23096370697021</v>
+        <v>13.41395473480225</v>
       </c>
       <c r="D137" t="n">
-        <v>12.83298969268799</v>
+        <v>-2.178490400314331</v>
       </c>
       <c r="E137" t="n">
-        <v>-13.35667705535889</v>
+        <v>-11.87608432769775</v>
       </c>
       <c r="F137" t="n">
-        <v>-12.33881568908691</v>
+        <v>0.2795171439647675</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.9053714275360107</v>
+        <v>-0.9935999512672424</v>
       </c>
       <c r="B138" t="n">
-        <v>-2.376812696456909</v>
+        <v>0.7157807350158691</v>
       </c>
       <c r="C138" t="n">
-        <v>18.7191333770752</v>
+        <v>15.98178768157959</v>
       </c>
       <c r="D138" t="n">
-        <v>16.34645652770996</v>
+        <v>-2.484224081039429</v>
       </c>
       <c r="E138" t="n">
-        <v>-11.02336692810059</v>
+        <v>-9.949180603027344</v>
       </c>
       <c r="F138" t="n">
-        <v>-9.416435241699219</v>
+        <v>1.404632210731506</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.345392942428589</v>
+        <v>1.388904333114624</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2859302759170532</v>
+        <v>-0.486292690038681</v>
       </c>
       <c r="C139" t="n">
-        <v>20.3584156036377</v>
+        <v>17.93905258178711</v>
       </c>
       <c r="D139" t="n">
-        <v>18.95616722106934</v>
+        <v>-3.001755475997925</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.434615135192871</v>
+        <v>-6.923677921295166</v>
       </c>
       <c r="F139" t="n">
-        <v>-6.738265037536621</v>
+        <v>2.152718782424927</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.635820150375366</v>
+        <v>3.105510950088501</v>
       </c>
       <c r="B140" t="n">
-        <v>1.441543340682983</v>
+        <v>-1.389246940612793</v>
       </c>
       <c r="C140" t="n">
-        <v>21.09714698791504</v>
+        <v>19.21646690368652</v>
       </c>
       <c r="D140" t="n">
-        <v>19.75290870666504</v>
+        <v>-3.706300020217896</v>
       </c>
       <c r="E140" t="n">
-        <v>-4.043464183807373</v>
+        <v>-4.117585182189941</v>
       </c>
       <c r="F140" t="n">
-        <v>-4.220648765563965</v>
+        <v>2.568519353866577</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.296707630157471</v>
+        <v>4.763875961303711</v>
       </c>
       <c r="B141" t="n">
-        <v>3.014845371246338</v>
+        <v>-2.282199144363403</v>
       </c>
       <c r="C141" t="n">
-        <v>19.78100204467773</v>
+        <v>18.76408195495605</v>
       </c>
       <c r="D141" t="n">
-        <v>19.47643280029297</v>
+        <v>-4.370525360107422</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.200891375541687</v>
+        <v>-0.7862157821655273</v>
       </c>
       <c r="F141" t="n">
-        <v>-2.365867853164673</v>
+        <v>2.957771778106689</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.367079257965088</v>
+        <v>5.901773452758789</v>
       </c>
       <c r="B142" t="n">
-        <v>4.025129318237305</v>
+        <v>-3.3463454246521</v>
       </c>
       <c r="C142" t="n">
-        <v>17.99069213867188</v>
+        <v>17.6174373626709</v>
       </c>
       <c r="D142" t="n">
-        <v>17.3945198059082</v>
+        <v>-4.735616207122803</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8908789753913879</v>
+        <v>1.793279886245728</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.7945220470428467</v>
+        <v>3.519514799118042</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.169739723205566</v>
+        <v>6.962987422943115</v>
       </c>
       <c r="B143" t="n">
-        <v>4.987841606140137</v>
+        <v>-4.170882225036621</v>
       </c>
       <c r="C143" t="n">
-        <v>15.15335178375244</v>
+        <v>15.74398708343506</v>
       </c>
       <c r="D143" t="n">
-        <v>15.48504734039307</v>
+        <v>-5.845256328582764</v>
       </c>
       <c r="E143" t="n">
-        <v>2.136032819747925</v>
+        <v>3.500110626220703</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6990149021148682</v>
+        <v>3.899938106536865</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7.769223213195801</v>
+        <v>8.08899974822998</v>
       </c>
       <c r="B144" t="n">
-        <v>5.614554882049561</v>
+        <v>-4.734531879425049</v>
       </c>
       <c r="C144" t="n">
-        <v>11.34754180908203</v>
+        <v>12.91523361206055</v>
       </c>
       <c r="D144" t="n">
-        <v>12.18776988983154</v>
+        <v>-5.950159072875977</v>
       </c>
       <c r="E144" t="n">
-        <v>3.126650333404541</v>
+        <v>4.503648281097412</v>
       </c>
       <c r="F144" t="n">
-        <v>1.278329968452454</v>
+        <v>4.459278583526611</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8.07319164276123</v>
+        <v>8.396089553833008</v>
       </c>
       <c r="B145" t="n">
-        <v>6.064979553222656</v>
+        <v>-5.472048282623291</v>
       </c>
       <c r="C145" t="n">
-        <v>7.747144222259521</v>
+        <v>9.608266830444336</v>
       </c>
       <c r="D145" t="n">
-        <v>8.911506652832031</v>
+        <v>-6.549731254577637</v>
       </c>
       <c r="E145" t="n">
-        <v>3.219323873519897</v>
+        <v>4.844990730285645</v>
       </c>
       <c r="F145" t="n">
-        <v>1.730375528335571</v>
+        <v>4.929271221160889</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.56358814239502</v>
+        <v>8.812788963317871</v>
       </c>
       <c r="B146" t="n">
-        <v>6.965354919433594</v>
+        <v>-6.123944759368896</v>
       </c>
       <c r="C146" t="n">
-        <v>2.911926031112671</v>
+        <v>5.690613269805908</v>
       </c>
       <c r="D146" t="n">
-        <v>5.277059555053711</v>
+        <v>-6.877607822418213</v>
       </c>
       <c r="E146" t="n">
-        <v>2.318808794021606</v>
+        <v>4.726129531860352</v>
       </c>
       <c r="F146" t="n">
-        <v>1.781670928001404</v>
+        <v>5.447583675384521</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8.751964569091797</v>
+        <v>8.907574653625488</v>
       </c>
       <c r="B147" t="n">
-        <v>7.875045776367188</v>
+        <v>-6.652133941650391</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.9287548661231995</v>
+        <v>2.280263185501099</v>
       </c>
       <c r="D147" t="n">
-        <v>2.558232069015503</v>
+        <v>-6.992541790008545</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8586800098419189</v>
+        <v>3.991366863250732</v>
       </c>
       <c r="F147" t="n">
-        <v>1.376344680786133</v>
+        <v>5.809749603271484</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.090851783752441</v>
+        <v>8.453847885131836</v>
       </c>
       <c r="B148" t="n">
-        <v>8.687554359436035</v>
+        <v>-7.461348533630371</v>
       </c>
       <c r="C148" t="n">
-        <v>-4.245232105255127</v>
+        <v>-1.264923453330994</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.012607455253601</v>
+        <v>-7.541350364685059</v>
       </c>
       <c r="E148" t="n">
-        <v>-1.407022476196289</v>
+        <v>3.652078151702881</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5336867570877075</v>
+        <v>6.543811321258545</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.210980415344238</v>
+        <v>8.656545639038086</v>
       </c>
       <c r="B149" t="n">
-        <v>9.175113677978516</v>
+        <v>-7.524044036865234</v>
       </c>
       <c r="C149" t="n">
-        <v>-6.632546424865723</v>
+        <v>-4.889150619506836</v>
       </c>
       <c r="D149" t="n">
-        <v>-3.71867036819458</v>
+        <v>-7.141832828521729</v>
       </c>
       <c r="E149" t="n">
-        <v>-3.059666156768799</v>
+        <v>2.725361347198486</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.052801463752985</v>
+        <v>6.852092266082764</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.678115844726562</v>
+        <v>8.446630477905273</v>
       </c>
       <c r="B150" t="n">
-        <v>9.014046669006348</v>
+        <v>-8.051581382751465</v>
       </c>
       <c r="C150" t="n">
-        <v>-8.929847717285156</v>
+        <v>-7.635317802429199</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.609986305236816</v>
+        <v>-6.921268939971924</v>
       </c>
       <c r="E150" t="n">
-        <v>-3.826533079147339</v>
+        <v>1.625272393226624</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.4685178399085999</v>
+        <v>6.989313125610352</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.201683044433594</v>
+        <v>6.622500896453857</v>
       </c>
       <c r="B151" t="n">
-        <v>8.562623977661133</v>
+        <v>-8.979043006896973</v>
       </c>
       <c r="C151" t="n">
-        <v>-10.04377555847168</v>
+        <v>-9.626410484313965</v>
       </c>
       <c r="D151" t="n">
-        <v>-8.767356872558594</v>
+        <v>-6.383423328399658</v>
       </c>
       <c r="E151" t="n">
-        <v>-4.067949771881104</v>
+        <v>0.7408009171485901</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.6849386692047119</v>
+        <v>7.319700241088867</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9.968029022216797</v>
+        <v>3.638282537460327</v>
       </c>
       <c r="B152" t="n">
-        <v>8.492781639099121</v>
+        <v>-9.103216171264648</v>
       </c>
       <c r="C152" t="n">
-        <v>-10.86122798919678</v>
+        <v>-10.28270721435547</v>
       </c>
       <c r="D152" t="n">
-        <v>-10.25305080413818</v>
+        <v>-5.763961791992188</v>
       </c>
       <c r="E152" t="n">
-        <v>-4.219637393951416</v>
+        <v>-0.2122295349836349</v>
       </c>
       <c r="F152" t="n">
-        <v>-1.167402029037476</v>
+        <v>6.585971355438232</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.111144065856934</v>
+        <v>2.212072134017944</v>
       </c>
       <c r="B153" t="n">
-        <v>7.570221900939941</v>
+        <v>-9.609623908996582</v>
       </c>
       <c r="C153" t="n">
-        <v>-11.15433597564697</v>
+        <v>-10.69827842712402</v>
       </c>
       <c r="D153" t="n">
-        <v>-10.45542144775391</v>
+        <v>-4.86632251739502</v>
       </c>
       <c r="E153" t="n">
-        <v>-4.533671855926514</v>
+        <v>-0.6763683557510376</v>
       </c>
       <c r="F153" t="n">
-        <v>-2.284504175186157</v>
+        <v>5.471965789794922</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>7.270106315612793</v>
+        <v>2.19970965385437</v>
       </c>
       <c r="B154" t="n">
-        <v>6.683979034423828</v>
+        <v>-9.879189491271973</v>
       </c>
       <c r="C154" t="n">
-        <v>-9.972231864929199</v>
+        <v>-10.31368637084961</v>
       </c>
       <c r="D154" t="n">
-        <v>-9.429611206054688</v>
+        <v>-3.721793174743652</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.264484643936157</v>
+        <v>-1.103810906410217</v>
       </c>
       <c r="F154" t="n">
-        <v>-2.326760292053223</v>
+        <v>3.640822649002075</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6.72723913192749</v>
+        <v>6.121184825897217</v>
       </c>
       <c r="B155" t="n">
-        <v>6.321942806243896</v>
+        <v>-11.44777965545654</v>
       </c>
       <c r="C155" t="n">
-        <v>-7.683262825012207</v>
+        <v>-5.428379535675049</v>
       </c>
       <c r="D155" t="n">
-        <v>-7.548214435577393</v>
+        <v>-1.346747875213623</v>
       </c>
       <c r="E155" t="n">
-        <v>-3.19346022605896</v>
+        <v>-3.572105884552002</v>
       </c>
       <c r="F155" t="n">
-        <v>-2.408044576644897</v>
+        <v>0.430223822593689</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6.255934715270996</v>
+        <v>6.262747287750244</v>
       </c>
       <c r="B156" t="n">
-        <v>4.884363651275635</v>
+        <v>-10.53321361541748</v>
       </c>
       <c r="C156" t="n">
-        <v>-6.588904857635498</v>
+        <v>-4.999499797821045</v>
       </c>
       <c r="D156" t="n">
-        <v>-7.262835025787354</v>
+        <v>0.8560375571250916</v>
       </c>
       <c r="E156" t="n">
-        <v>-3.181327819824219</v>
+        <v>-4.013256072998047</v>
       </c>
       <c r="F156" t="n">
-        <v>-2.660995483398438</v>
+        <v>-2.698467969894409</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.335831642150879</v>
+        <v>5.84147834777832</v>
       </c>
       <c r="B157" t="n">
-        <v>4.14123010635376</v>
+        <v>-9.584756851196289</v>
       </c>
       <c r="C157" t="n">
-        <v>-4.620743751525879</v>
+        <v>-4.779085636138916</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.392992496490479</v>
+        <v>3.31289529800415</v>
       </c>
       <c r="E157" t="n">
-        <v>-2.079413890838623</v>
+        <v>-4.157968044281006</v>
       </c>
       <c r="F157" t="n">
-        <v>-2.234473943710327</v>
+        <v>-4.800848007202148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5.154993057250977</v>
+        <v>5.342429161071777</v>
       </c>
       <c r="B158" t="n">
-        <v>3.578466415405273</v>
+        <v>-8.349647521972656</v>
       </c>
       <c r="C158" t="n">
-        <v>-4.125828742980957</v>
+        <v>-5.07158088684082</v>
       </c>
       <c r="D158" t="n">
-        <v>-4.960047721862793</v>
+        <v>6.360582828521729</v>
       </c>
       <c r="E158" t="n">
-        <v>-1.185302495956421</v>
+        <v>-4.368626594543457</v>
       </c>
       <c r="F158" t="n">
-        <v>-1.377297401428223</v>
+        <v>-6.706879138946533</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.985792875289917</v>
+        <v>4.250687122344971</v>
       </c>
       <c r="B159" t="n">
-        <v>2.427545309066772</v>
+        <v>-6.90812349319458</v>
       </c>
       <c r="C159" t="n">
-        <v>-4.222648143768311</v>
+        <v>-5.092060565948486</v>
       </c>
       <c r="D159" t="n">
-        <v>-4.870170593261719</v>
+        <v>8.850737571716309</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.9339439868927002</v>
+        <v>-3.89476752281189</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.6723383665084839</v>
+        <v>-8.151775360107422</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.798311233520508</v>
+        <v>3.124219655990601</v>
       </c>
       <c r="B160" t="n">
-        <v>1.27259349822998</v>
+        <v>-5.399392127990723</v>
       </c>
       <c r="C160" t="n">
-        <v>-4.630157470703125</v>
+        <v>-4.68543004989624</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.962664604187012</v>
+        <v>11.0049467086792</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.3475430309772491</v>
+        <v>-3.383945941925049</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.005156667903065681</v>
+        <v>-7.655207633972168</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.987481117248535</v>
+        <v>2.155112743377686</v>
       </c>
       <c r="B161" t="n">
-        <v>0.692425012588501</v>
+        <v>-3.536499261856079</v>
       </c>
       <c r="C161" t="n">
-        <v>-5.348997116088867</v>
+        <v>-4.490929126739502</v>
       </c>
       <c r="D161" t="n">
-        <v>-5.086482524871826</v>
+        <v>13.15434265136719</v>
       </c>
       <c r="E161" t="n">
-        <v>0.01187831535935402</v>
+        <v>-2.7404625415802</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5538427233695984</v>
+        <v>-6.509539127349854</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.9822767376899719</v>
+        <v>1.295151948928833</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.01514147315174341</v>
+        <v>-1.466920018196106</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.649735450744629</v>
+        <v>-4.484638690948486</v>
       </c>
       <c r="D162" t="n">
-        <v>-5.361135482788086</v>
+        <v>14.5274658203125</v>
       </c>
       <c r="E162" t="n">
-        <v>0.09137433767318726</v>
+        <v>-1.964347958564758</v>
       </c>
       <c r="F162" t="n">
-        <v>1.229512095451355</v>
+        <v>-4.183943271636963</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.0227949284017086</v>
+        <v>0.4635450541973114</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1981450766324997</v>
+        <v>-0.1067075580358505</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.771726131439209</v>
+        <v>-5.128026008605957</v>
       </c>
       <c r="D163" t="n">
-        <v>-5.822870254516602</v>
+        <v>13.93050670623779</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6014165878295898</v>
+        <v>-1.37796676158905</v>
       </c>
       <c r="F163" t="n">
-        <v>1.660516142845154</v>
+        <v>-2.118058443069458</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-1.121384739875793</v>
+        <v>-0.5252008438110352</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.095239639282227</v>
+        <v>0.8129271268844604</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.67290735244751</v>
+        <v>-5.109238624572754</v>
       </c>
       <c r="D164" t="n">
-        <v>-5.657163143157959</v>
+        <v>13.81109714508057</v>
       </c>
       <c r="E164" t="n">
-        <v>1.348270058631897</v>
+        <v>-0.5489591360092163</v>
       </c>
       <c r="F164" t="n">
-        <v>2.209694623947144</v>
+        <v>0.1200986057519913</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-1.667087912559509</v>
+        <v>-1.237856268882751</v>
       </c>
       <c r="B165" t="n">
-        <v>-2.123658418655396</v>
+        <v>2.268493890762329</v>
       </c>
       <c r="C165" t="n">
-        <v>-6.200017929077148</v>
+        <v>-5.502880573272705</v>
       </c>
       <c r="D165" t="n">
-        <v>-6.456337928771973</v>
+        <v>11.86496067047119</v>
       </c>
       <c r="E165" t="n">
-        <v>1.722966432571411</v>
+        <v>0.4816496074199677</v>
       </c>
       <c r="F165" t="n">
-        <v>2.118027687072754</v>
+        <v>1.590823769569397</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-2.549142599105835</v>
+        <v>-1.772379159927368</v>
       </c>
       <c r="B166" t="n">
-        <v>-2.499750852584839</v>
+        <v>3.124876022338867</v>
       </c>
       <c r="C166" t="n">
-        <v>-6.885158061981201</v>
+        <v>-5.546589851379395</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.351667404174805</v>
+        <v>10.09335517883301</v>
       </c>
       <c r="E166" t="n">
-        <v>2.091773748397827</v>
+        <v>1.214686393737793</v>
       </c>
       <c r="F166" t="n">
-        <v>2.219069957733154</v>
+        <v>2.646016597747803</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-3.232406616210938</v>
+        <v>-2.428143978118896</v>
       </c>
       <c r="B167" t="n">
-        <v>-2.643504619598389</v>
+        <v>3.7611403465271</v>
       </c>
       <c r="C167" t="n">
-        <v>-6.775253772735596</v>
+        <v>-5.697317123413086</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.54789400100708</v>
+        <v>7.062790870666504</v>
       </c>
       <c r="E167" t="n">
-        <v>2.455137014389038</v>
+        <v>1.924833416938782</v>
       </c>
       <c r="F167" t="n">
-        <v>2.806811571121216</v>
+        <v>3.443055152893066</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.314801216125488</v>
+        <v>-3.213770627975464</v>
       </c>
       <c r="B168" t="n">
-        <v>-3.146686792373657</v>
+        <v>3.938844203948975</v>
       </c>
       <c r="C168" t="n">
-        <v>-7.440920352935791</v>
+        <v>-5.626059532165527</v>
       </c>
       <c r="D168" t="n">
-        <v>-7.094793319702148</v>
+        <v>4.057670593261719</v>
       </c>
       <c r="E168" t="n">
-        <v>3.003151655197144</v>
+        <v>2.813854932785034</v>
       </c>
       <c r="F168" t="n">
-        <v>3.064902782440186</v>
+        <v>3.513247728347778</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-5.115771293640137</v>
+        <v>-3.452152252197266</v>
       </c>
       <c r="B169" t="n">
-        <v>-4.104673385620117</v>
+        <v>4.12928295135498</v>
       </c>
       <c r="C169" t="n">
-        <v>-7.826984882354736</v>
+        <v>-6.316536903381348</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.524363994598389</v>
+        <v>0.7877779603004456</v>
       </c>
       <c r="E169" t="n">
-        <v>3.491137027740479</v>
+        <v>3.72894024848938</v>
       </c>
       <c r="F169" t="n">
-        <v>3.293174028396606</v>
+        <v>2.965359687805176</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-6.060811996459961</v>
+        <v>-4.647148609161377</v>
       </c>
       <c r="B170" t="n">
-        <v>-4.622606754302979</v>
+        <v>4.063944339752197</v>
       </c>
       <c r="C170" t="n">
-        <v>-7.502663612365723</v>
+        <v>-6.590367317199707</v>
       </c>
       <c r="D170" t="n">
-        <v>-7.619822025299072</v>
+        <v>-2.611853122711182</v>
       </c>
       <c r="E170" t="n">
-        <v>3.804146289825439</v>
+        <v>4.481214046478271</v>
       </c>
       <c r="F170" t="n">
-        <v>3.48931097984314</v>
+        <v>2.595721960067749</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-6.900233268737793</v>
+        <v>-4.834424018859863</v>
       </c>
       <c r="B171" t="n">
-        <v>-4.985764503479004</v>
+        <v>4.031315803527832</v>
       </c>
       <c r="C171" t="n">
-        <v>-8.43468189239502</v>
+        <v>-6.784192085266113</v>
       </c>
       <c r="D171" t="n">
-        <v>-7.978218555450439</v>
+        <v>-5.757485389709473</v>
       </c>
       <c r="E171" t="n">
-        <v>4.330537796020508</v>
+        <v>5.103079319000244</v>
       </c>
       <c r="F171" t="n">
-        <v>4.077034473419189</v>
+        <v>1.609517216682434</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-7.270804882049561</v>
+        <v>-5.568351745605469</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.83647632598877</v>
+        <v>3.777932167053223</v>
       </c>
       <c r="C172" t="n">
-        <v>-8.780357360839844</v>
+        <v>-6.776401042938232</v>
       </c>
       <c r="D172" t="n">
-        <v>-8.004149436950684</v>
+        <v>-8.28922176361084</v>
       </c>
       <c r="E172" t="n">
-        <v>4.697841167449951</v>
+        <v>5.705787181854248</v>
       </c>
       <c r="F172" t="n">
-        <v>4.673739910125732</v>
+        <v>1.024724960327148</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-7.754243850708008</v>
+        <v>-6.07538366317749</v>
       </c>
       <c r="B173" t="n">
-        <v>-6.350876808166504</v>
+        <v>3.811933994293213</v>
       </c>
       <c r="C173" t="n">
-        <v>-9.29588508605957</v>
+        <v>-6.905398368835449</v>
       </c>
       <c r="D173" t="n">
-        <v>-8.346046447753906</v>
+        <v>-9.988824844360352</v>
       </c>
       <c r="E173" t="n">
-        <v>5.208879947662354</v>
+        <v>6.208232402801514</v>
       </c>
       <c r="F173" t="n">
-        <v>5.157047748565674</v>
+        <v>0.07020561397075653</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-8.178691864013672</v>
+        <v>-6.735674858093262</v>
       </c>
       <c r="B174" t="n">
-        <v>-7.006013870239258</v>
+        <v>3.665152549743652</v>
       </c>
       <c r="C174" t="n">
-        <v>-8.887621879577637</v>
+        <v>-7.134575843811035</v>
       </c>
       <c r="D174" t="n">
-        <v>-8.955877304077148</v>
+        <v>-10.24919700622559</v>
       </c>
       <c r="E174" t="n">
-        <v>5.667524337768555</v>
+        <v>6.837238788604736</v>
       </c>
       <c r="F174" t="n">
-        <v>5.344705581665039</v>
+        <v>-0.2661306262016296</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-8.637946128845215</v>
+        <v>-7.473846912384033</v>
       </c>
       <c r="B175" t="n">
-        <v>-7.739821910858154</v>
+        <v>3.816619396209717</v>
       </c>
       <c r="C175" t="n">
-        <v>-9.021993637084961</v>
+        <v>-7.566088676452637</v>
       </c>
       <c r="D175" t="n">
-        <v>-8.752065658569336</v>
+        <v>-10.4312572479248</v>
       </c>
       <c r="E175" t="n">
-        <v>6.376460075378418</v>
+        <v>7.343918323516846</v>
       </c>
       <c r="F175" t="n">
-        <v>5.453477382659912</v>
+        <v>-0.9439781904220581</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-9.323428153991699</v>
+        <v>-8.210113525390625</v>
       </c>
       <c r="B176" t="n">
-        <v>-8.381684303283691</v>
+        <v>3.857274055480957</v>
       </c>
       <c r="C176" t="n">
-        <v>-9.266323089599609</v>
+        <v>-7.212538242340088</v>
       </c>
       <c r="D176" t="n">
-        <v>-9.175737380981445</v>
+        <v>-9.600803375244141</v>
       </c>
       <c r="E176" t="n">
-        <v>6.407035827636719</v>
+        <v>7.577658176422119</v>
       </c>
       <c r="F176" t="n">
-        <v>5.80206823348999</v>
+        <v>-1.465625643730164</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-9.972312927246094</v>
+        <v>-8.996109962463379</v>
       </c>
       <c r="B177" t="n">
-        <v>-9.160225868225098</v>
+        <v>4.64772367477417</v>
       </c>
       <c r="C177" t="n">
-        <v>-8.965741157531738</v>
+        <v>-7.620049476623535</v>
       </c>
       <c r="D177" t="n">
-        <v>-8.624198913574219</v>
+        <v>-8.440446853637695</v>
       </c>
       <c r="E177" t="n">
-        <v>6.622326850891113</v>
+        <v>7.782112598419189</v>
       </c>
       <c r="F177" t="n">
-        <v>5.898876190185547</v>
+        <v>-2.150993824005127</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-10.78850364685059</v>
+        <v>-10.08798885345459</v>
       </c>
       <c r="B178" t="n">
-        <v>-9.563529968261719</v>
+        <v>5.359768867492676</v>
       </c>
       <c r="C178" t="n">
-        <v>-9.217598915100098</v>
+        <v>-7.316100597381592</v>
       </c>
       <c r="D178" t="n">
-        <v>-8.761741638183594</v>
+        <v>-7.084801197052002</v>
       </c>
       <c r="E178" t="n">
-        <v>6.669198989868164</v>
+        <v>7.633340835571289</v>
       </c>
       <c r="F178" t="n">
-        <v>5.9549241065979</v>
+        <v>-2.582722187042236</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-11.32724666595459</v>
+        <v>-10.02110576629639</v>
       </c>
       <c r="B179" t="n">
-        <v>-10.44862270355225</v>
+        <v>5.97160005569458</v>
       </c>
       <c r="C179" t="n">
-        <v>-9.074800491333008</v>
+        <v>-7.667587757110596</v>
       </c>
       <c r="D179" t="n">
-        <v>-8.302352905273438</v>
+        <v>-5.452683448791504</v>
       </c>
       <c r="E179" t="n">
-        <v>5.880918979644775</v>
+        <v>7.287158966064453</v>
       </c>
       <c r="F179" t="n">
-        <v>5.631802558898926</v>
+        <v>-3.093741178512573</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-12.86073303222656</v>
+        <v>-10.87858581542969</v>
       </c>
       <c r="B180" t="n">
-        <v>-11.63366317749023</v>
+        <v>6.650983810424805</v>
       </c>
       <c r="C180" t="n">
-        <v>-8.220489501953125</v>
+        <v>-6.894261360168457</v>
       </c>
       <c r="D180" t="n">
-        <v>-7.719960689544678</v>
+        <v>-4.173367977142334</v>
       </c>
       <c r="E180" t="n">
-        <v>5.174909591674805</v>
+        <v>5.67608642578125</v>
       </c>
       <c r="F180" t="n">
-        <v>5.549131870269775</v>
+        <v>-3.638825178146362</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-13.07144355773926</v>
+        <v>-11.43678379058838</v>
       </c>
       <c r="B181" t="n">
-        <v>-11.89471912384033</v>
+        <v>7.150100231170654</v>
       </c>
       <c r="C181" t="n">
-        <v>-7.596687793731689</v>
+        <v>-6.164699077606201</v>
       </c>
       <c r="D181" t="n">
-        <v>-7.188706874847412</v>
+        <v>-2.845842123031616</v>
       </c>
       <c r="E181" t="n">
-        <v>4.448419570922852</v>
+        <v>3.422086954116821</v>
       </c>
       <c r="F181" t="n">
-        <v>5.365974426269531</v>
+        <v>-4.003148078918457</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-13.59779453277588</v>
+        <v>-11.44781494140625</v>
       </c>
       <c r="B182" t="n">
-        <v>-12.85466480255127</v>
+        <v>6.769006729125977</v>
       </c>
       <c r="C182" t="n">
-        <v>-6.109517574310303</v>
+        <v>-4.393160343170166</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.704808712005615</v>
+        <v>-2.212619304656982</v>
       </c>
       <c r="E182" t="n">
-        <v>3.001326084136963</v>
+        <v>0.4439586102962494</v>
       </c>
       <c r="F182" t="n">
-        <v>4.391678810119629</v>
+        <v>-4.277498245239258</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-13.18112373352051</v>
+        <v>-10.73122882843018</v>
       </c>
       <c r="B183" t="n">
-        <v>-12.41045761108398</v>
+        <v>6.462419033050537</v>
       </c>
       <c r="C183" t="n">
-        <v>-4.714057445526123</v>
+        <v>-2.593769550323486</v>
       </c>
       <c r="D183" t="n">
-        <v>-5.07138729095459</v>
+        <v>-1.36356246471405</v>
       </c>
       <c r="E183" t="n">
-        <v>1.768667578697205</v>
+        <v>-3.191758632659912</v>
       </c>
       <c r="F183" t="n">
-        <v>1.548758983612061</v>
+        <v>-3.726552486419678</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-12.6728687286377</v>
+        <v>-10.10798454284668</v>
       </c>
       <c r="B184" t="n">
-        <v>-12.1763334274292</v>
+        <v>5.994739532470703</v>
       </c>
       <c r="C184" t="n">
-        <v>-1.762694597244263</v>
+        <v>0.1427414417266846</v>
       </c>
       <c r="D184" t="n">
-        <v>-2.844131708145142</v>
+        <v>-1.154037117958069</v>
       </c>
       <c r="E184" t="n">
-        <v>-0.8661166429519653</v>
+        <v>-6.889216423034668</v>
       </c>
       <c r="F184" t="n">
-        <v>-2.405316829681396</v>
+        <v>-3.595645427703857</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-11.0789155960083</v>
+        <v>-9.036287307739258</v>
       </c>
       <c r="B185" t="n">
-        <v>-11.22695446014404</v>
+        <v>5.019635200500488</v>
       </c>
       <c r="C185" t="n">
-        <v>1.809607028961182</v>
+        <v>3.213328123092651</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.01550265308469534</v>
+        <v>-1.201971650123596</v>
       </c>
       <c r="E185" t="n">
-        <v>-4.598056316375732</v>
+        <v>-9.713682174682617</v>
       </c>
       <c r="F185" t="n">
-        <v>-8.174354553222656</v>
+        <v>-2.916078567504883</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-8.766427993774414</v>
+        <v>-7.198438167572021</v>
       </c>
       <c r="B186" t="n">
-        <v>-9.578474044799805</v>
+        <v>4.121946334838867</v>
       </c>
       <c r="C186" t="n">
-        <v>6.594147205352783</v>
+        <v>6.966532230377197</v>
       </c>
       <c r="D186" t="n">
-        <v>3.817265033721924</v>
+        <v>-0.7188807129859924</v>
       </c>
       <c r="E186" t="n">
-        <v>-9.220769882202148</v>
+        <v>-11.60379028320312</v>
       </c>
       <c r="F186" t="n">
-        <v>-12.00341415405273</v>
+        <v>-1.738439321517944</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-5.956544876098633</v>
+        <v>-5.588085174560547</v>
       </c>
       <c r="B187" t="n">
-        <v>-6.959987163543701</v>
+        <v>3.159115314483643</v>
       </c>
       <c r="C187" t="n">
-        <v>11.42643356323242</v>
+        <v>10.28752422332764</v>
       </c>
       <c r="D187" t="n">
-        <v>8.74193286895752</v>
+        <v>-0.9354064464569092</v>
       </c>
       <c r="E187" t="n">
-        <v>-12.49570083618164</v>
+        <v>-12.46823406219482</v>
       </c>
       <c r="F187" t="n">
-        <v>-13.94341087341309</v>
+        <v>-0.7880858182907104</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-3.170241594314575</v>
+        <v>-3.436410665512085</v>
       </c>
       <c r="B188" t="n">
-        <v>-4.788185596466064</v>
+        <v>1.917572736740112</v>
       </c>
       <c r="C188" t="n">
-        <v>15.85282611846924</v>
+        <v>13.82835292816162</v>
       </c>
       <c r="D188" t="n">
-        <v>13.44114875793457</v>
+        <v>-1.80023729801178</v>
       </c>
       <c r="E188" t="n">
-        <v>-13.30369186401367</v>
+        <v>-11.95924854278564</v>
       </c>
       <c r="F188" t="n">
-        <v>-12.61286163330078</v>
+        <v>0.2355407029390335</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.7475302219390869</v>
+        <v>-1.25844943523407</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.49279522895813</v>
+        <v>1.0804842710495</v>
       </c>
       <c r="C189" t="n">
-        <v>19.20039367675781</v>
+        <v>16.18600273132324</v>
       </c>
       <c r="D189" t="n">
-        <v>16.93305015563965</v>
+        <v>-2.218690395355225</v>
       </c>
       <c r="E189" t="n">
-        <v>-10.97344779968262</v>
+        <v>-10.00116539001465</v>
       </c>
       <c r="F189" t="n">
-        <v>-9.633214950561523</v>
+        <v>1.326375365257263</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.457785367965698</v>
+        <v>0.9862110018730164</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.3727793097496033</v>
+        <v>-0.165368065237999</v>
       </c>
       <c r="C190" t="n">
-        <v>20.83403968811035</v>
+        <v>18.46183776855469</v>
       </c>
       <c r="D190" t="n">
-        <v>19.40762138366699</v>
+        <v>-2.718650579452515</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.526278972625732</v>
+        <v>-6.868186473846436</v>
       </c>
       <c r="F190" t="n">
-        <v>-6.773108959197998</v>
+        <v>2.174182891845703</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.766067743301392</v>
+        <v>2.874457597732544</v>
       </c>
       <c r="B191" t="n">
-        <v>1.574956178665161</v>
+        <v>-1.258835792541504</v>
       </c>
       <c r="C191" t="n">
-        <v>21.71212387084961</v>
+        <v>19.66552734375</v>
       </c>
       <c r="D191" t="n">
-        <v>20.2943229675293</v>
+        <v>-3.584023952484131</v>
       </c>
       <c r="E191" t="n">
-        <v>-4.063836097717285</v>
+        <v>-4.126583576202393</v>
       </c>
       <c r="F191" t="n">
-        <v>-4.196094512939453</v>
+        <v>2.482259273529053</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.403867721557617</v>
+        <v>4.469382286071777</v>
       </c>
       <c r="B192" t="n">
-        <v>3.139183759689331</v>
+        <v>-1.987624645233154</v>
       </c>
       <c r="C192" t="n">
-        <v>20.28733444213867</v>
+        <v>19.14795684814453</v>
       </c>
       <c r="D192" t="n">
-        <v>20.06465721130371</v>
+        <v>-4.240241050720215</v>
       </c>
       <c r="E192" t="n">
-        <v>-1.351767659187317</v>
+        <v>-0.8010711669921875</v>
       </c>
       <c r="F192" t="n">
-        <v>-2.3274827003479</v>
+        <v>2.926911115646362</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6.38960075378418</v>
+        <v>5.79785680770874</v>
       </c>
       <c r="B193" t="n">
-        <v>4.159117221832275</v>
+        <v>-3.234106302261353</v>
       </c>
       <c r="C193" t="n">
-        <v>18.23591423034668</v>
+        <v>18.21009063720703</v>
       </c>
       <c r="D193" t="n">
-        <v>18.00692749023438</v>
+        <v>-4.694247722625732</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6791374087333679</v>
+        <v>1.891350269317627</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.6512861847877502</v>
+        <v>3.433627605438232</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.204262733459473</v>
+        <v>7.01540470123291</v>
       </c>
       <c r="B194" t="n">
-        <v>5.048099994659424</v>
+        <v>-4.090603828430176</v>
       </c>
       <c r="C194" t="n">
-        <v>15.26992130279541</v>
+        <v>16.16842269897461</v>
       </c>
       <c r="D194" t="n">
-        <v>15.92033100128174</v>
+        <v>-5.886805534362793</v>
       </c>
       <c r="E194" t="n">
-        <v>2.048426151275635</v>
+        <v>3.600250005722046</v>
       </c>
       <c r="F194" t="n">
-        <v>0.813524603843689</v>
+        <v>3.843134641647339</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7.974793434143066</v>
+        <v>8.069002151489258</v>
       </c>
       <c r="B195" t="n">
-        <v>5.698748111724854</v>
+        <v>-4.708823204040527</v>
       </c>
       <c r="C195" t="n">
-        <v>11.34575462341309</v>
+        <v>13.26733589172363</v>
       </c>
       <c r="D195" t="n">
-        <v>12.41635990142822</v>
+        <v>-5.910594940185547</v>
       </c>
       <c r="E195" t="n">
-        <v>2.89821457862854</v>
+        <v>4.546026229858398</v>
       </c>
       <c r="F195" t="n">
-        <v>1.550665736198425</v>
+        <v>4.39831018447876</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.13893985748291</v>
+        <v>8.519956588745117</v>
       </c>
       <c r="B196" t="n">
-        <v>6.147993087768555</v>
+        <v>-5.568797588348389</v>
       </c>
       <c r="C196" t="n">
-        <v>7.641810894012451</v>
+        <v>9.907055854797363</v>
       </c>
       <c r="D196" t="n">
-        <v>8.78058910369873</v>
+        <v>-6.679115772247314</v>
       </c>
       <c r="E196" t="n">
-        <v>3.126079082489014</v>
+        <v>4.973804950714111</v>
       </c>
       <c r="F196" t="n">
-        <v>2.07206916809082</v>
+        <v>4.971106052398682</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8.425618171691895</v>
+        <v>8.976722717285156</v>
       </c>
       <c r="B197" t="n">
-        <v>6.951076984405518</v>
+        <v>-6.2573561668396</v>
       </c>
       <c r="C197" t="n">
-        <v>2.847187757492065</v>
+        <v>5.90714168548584</v>
       </c>
       <c r="D197" t="n">
-        <v>5.283669471740723</v>
+        <v>-7.006199836730957</v>
       </c>
       <c r="E197" t="n">
-        <v>2.278491735458374</v>
+        <v>4.818339347839355</v>
       </c>
       <c r="F197" t="n">
-        <v>2.246389627456665</v>
+        <v>5.583224773406982</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8.685885429382324</v>
+        <v>9.130130767822266</v>
       </c>
       <c r="B198" t="n">
-        <v>7.608023643493652</v>
+        <v>-6.926697731018066</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.322021961212158</v>
+        <v>2.644527196884155</v>
       </c>
       <c r="D198" t="n">
-        <v>2.145745515823364</v>
+        <v>-7.213294982910156</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8999522924423218</v>
+        <v>4.137170791625977</v>
       </c>
       <c r="F198" t="n">
-        <v>1.924358010292053</v>
+        <v>5.999114036560059</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8.967840194702148</v>
+        <v>8.729516983032227</v>
       </c>
       <c r="B199" t="n">
-        <v>8.373489379882812</v>
+        <v>-7.792285442352295</v>
       </c>
       <c r="C199" t="n">
-        <v>-4.464756011962891</v>
+        <v>-1.241728186607361</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.325815558433533</v>
+        <v>-7.736830234527588</v>
       </c>
       <c r="E199" t="n">
-        <v>-1.19627058506012</v>
+        <v>3.73479151725769</v>
       </c>
       <c r="F199" t="n">
-        <v>1.128204226493835</v>
+        <v>6.631202697753906</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.163966178894043</v>
+        <v>8.945581436157227</v>
       </c>
       <c r="B200" t="n">
-        <v>8.75810432434082</v>
+        <v>-7.969945907592773</v>
       </c>
       <c r="C200" t="n">
-        <v>-6.927166938781738</v>
+        <v>-4.592472553253174</v>
       </c>
       <c r="D200" t="n">
-        <v>-4.331555843353271</v>
+        <v>-7.718061923980713</v>
       </c>
       <c r="E200" t="n">
-        <v>-2.826779365539551</v>
+        <v>2.869340896606445</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5092374086380005</v>
+        <v>7.052996158599854</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9.520821571350098</v>
+        <v>8.829193115234375</v>
       </c>
       <c r="B201" t="n">
-        <v>8.628132820129395</v>
+        <v>-8.585515975952148</v>
       </c>
       <c r="C201" t="n">
-        <v>-9.022421836853027</v>
+        <v>-7.414224624633789</v>
       </c>
       <c r="D201" t="n">
-        <v>-7.09977388381958</v>
+        <v>-7.451714992523193</v>
       </c>
       <c r="E201" t="n">
-        <v>-3.597328662872314</v>
+        <v>1.845224499702454</v>
       </c>
       <c r="F201" t="n">
-        <v>0.05893191322684288</v>
+        <v>7.202165603637695</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9.37606143951416</v>
+        <v>7.021181583404541</v>
       </c>
       <c r="B202" t="n">
-        <v>8.052149772644043</v>
+        <v>-9.429600715637207</v>
       </c>
       <c r="C202" t="n">
-        <v>-10.30532550811768</v>
+        <v>-9.650208473205566</v>
       </c>
       <c r="D202" t="n">
-        <v>-9.162267684936523</v>
+        <v>-6.834004878997803</v>
       </c>
       <c r="E202" t="n">
-        <v>-3.850336313247681</v>
+        <v>0.9117985367774963</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.3084868788719177</v>
+        <v>7.433295249938965</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>9.853466987609863</v>
+        <v>4.216952323913574</v>
       </c>
       <c r="B203" t="n">
-        <v>7.770432472229004</v>
+        <v>-9.712303161621094</v>
       </c>
       <c r="C203" t="n">
-        <v>-11.0641565322876</v>
+        <v>-10.22216415405273</v>
       </c>
       <c r="D203" t="n">
-        <v>-10.65465927124023</v>
+        <v>-6.21021842956543</v>
       </c>
       <c r="E203" t="n">
-        <v>-4.065157413482666</v>
+        <v>-0.212521567940712</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.8016736507415771</v>
+        <v>6.993519306182861</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>8.722099304199219</v>
+        <v>2.832373857498169</v>
       </c>
       <c r="B204" t="n">
-        <v>7.025497436523438</v>
+        <v>-10.38093757629395</v>
       </c>
       <c r="C204" t="n">
-        <v>-11.14633464813232</v>
+        <v>-10.81232833862305</v>
       </c>
       <c r="D204" t="n">
-        <v>-11.04456901550293</v>
+        <v>-5.268279075622559</v>
       </c>
       <c r="E204" t="n">
-        <v>-4.58311128616333</v>
+        <v>-0.7693395614624023</v>
       </c>
       <c r="F204" t="n">
-        <v>-1.996070146560669</v>
+        <v>5.927464485168457</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7.348087310791016</v>
+        <v>2.837408065795898</v>
       </c>
       <c r="B205" t="n">
-        <v>6.651752471923828</v>
+        <v>-10.53764057159424</v>
       </c>
       <c r="C205" t="n">
-        <v>-10.13299083709717</v>
+        <v>-10.39132404327393</v>
       </c>
       <c r="D205" t="n">
-        <v>-9.705318450927734</v>
+        <v>-4.027833938598633</v>
       </c>
       <c r="E205" t="n">
-        <v>-3.525950908660889</v>
+        <v>-1.33304226398468</v>
       </c>
       <c r="F205" t="n">
-        <v>-2.209662914276123</v>
+        <v>4.078242301940918</v>
       </c>
     </row>
   </sheetData>

--- a/exo_control/neural_network_parameters/excel/timestamps_cp_cnn.xlsx
+++ b/exo_control/neural_network_parameters/excel/timestamps_cp_cnn.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.498940944671631</v>
+        <v>39.4775390625</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.081494331359863</v>
+        <v>39.4775390625</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.588740110397339</v>
+        <v>39.4775390625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6123822331428528</v>
+        <v>39.4775390625</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.669172883033752</v>
+        <v>39.4775390625</v>
       </c>
       <c r="F2" t="n">
-        <v>1.724342823028564</v>
+        <v>39.4775390625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.419732093811035</v>
+        <v>44.3292121887207</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.369844436645508</v>
+        <v>9.913748741149902</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.081883430480957</v>
+        <v>8.685971260070801</v>
       </c>
       <c r="D3" t="n">
-        <v>4.70704460144043</v>
+        <v>8.868971824645996</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.984396696090698</v>
+        <v>-26.72275352478027</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.130939364433289</v>
+        <v>1.62892472743988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.894673347473145</v>
+        <v>38.76419448852539</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.989925384521484</v>
+        <v>10.07970523834229</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.69034743309021</v>
+        <v>16.06944274902344</v>
       </c>
       <c r="D4" t="n">
-        <v>3.92263126373291</v>
+        <v>15.61674404144287</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.32623028755188</v>
+        <v>-26.87866973876953</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.693217754364014</v>
+        <v>-7.233467102050781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.980819702148438</v>
+        <v>34.27277755737305</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.936611652374268</v>
+        <v>11.37030220031738</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.263877868652344</v>
+        <v>14.16485214233398</v>
       </c>
       <c r="D5" t="n">
-        <v>7.363010406494141</v>
+        <v>27.37971878051758</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.862355947494507</v>
+        <v>-23.73958778381348</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.529222965240479</v>
+        <v>0.9744052290916443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.481729984283447</v>
+        <v>35.33196258544922</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.5071120262146</v>
+        <v>15.06014919281006</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.692027568817139</v>
+        <v>15.35296154022217</v>
       </c>
       <c r="D6" t="n">
-        <v>7.660763740539551</v>
+        <v>31.85819816589355</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.726093292236328</v>
+        <v>-24.3077392578125</v>
       </c>
       <c r="F6" t="n">
-        <v>-8.326714515686035</v>
+        <v>-8.949136734008789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.134990215301514</v>
+        <v>34.91549301147461</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.272111892700195</v>
+        <v>18.63544464111328</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.420788526535034</v>
+        <v>11.03972721099854</v>
       </c>
       <c r="D7" t="n">
-        <v>9.721028327941895</v>
+        <v>36.96489334106445</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.570191621780396</v>
+        <v>-15.88048267364502</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.435463905334473</v>
+        <v>-10.92953681945801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.723605632781982</v>
+        <v>28.6680850982666</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.360347747802734</v>
+        <v>20.88455390930176</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.149685859680176</v>
+        <v>5.997605323791504</v>
       </c>
       <c r="D8" t="n">
-        <v>10.37658500671387</v>
+        <v>46.47176742553711</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.222678661346436</v>
+        <v>-15.69199848175049</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.632271289825439</v>
+        <v>-16.39564514160156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.867574214935303</v>
+        <v>26.06654167175293</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2502286434173584</v>
+        <v>26.8420524597168</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.553636074066162</v>
+        <v>7.737418174743652</v>
       </c>
       <c r="D9" t="n">
-        <v>11.47921848297119</v>
+        <v>54.771728515625</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.307075977325439</v>
+        <v>-9.910801887512207</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.882914066314697</v>
+        <v>-10.25027847290039</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04387130960822105</v>
+        <v>21.04714584350586</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3500947952270508</v>
+        <v>28.06591033935547</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.363386154174805</v>
+        <v>12.56087970733643</v>
       </c>
       <c r="D10" t="n">
-        <v>11.47555923461914</v>
+        <v>60.67623519897461</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.10030722618103</v>
+        <v>-8.825809478759766</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.168935775756836</v>
+        <v>-6.738354206085205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6301521062850952</v>
+        <v>17.42052841186523</v>
       </c>
       <c r="B11" t="n">
-        <v>1.331214427947998</v>
+        <v>29.08390617370605</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.994137763977051</v>
+        <v>9.441750526428223</v>
       </c>
       <c r="D11" t="n">
-        <v>10.60176277160645</v>
+        <v>53.85029602050781</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7188830375671387</v>
+        <v>-7.093228816986084</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.90215539932251</v>
+        <v>-3.150313377380371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.2153980433940887</v>
+        <v>16.43147659301758</v>
       </c>
       <c r="B12" t="n">
-        <v>1.995667457580566</v>
+        <v>34.90416717529297</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.029220104217529</v>
+        <v>5.702712059020996</v>
       </c>
       <c r="D12" t="n">
-        <v>8.457054138183594</v>
+        <v>53.18312454223633</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3892450928688049</v>
+        <v>-6.730703830718994</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2113673985004425</v>
+        <v>6.097708702087402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.115998506546021</v>
+        <v>13.04683208465576</v>
       </c>
       <c r="B13" t="n">
-        <v>2.273747444152832</v>
+        <v>35.80731201171875</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.32069206237793</v>
+        <v>2.293085813522339</v>
       </c>
       <c r="D13" t="n">
-        <v>8.858763694763184</v>
+        <v>52.85910415649414</v>
       </c>
       <c r="E13" t="n">
-        <v>1.062318563461304</v>
+        <v>-4.839056968688965</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4699352383613586</v>
+        <v>8.339115142822266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.57712984085083</v>
+        <v>13.05132865905762</v>
       </c>
       <c r="B14" t="n">
-        <v>3.72309684753418</v>
+        <v>43.22988510131836</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.096594333648682</v>
+        <v>4.200549125671387</v>
       </c>
       <c r="D14" t="n">
-        <v>5.391919612884521</v>
+        <v>56.14479827880859</v>
       </c>
       <c r="E14" t="n">
-        <v>2.048401117324829</v>
+        <v>-3.519370079040527</v>
       </c>
       <c r="F14" t="n">
-        <v>1.106813430786133</v>
+        <v>11.6522159576416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.984590530395508</v>
+        <v>7.603065967559814</v>
       </c>
       <c r="B15" t="n">
-        <v>2.904126167297363</v>
+        <v>39.51398086547852</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.324439525604248</v>
+        <v>-0.5691806674003601</v>
       </c>
       <c r="D15" t="n">
-        <v>3.765424251556396</v>
+        <v>56.12197875976562</v>
       </c>
       <c r="E15" t="n">
-        <v>3.046038866043091</v>
+        <v>-1.487826347351074</v>
       </c>
       <c r="F15" t="n">
-        <v>1.06106162071228</v>
+        <v>14.20611381530762</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.524429321289062</v>
+        <v>6.952517032623291</v>
       </c>
       <c r="B16" t="n">
-        <v>3.653351306915283</v>
+        <v>44.13687515258789</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.248491287231445</v>
+        <v>-2.361584901809692</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5264716744422913</v>
+        <v>46.8908576965332</v>
       </c>
       <c r="E16" t="n">
-        <v>4.105409145355225</v>
+        <v>1.00489330291748</v>
       </c>
       <c r="F16" t="n">
-        <v>1.340039730072021</v>
+        <v>15.55240440368652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.399056434631348</v>
+        <v>7.957144260406494</v>
       </c>
       <c r="B17" t="n">
-        <v>3.187794208526611</v>
+        <v>52.02116394042969</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.352148532867432</v>
+        <v>-3.264224290847778</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.354034066200256</v>
+        <v>43.53132629394531</v>
       </c>
       <c r="E17" t="n">
-        <v>4.534605026245117</v>
+        <v>4.16437816619873</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3262442350387573</v>
+        <v>14.23302841186523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.957127809524536</v>
+        <v>5.638596057891846</v>
       </c>
       <c r="B18" t="n">
-        <v>2.309409379959106</v>
+        <v>49.94233322143555</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.317416667938232</v>
+        <v>1.444517970085144</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.720002174377441</v>
+        <v>40.03121566772461</v>
       </c>
       <c r="E18" t="n">
-        <v>5.511129856109619</v>
+        <v>1.420597076416016</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3766191601753235</v>
+        <v>15.56998825073242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.447479724884033</v>
+        <v>3.3403000831604</v>
       </c>
       <c r="B19" t="n">
-        <v>1.711718559265137</v>
+        <v>54.42650985717773</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.411365985870361</v>
+        <v>1.419402003288269</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.555004119873047</v>
+        <v>32.92850494384766</v>
       </c>
       <c r="E19" t="n">
-        <v>5.310935497283936</v>
+        <v>3.616747856140137</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7563514709472656</v>
+        <v>8.915863037109375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.509518146514893</v>
+        <v>1.747457981109619</v>
       </c>
       <c r="B20" t="n">
-        <v>2.121188640594482</v>
+        <v>50.73165512084961</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.053580760955811</v>
+        <v>3.813896894454956</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.574501037597656</v>
+        <v>28.65395355224609</v>
       </c>
       <c r="E20" t="n">
-        <v>6.554378986358643</v>
+        <v>-4.816190719604492</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2370712757110596</v>
+        <v>6.988874435424805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-4.455513000488281</v>
+        <v>-2.108052730560303</v>
       </c>
       <c r="B21" t="n">
-        <v>1.637367963790894</v>
+        <v>50.84350204467773</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.729426860809326</v>
+        <v>4.142424583435059</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.661033630371094</v>
+        <v>24.57551765441895</v>
       </c>
       <c r="E21" t="n">
-        <v>5.214428424835205</v>
+        <v>-1.801205158233643</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7487561702728271</v>
+        <v>8.988625526428223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-6.200402736663818</v>
+        <v>-3.174743175506592</v>
       </c>
       <c r="B22" t="n">
-        <v>1.949490785598755</v>
+        <v>56.83508682250977</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.680915355682373</v>
+        <v>8.248080253601074</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.513836860656738</v>
+        <v>18.66469192504883</v>
       </c>
       <c r="E22" t="n">
-        <v>6.073798656463623</v>
+        <v>1.756497383117676</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5686745643615723</v>
+        <v>4.924515724182129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-6.150218963623047</v>
+        <v>1.781069278717041</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8735877275466919</v>
+        <v>56.21559524536133</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.849732875823975</v>
+        <v>7.077738761901855</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.248191356658936</v>
+        <v>19.18582153320312</v>
       </c>
       <c r="E23" t="n">
-        <v>5.768042087554932</v>
+        <v>2.254371643066406</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3653029203414917</v>
+        <v>2.486454010009766</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-6.840816497802734</v>
+        <v>-0.1814321875572205</v>
       </c>
       <c r="B24" t="n">
-        <v>2.22522759437561</v>
+        <v>50.90098190307617</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.610056400299072</v>
+        <v>12.82980918884277</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.781589031219482</v>
+        <v>14.17091655731201</v>
       </c>
       <c r="E24" t="n">
-        <v>6.429737567901611</v>
+        <v>-3.895539522171021</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7691190242767334</v>
+        <v>-7.510440349578857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-8.966061592102051</v>
+        <v>-3.139579296112061</v>
       </c>
       <c r="B25" t="n">
-        <v>3.042771816253662</v>
+        <v>52.58252716064453</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.708451271057129</v>
+        <v>12.57352447509766</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.972136497497559</v>
+        <v>14.79315948486328</v>
       </c>
       <c r="E25" t="n">
-        <v>5.798070430755615</v>
+        <v>-8.520098686218262</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.422301411628723</v>
+        <v>-18.01824569702148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-8.551419258117676</v>
+        <v>-1.857690334320068</v>
       </c>
       <c r="B26" t="n">
-        <v>4.045602798461914</v>
+        <v>54.45350646972656</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.181337833404541</v>
+        <v>16.06399726867676</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.343911170959473</v>
+        <v>17.34071922302246</v>
       </c>
       <c r="E26" t="n">
-        <v>4.217885971069336</v>
+        <v>-14.67642021179199</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.8123645782470703</v>
+        <v>-24.85578918457031</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-8.556020736694336</v>
+        <v>1.366081714630127</v>
       </c>
       <c r="B27" t="n">
-        <v>4.910126209259033</v>
+        <v>50.7758674621582</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.043774127960205</v>
+        <v>19.04727745056152</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.02112340927124</v>
+        <v>17.53059196472168</v>
       </c>
       <c r="E27" t="n">
-        <v>2.942135572433472</v>
+        <v>-28.73604393005371</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.306727647781372</v>
+        <v>-30.24621772766113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-10.22483539581299</v>
+        <v>-1.878718852996826</v>
       </c>
       <c r="B28" t="n">
-        <v>5.704874992370605</v>
+        <v>50.56538391113281</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.955020904541016</v>
+        <v>26.39751434326172</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5370035171508789</v>
+        <v>21.09021186828613</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5040566921234131</v>
+        <v>-40.98205947875977</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.533306121826172</v>
+        <v>-42.72470092773438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-9.896446228027344</v>
+        <v>4.446798801422119</v>
       </c>
       <c r="B29" t="n">
-        <v>5.052899360656738</v>
+        <v>48.65385437011719</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.697148323059082</v>
+        <v>27.68796157836914</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.664499640464783</v>
+        <v>23.56758499145508</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.201275587081909</v>
+        <v>-44.19438171386719</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.108338117599487</v>
+        <v>-49.84399032592773</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-9.034979820251465</v>
+        <v>5.863699436187744</v>
       </c>
       <c r="B30" t="n">
-        <v>5.276443004608154</v>
+        <v>48.44608688354492</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.931360244750977</v>
+        <v>35.1454963684082</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.463022589683533</v>
+        <v>28.00971794128418</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.116608142852783</v>
+        <v>-50.35559844970703</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.405981779098511</v>
+        <v>-55.85485458374023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-9.322298049926758</v>
+        <v>4.614105701446533</v>
       </c>
       <c r="B31" t="n">
-        <v>4.362647533416748</v>
+        <v>42.75096130371094</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.576257586479187</v>
+        <v>36.17047500610352</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.411920070648193</v>
+        <v>33.15188217163086</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.995766162872314</v>
+        <v>-52.13203430175781</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.589511513710022</v>
+        <v>-50.81520080566406</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-8.124809265136719</v>
+        <v>8.465662956237793</v>
       </c>
       <c r="B32" t="n">
-        <v>4.017187118530273</v>
+        <v>42.52672576904297</v>
       </c>
       <c r="C32" t="n">
-        <v>1.490666389465332</v>
+        <v>42.1467399597168</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.619146585464478</v>
+        <v>31.57321739196777</v>
       </c>
       <c r="E32" t="n">
-        <v>-11.00168132781982</v>
+        <v>-56.04743194580078</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.326343297958374</v>
+        <v>-45.91608047485352</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-6.086593627929688</v>
+        <v>14.84368228912354</v>
       </c>
       <c r="B33" t="n">
-        <v>3.046809673309326</v>
+        <v>39.20069885253906</v>
       </c>
       <c r="C33" t="n">
-        <v>4.727365016937256</v>
+        <v>52.20730209350586</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.699880480766296</v>
+        <v>30.5034236907959</v>
       </c>
       <c r="E33" t="n">
-        <v>-13.04590797424316</v>
+        <v>-49.28931045532227</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6463808417320251</v>
+        <v>-39.56419372558594</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-3.719062566757202</v>
+        <v>16.38355445861816</v>
       </c>
       <c r="B34" t="n">
-        <v>2.476871967315674</v>
+        <v>35.80316925048828</v>
       </c>
       <c r="C34" t="n">
-        <v>7.74790620803833</v>
+        <v>52.67792510986328</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.545617580413818</v>
+        <v>31.14319038391113</v>
       </c>
       <c r="E34" t="n">
-        <v>-14.2831392288208</v>
+        <v>-42.67369079589844</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3702577948570251</v>
+        <v>-37.61043548583984</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-2.852480888366699</v>
+        <v>19.42226791381836</v>
       </c>
       <c r="B35" t="n">
-        <v>1.852130889892578</v>
+        <v>34.98720550537109</v>
       </c>
       <c r="C35" t="n">
-        <v>10.23462867736816</v>
+        <v>58.31013870239258</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.742003440856934</v>
+        <v>29.89321517944336</v>
       </c>
       <c r="E35" t="n">
-        <v>-12.14032459259033</v>
+        <v>-30.91972160339355</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8083098530769348</v>
+        <v>-37.44789886474609</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.7574760317802429</v>
+        <v>28.0307674407959</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.05832181870937347</v>
+        <v>30.21906280517578</v>
       </c>
       <c r="C36" t="n">
-        <v>13.7683687210083</v>
+        <v>59.86377334594727</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.138825654983521</v>
+        <v>27.79137229919434</v>
       </c>
       <c r="E36" t="n">
-        <v>-10.26170063018799</v>
+        <v>-30.25726127624512</v>
       </c>
       <c r="F36" t="n">
-        <v>1.986169338226318</v>
+        <v>-32.26807022094727</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.062165021896362</v>
+        <v>27.93782997131348</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.243809580802917</v>
+        <v>26.22285270690918</v>
       </c>
       <c r="C37" t="n">
-        <v>14.93216991424561</v>
+        <v>59.39590072631836</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.159217596054077</v>
+        <v>24.95888137817383</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.092676639556885</v>
+        <v>-23.80360794067383</v>
       </c>
       <c r="F37" t="n">
-        <v>1.907407164573669</v>
+        <v>-28.5523796081543</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.088184356689453</v>
+        <v>36.99741744995117</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.9422409534454346</v>
+        <v>19.29529190063477</v>
       </c>
       <c r="C38" t="n">
-        <v>17.27369117736816</v>
+        <v>57.99299621582031</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.958331108093262</v>
+        <v>23.70073318481445</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.461727380752563</v>
+        <v>-17.57656478881836</v>
       </c>
       <c r="F38" t="n">
-        <v>3.478938817977905</v>
+        <v>-35.75748825073242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.949578285217285</v>
+        <v>38.03078460693359</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.205777168273926</v>
+        <v>22.42927360534668</v>
       </c>
       <c r="C39" t="n">
-        <v>16.58801651000977</v>
+        <v>55.62581253051758</v>
       </c>
       <c r="D39" t="n">
-        <v>-3.660687446594238</v>
+        <v>20.49349594116211</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2072414308786392</v>
+        <v>-13.74959182739258</v>
       </c>
       <c r="F39" t="n">
-        <v>3.311680555343628</v>
+        <v>-34.50062561035156</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.40623140335083</v>
+        <v>36.99931335449219</v>
       </c>
       <c r="B40" t="n">
-        <v>-3.024046897888184</v>
+        <v>14.81114768981934</v>
       </c>
       <c r="C40" t="n">
-        <v>14.02174663543701</v>
+        <v>44.17857360839844</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.728332281112671</v>
+        <v>16.4420108795166</v>
       </c>
       <c r="E40" t="n">
-        <v>1.047242999076843</v>
+        <v>-9.808893203735352</v>
       </c>
       <c r="F40" t="n">
-        <v>4.340020179748535</v>
+        <v>-37.78297805786133</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7.331977844238281</v>
+        <v>42.10032272338867</v>
       </c>
       <c r="B41" t="n">
-        <v>-3.914822340011597</v>
+        <v>8.161537170410156</v>
       </c>
       <c r="C41" t="n">
-        <v>14.22721099853516</v>
+        <v>42.28915786743164</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.230742454528809</v>
+        <v>13.70583438873291</v>
       </c>
       <c r="E41" t="n">
-        <v>2.994374513626099</v>
+        <v>-10.86521434783936</v>
       </c>
       <c r="F41" t="n">
-        <v>4.151856899261475</v>
+        <v>-34.00195693969727</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.293944358825684</v>
+        <v>40.84406280517578</v>
       </c>
       <c r="B42" t="n">
-        <v>-4.764830589294434</v>
+        <v>8.702173233032227</v>
       </c>
       <c r="C42" t="n">
-        <v>11.74297714233398</v>
+        <v>42.23908615112305</v>
       </c>
       <c r="D42" t="n">
-        <v>-5.994757652282715</v>
+        <v>12.43185424804688</v>
       </c>
       <c r="E42" t="n">
-        <v>4.577490329742432</v>
+        <v>-8.027335166931152</v>
       </c>
       <c r="F42" t="n">
-        <v>4.841482162475586</v>
+        <v>-39.87917327880859</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.933653831481934</v>
+        <v>41.495361328125</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.136164665222168</v>
+        <v>10.29424381256104</v>
       </c>
       <c r="C43" t="n">
-        <v>8.319557189941406</v>
+        <v>34.95310592651367</v>
       </c>
       <c r="D43" t="n">
-        <v>-5.764223575592041</v>
+        <v>5.586869239807129</v>
       </c>
       <c r="E43" t="n">
-        <v>4.23281192779541</v>
+        <v>-9.845202445983887</v>
       </c>
       <c r="F43" t="n">
-        <v>4.597516536712646</v>
+        <v>-36.47947692871094</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.926946640014648</v>
+        <v>40.28548431396484</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.942187786102295</v>
+        <v>0.5809410214424133</v>
       </c>
       <c r="C44" t="n">
-        <v>5.189466953277588</v>
+        <v>23.03919410705566</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.08273983001709</v>
+        <v>10.33756065368652</v>
       </c>
       <c r="E44" t="n">
-        <v>4.161820411682129</v>
+        <v>-11.98826313018799</v>
       </c>
       <c r="F44" t="n">
-        <v>4.6790452003479</v>
+        <v>-39.08978271484375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.97100830078125</v>
+        <v>41.28859710693359</v>
       </c>
       <c r="B45" t="n">
-        <v>-6.067594528198242</v>
+        <v>-2.842448472976685</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.01669335551559925</v>
+        <v>21.05591773986816</v>
       </c>
       <c r="D45" t="n">
-        <v>-6.780985355377197</v>
+        <v>6.60543155670166</v>
       </c>
       <c r="E45" t="n">
-        <v>3.533888339996338</v>
+        <v>-14.75990390777588</v>
       </c>
       <c r="F45" t="n">
-        <v>5.329485893249512</v>
+        <v>-40.96287536621094</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.912443161010742</v>
+        <v>37.80541229248047</v>
       </c>
       <c r="B46" t="n">
-        <v>-6.680742740631104</v>
+        <v>2.998286008834839</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.8436214327812195</v>
+        <v>13.23102474212646</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.276798725128174</v>
+        <v>9.523921012878418</v>
       </c>
       <c r="E46" t="n">
-        <v>3.285878896713257</v>
+        <v>-12.83814525604248</v>
       </c>
       <c r="F46" t="n">
-        <v>6.054555892944336</v>
+        <v>-37.21710586547852</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.099350929260254</v>
+        <v>33.82240676879883</v>
       </c>
       <c r="B47" t="n">
-        <v>-6.354671001434326</v>
+        <v>-3.090916872024536</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.044410705566406</v>
+        <v>5.526923179626465</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.349267959594727</v>
+        <v>7.65854549407959</v>
       </c>
       <c r="E47" t="n">
-        <v>1.46776282787323</v>
+        <v>-17.46344757080078</v>
       </c>
       <c r="F47" t="n">
-        <v>6.135457992553711</v>
+        <v>-35.82102203369141</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.517467498779297</v>
+        <v>38.54130172729492</v>
       </c>
       <c r="B48" t="n">
-        <v>-7.266970157623291</v>
+        <v>-3.498795747756958</v>
       </c>
       <c r="C48" t="n">
-        <v>-9.692246437072754</v>
+        <v>10.34388256072998</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.147132873535156</v>
+        <v>5.792662620544434</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.09105630218982697</v>
+        <v>-22.47332382202148</v>
       </c>
       <c r="F48" t="n">
-        <v>6.133584022521973</v>
+        <v>-35.41968154907227</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.86590051651001</v>
+        <v>32.29984664916992</v>
       </c>
       <c r="B49" t="n">
-        <v>-7.811945915222168</v>
+        <v>-9.685122489929199</v>
       </c>
       <c r="C49" t="n">
-        <v>-9.507925987243652</v>
+        <v>9.66728401184082</v>
       </c>
       <c r="D49" t="n">
-        <v>-5.994921207427979</v>
+        <v>13.71599864959717</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.268426656723022</v>
+        <v>-22.02506065368652</v>
       </c>
       <c r="F49" t="n">
-        <v>7.382845878601074</v>
+        <v>-36.85950088500977</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.854890584945679</v>
+        <v>19.71334838867188</v>
       </c>
       <c r="B50" t="n">
-        <v>-7.632534503936768</v>
+        <v>-4.270804405212402</v>
       </c>
       <c r="C50" t="n">
-        <v>-10.7373161315918</v>
+        <v>13.70601177215576</v>
       </c>
       <c r="D50" t="n">
-        <v>-5.517134666442871</v>
+        <v>7.168911933898926</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.05673348903656</v>
+        <v>-23.28492546081543</v>
       </c>
       <c r="F50" t="n">
-        <v>5.139836311340332</v>
+        <v>-33.18639373779297</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4223047196865082</v>
+        <v>20.58395195007324</v>
       </c>
       <c r="B51" t="n">
-        <v>-6.642241477966309</v>
+        <v>-10.23843288421631</v>
       </c>
       <c r="C51" t="n">
-        <v>-9.636573791503906</v>
+        <v>14.91618061065674</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.093550205230713</v>
+        <v>13.95333576202393</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.85161554813385</v>
+        <v>-23.91840171813965</v>
       </c>
       <c r="F51" t="n">
-        <v>3.660084247589111</v>
+        <v>-39.30699157714844</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.470050096511841</v>
+        <v>31.3929500579834</v>
       </c>
       <c r="B52" t="n">
-        <v>-8.101500511169434</v>
+        <v>-5.641688346862793</v>
       </c>
       <c r="C52" t="n">
-        <v>-9.585416793823242</v>
+        <v>12.60849285125732</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.007035732269287</v>
+        <v>16.23972511291504</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.185556769371033</v>
+        <v>-23.7337532043457</v>
       </c>
       <c r="F52" t="n">
-        <v>2.849408864974976</v>
+        <v>-49.59425354003906</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.188965320587158</v>
+        <v>44.72450637817383</v>
       </c>
       <c r="B53" t="n">
-        <v>-10.39083290100098</v>
+        <v>8.155126571655273</v>
       </c>
       <c r="C53" t="n">
-        <v>-3.98674464225769</v>
+        <v>8.644299507141113</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.4933388531208038</v>
+        <v>5.571221351623535</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.573918581008911</v>
+        <v>-21.67748260498047</v>
       </c>
       <c r="F53" t="n">
-        <v>1.113950252532959</v>
+        <v>4.28836727142334</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.698354244232178</v>
+        <v>42.11288070678711</v>
       </c>
       <c r="B54" t="n">
-        <v>-9.211451530456543</v>
+        <v>10.54612922668457</v>
       </c>
       <c r="C54" t="n">
-        <v>-4.241443157196045</v>
+        <v>10.96245861053467</v>
       </c>
       <c r="D54" t="n">
-        <v>2.167216539382935</v>
+        <v>11.66319274902344</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.437146425247192</v>
+        <v>-25.07295799255371</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.95454216003418</v>
+        <v>0.9584755301475525</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.548327922821045</v>
+        <v>41.40576934814453</v>
       </c>
       <c r="B55" t="n">
-        <v>-8.561297416687012</v>
+        <v>11.07661151885986</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.15663480758667</v>
+        <v>10.75112152099609</v>
       </c>
       <c r="D55" t="n">
-        <v>3.498720169067383</v>
+        <v>17.54600143432617</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.81970477104187</v>
+        <v>-24.62114334106445</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.730879306793213</v>
+        <v>-5.254402637481689</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.55871057510376</v>
+        <v>38.27352523803711</v>
       </c>
       <c r="B56" t="n">
-        <v>-7.054652690887451</v>
+        <v>13.62880802154541</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.530282974243164</v>
+        <v>11.45597553253174</v>
       </c>
       <c r="D56" t="n">
-        <v>6.492475032806396</v>
+        <v>31.63314056396484</v>
       </c>
       <c r="E56" t="n">
-        <v>-4.084486961364746</v>
+        <v>-23.71859359741211</v>
       </c>
       <c r="F56" t="n">
-        <v>-6.602520942687988</v>
+        <v>-5.140896797180176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.639575958251953</v>
+        <v>35.1289176940918</v>
       </c>
       <c r="B57" t="n">
-        <v>-6.022919654846191</v>
+        <v>16.12616348266602</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.869576930999756</v>
+        <v>13.21877670288086</v>
       </c>
       <c r="D57" t="n">
-        <v>8.129344940185547</v>
+        <v>36.34992599487305</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.843417882919312</v>
+        <v>-21.79339790344238</v>
       </c>
       <c r="F57" t="n">
-        <v>-8.352746963500977</v>
+        <v>-12.442551612854</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.35458779335022</v>
+        <v>33.11291885375977</v>
       </c>
       <c r="B58" t="n">
-        <v>-4.745637893676758</v>
+        <v>19.39223289489746</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.363290309906006</v>
+        <v>12.1893367767334</v>
       </c>
       <c r="D58" t="n">
-        <v>10.19211864471436</v>
+        <v>44.43560409545898</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.543714761734009</v>
+        <v>-17.74369239807129</v>
       </c>
       <c r="F58" t="n">
-        <v>-8.137243270874023</v>
+        <v>-14.99692821502686</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.17828106880188</v>
+        <v>29.60844039916992</v>
       </c>
       <c r="B59" t="n">
-        <v>-3.20079779624939</v>
+        <v>22.88702392578125</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.673643112182617</v>
+        <v>8.676211357116699</v>
       </c>
       <c r="D59" t="n">
-        <v>11.77448749542236</v>
+        <v>53.21344757080078</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.676049470901489</v>
+        <v>-13.65002632141113</v>
       </c>
       <c r="F59" t="n">
-        <v>-7.188125133514404</v>
+        <v>-16.01825141906738</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.399095296859741</v>
+        <v>27.12538528442383</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.170878767967224</v>
+        <v>29.14078330993652</v>
       </c>
       <c r="C60" t="n">
-        <v>-4.79802131652832</v>
+        <v>10.94287395477295</v>
       </c>
       <c r="D60" t="n">
-        <v>12.7733907699585</v>
+        <v>58.10032272338867</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.872610926628113</v>
+        <v>-11.79293823242188</v>
       </c>
       <c r="F60" t="n">
-        <v>-5.361061573028564</v>
+        <v>-13.74528217315674</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1931202113628387</v>
+        <v>23.7840690612793</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5131891965866089</v>
+        <v>29.96804809570312</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.363430976867676</v>
+        <v>8.068556785583496</v>
       </c>
       <c r="D61" t="n">
-        <v>12.47745037078857</v>
+        <v>60.74634552001953</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.419730067253113</v>
+        <v>-9.996267318725586</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.46600604057312</v>
+        <v>-3.812671899795532</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.736524224281311</v>
+        <v>20.3933048248291</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7565764188766479</v>
+        <v>32.92076110839844</v>
       </c>
       <c r="C62" t="n">
-        <v>-5.572301864624023</v>
+        <v>6.24782657623291</v>
       </c>
       <c r="D62" t="n">
-        <v>12.07063674926758</v>
+        <v>57.85153579711914</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6853172779083252</v>
+        <v>-7.465015888214111</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.177779793739319</v>
+        <v>-0.3949475884437561</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.9953418374061584</v>
+        <v>17.04843711853027</v>
       </c>
       <c r="B63" t="n">
-        <v>1.778813123703003</v>
+        <v>38.31065368652344</v>
       </c>
       <c r="C63" t="n">
-        <v>-6.121986389160156</v>
+        <v>5.498435020446777</v>
       </c>
       <c r="D63" t="n">
-        <v>9.988921165466309</v>
+        <v>57.76696395874023</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3578066825866699</v>
+        <v>-6.559689044952393</v>
       </c>
       <c r="F63" t="n">
-        <v>0.414350301027298</v>
+        <v>6.249958038330078</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-2.12512469291687</v>
+        <v>15.45529937744141</v>
       </c>
       <c r="B64" t="n">
-        <v>2.48872971534729</v>
+        <v>40.34396362304688</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.917012691497803</v>
+        <v>2.467221021652222</v>
       </c>
       <c r="D64" t="n">
-        <v>9.400992393493652</v>
+        <v>60.63871002197266</v>
       </c>
       <c r="E64" t="n">
-        <v>1.10438346862793</v>
+        <v>-4.004050254821777</v>
       </c>
       <c r="F64" t="n">
-        <v>1.274479508399963</v>
+        <v>11.86839294433594</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-2.679187059402466</v>
+        <v>11.64112186431885</v>
       </c>
       <c r="B65" t="n">
-        <v>3.424592018127441</v>
+        <v>44.25531387329102</v>
       </c>
       <c r="C65" t="n">
-        <v>-6.413265705108643</v>
+        <v>1.557312846183777</v>
       </c>
       <c r="D65" t="n">
-        <v>6.291917324066162</v>
+        <v>58.61309051513672</v>
       </c>
       <c r="E65" t="n">
-        <v>1.909469962120056</v>
+        <v>-0.9608135223388672</v>
       </c>
       <c r="F65" t="n">
-        <v>2.092583417892456</v>
+        <v>15.19953346252441</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-3.293946981430054</v>
+        <v>9.245000839233398</v>
       </c>
       <c r="B66" t="n">
-        <v>3.307803153991699</v>
+        <v>45.91104888916016</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.779412269592285</v>
+        <v>-0.08574599027633667</v>
       </c>
       <c r="D66" t="n">
-        <v>3.916753768920898</v>
+        <v>56.33147811889648</v>
       </c>
       <c r="E66" t="n">
-        <v>2.941848278045654</v>
+        <v>0.9003238677978516</v>
       </c>
       <c r="F66" t="n">
-        <v>2.117288112640381</v>
+        <v>17.67049407958984</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-3.707327604293823</v>
+        <v>5.34524393081665</v>
       </c>
       <c r="B67" t="n">
-        <v>3.710919380187988</v>
+        <v>49.00428009033203</v>
       </c>
       <c r="C67" t="n">
-        <v>-6.298202514648438</v>
+        <v>-1.007231831550598</v>
       </c>
       <c r="D67" t="n">
-        <v>0.653383195400238</v>
+        <v>49.66360473632812</v>
       </c>
       <c r="E67" t="n">
-        <v>3.85637640953064</v>
+        <v>3.556804656982422</v>
       </c>
       <c r="F67" t="n">
-        <v>2.008312702178955</v>
+        <v>18.99754333496094</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-4.609371185302734</v>
+        <v>3.712542057037354</v>
       </c>
       <c r="B68" t="n">
-        <v>3.664998054504395</v>
+        <v>54.21907043457031</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.584253311157227</v>
+        <v>-1.533372044563293</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.055697441101074</v>
+        <v>46.20145416259766</v>
       </c>
       <c r="E68" t="n">
-        <v>4.484315872192383</v>
+        <v>5.821098327636719</v>
       </c>
       <c r="F68" t="n">
-        <v>1.394923210144043</v>
+        <v>18.59737205505371</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-4.619525909423828</v>
+        <v>2.624390125274658</v>
       </c>
       <c r="B69" t="n">
-        <v>3.223566055297852</v>
+        <v>55.18376541137695</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.549561977386475</v>
+        <v>-0.8149253726005554</v>
       </c>
       <c r="D69" t="n">
-        <v>-5.369757175445557</v>
+        <v>41.91411209106445</v>
       </c>
       <c r="E69" t="n">
-        <v>5.144467830657959</v>
+        <v>5.381125450134277</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9376504421234131</v>
+        <v>17.14751243591309</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-5.744335651397705</v>
+        <v>-0.364095151424408</v>
       </c>
       <c r="B70" t="n">
-        <v>2.812976598739624</v>
+        <v>54.47367858886719</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.581867694854736</v>
+        <v>-0.4506484866142273</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.824453353881836</v>
+        <v>34.10623168945312</v>
       </c>
       <c r="E70" t="n">
-        <v>5.62746524810791</v>
+        <v>8.372664451599121</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2950266599655151</v>
+        <v>14.1486873626709</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-5.880734920501709</v>
+        <v>-1.614583492279053</v>
       </c>
       <c r="B71" t="n">
-        <v>3.103414297103882</v>
+        <v>57.51661682128906</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.096587181091309</v>
+        <v>0.6231411099433899</v>
       </c>
       <c r="D71" t="n">
-        <v>-8.78572940826416</v>
+        <v>30.46130561828613</v>
       </c>
       <c r="E71" t="n">
-        <v>6.334722995758057</v>
+        <v>7.0450439453125</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001007823157124221</v>
+        <v>11.21991920471191</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-5.836726665496826</v>
+        <v>-3.398452281951904</v>
       </c>
       <c r="B72" t="n">
-        <v>2.72372031211853</v>
+        <v>57.87969589233398</v>
       </c>
       <c r="C72" t="n">
-        <v>-6.719486236572266</v>
+        <v>2.51945948600769</v>
       </c>
       <c r="D72" t="n">
-        <v>-9.956826210021973</v>
+        <v>23.64426040649414</v>
       </c>
       <c r="E72" t="n">
-        <v>6.277256488800049</v>
+        <v>7.732001304626465</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.285353422164917</v>
+        <v>6.721085548400879</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-6.871262550354004</v>
+        <v>-4.670102596282959</v>
       </c>
       <c r="B73" t="n">
-        <v>2.978492259979248</v>
+        <v>59.12207794189453</v>
       </c>
       <c r="C73" t="n">
-        <v>-6.732328414916992</v>
+        <v>4.425850868225098</v>
       </c>
       <c r="D73" t="n">
-        <v>-9.501616477966309</v>
+        <v>18.47237968444824</v>
       </c>
       <c r="E73" t="n">
-        <v>6.904998302459717</v>
+        <v>8.485458374023438</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.5123389959335327</v>
+        <v>4.945413589477539</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-7.281414031982422</v>
+        <v>-4.775277614593506</v>
       </c>
       <c r="B74" t="n">
-        <v>2.794151306152344</v>
+        <v>58.39082717895508</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.892455577850342</v>
+        <v>6.229559898376465</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.577767372131348</v>
+        <v>14.03543281555176</v>
       </c>
       <c r="E74" t="n">
-        <v>6.831084251403809</v>
+        <v>5.443002700805664</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6065515875816345</v>
+        <v>1.604051947593689</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-7.950164794921875</v>
+        <v>-5.593055248260498</v>
       </c>
       <c r="B75" t="n">
-        <v>3.806277751922607</v>
+        <v>57.49103164672852</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.683338165283203</v>
+        <v>10.3009672164917</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.942224025726318</v>
+        <v>10.25603771209717</v>
       </c>
       <c r="E75" t="n">
-        <v>7.011356830596924</v>
+        <v>-1.867879390716553</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.071488976478577</v>
+        <v>-7.47969388961792</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-9.263653755187988</v>
+        <v>-4.777368068695068</v>
       </c>
       <c r="B76" t="n">
-        <v>4.523077487945557</v>
+        <v>55.19207763671875</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.083364486694336</v>
+        <v>13.35352039337158</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.690633296966553</v>
+        <v>10.98192596435547</v>
       </c>
       <c r="E76" t="n">
-        <v>6.737560749053955</v>
+        <v>-4.700562000274658</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.67444121837616</v>
+        <v>-17.98786735534668</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-9.038564682006836</v>
+        <v>-3.028510570526123</v>
       </c>
       <c r="B77" t="n">
-        <v>5.38131856918335</v>
+        <v>54.80729293823242</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.781251907348633</v>
+        <v>18.4232063293457</v>
       </c>
       <c r="D77" t="n">
-        <v>-4.761731624603271</v>
+        <v>10.99882984161377</v>
       </c>
       <c r="E77" t="n">
-        <v>5.705905914306641</v>
+        <v>-17.14688682556152</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.81282639503479</v>
+        <v>-25.93527412414551</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-9.603362083435059</v>
+        <v>-1.726821422576904</v>
       </c>
       <c r="B78" t="n">
-        <v>6.009079456329346</v>
+        <v>51.34804153442383</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.018595695495605</v>
+        <v>21.84734725952148</v>
       </c>
       <c r="D78" t="n">
-        <v>-3.702552318572998</v>
+        <v>12.27197360992432</v>
       </c>
       <c r="E78" t="n">
-        <v>4.252767086029053</v>
+        <v>-30.54705238342285</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.39767861366272</v>
+        <v>-35.80106735229492</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-10.49158191680908</v>
+        <v>-3.417356014251709</v>
       </c>
       <c r="B79" t="n">
-        <v>6.517171859741211</v>
+        <v>48.71411514282227</v>
       </c>
       <c r="C79" t="n">
-        <v>-5.930256843566895</v>
+        <v>26.72412109375</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.968678951263428</v>
+        <v>16.49138069152832</v>
       </c>
       <c r="E79" t="n">
-        <v>1.929089546203613</v>
+        <v>-41.599609375</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.107742309570312</v>
+        <v>-42.27246475219727</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-10.46587753295898</v>
+        <v>-0.2631010413169861</v>
       </c>
       <c r="B80" t="n">
-        <v>6.080338954925537</v>
+        <v>46.50600433349609</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.682556629180908</v>
+        <v>30.97978782653809</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.844170570373535</v>
+        <v>22.78717422485352</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.219164848327637</v>
+        <v>-49.97351837158203</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.295187473297119</v>
+        <v>-48.87405395507812</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-9.834240913391113</v>
+        <v>2.271589756011963</v>
       </c>
       <c r="B81" t="n">
-        <v>5.924465656280518</v>
+        <v>45.98201751708984</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.100964546203613</v>
+        <v>36.63127517700195</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.552487254142761</v>
+        <v>23.29162788391113</v>
       </c>
       <c r="E81" t="n">
-        <v>-4.522623062133789</v>
+        <v>-54.53251266479492</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.811951160430908</v>
+        <v>-53.78512191772461</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-9.416122436523438</v>
+        <v>4.027559757232666</v>
       </c>
       <c r="B82" t="n">
-        <v>5.216335296630859</v>
+        <v>41.34930038452148</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.3182590007781982</v>
+        <v>42.92353057861328</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.643606543540955</v>
+        <v>26.91667938232422</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.506141185760498</v>
+        <v>-59.84786987304688</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.804412603378296</v>
+        <v>-49.47806549072266</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-8.302833557128906</v>
+        <v>8.543991088867188</v>
       </c>
       <c r="B83" t="n">
-        <v>4.322958946228027</v>
+        <v>39.62424087524414</v>
       </c>
       <c r="C83" t="n">
-        <v>2.61931848526001</v>
+        <v>50.83201599121094</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.292010307312012</v>
+        <v>29.8721866607666</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.18679332733154</v>
+        <v>-56.52371978759766</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.373061418533325</v>
+        <v>-43.70922470092773</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-6.46459436416626</v>
+        <v>13.16382026672363</v>
       </c>
       <c r="B84" t="n">
-        <v>3.332014560699463</v>
+        <v>38.94694900512695</v>
       </c>
       <c r="C84" t="n">
-        <v>6.191863536834717</v>
+        <v>53.71043014526367</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.580262660980225</v>
+        <v>29.76203536987305</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.05801868438721</v>
+        <v>-52.3704948425293</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.367087483406067</v>
+        <v>-38.66847229003906</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-4.540575504302979</v>
+        <v>18.53000259399414</v>
       </c>
       <c r="B85" t="n">
-        <v>2.379852056503296</v>
+        <v>35.09313201904297</v>
       </c>
       <c r="C85" t="n">
-        <v>9.492849349975586</v>
+        <v>58.52249145507812</v>
       </c>
       <c r="D85" t="n">
-        <v>-2.081669807434082</v>
+        <v>27.75830841064453</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.89154434204102</v>
+        <v>-43.94863128662109</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3918691873550415</v>
+        <v>-33.51026153564453</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-2.827863693237305</v>
+        <v>22.40766525268555</v>
       </c>
       <c r="B86" t="n">
-        <v>1.516571521759033</v>
+        <v>32.07468032836914</v>
       </c>
       <c r="C86" t="n">
-        <v>12.44491577148438</v>
+        <v>62.96820831298828</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.569791793823242</v>
+        <v>26.24158477783203</v>
       </c>
       <c r="E86" t="n">
-        <v>-11.90642070770264</v>
+        <v>-31.40326309204102</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4607704281806946</v>
+        <v>-31.72844505310059</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.8322404623031616</v>
+        <v>27.14610481262207</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3078501224517822</v>
+        <v>26.65013885498047</v>
       </c>
       <c r="C87" t="n">
-        <v>15.50058650970459</v>
+        <v>62.37116241455078</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.618407964706421</v>
+        <v>25.10496711730957</v>
       </c>
       <c r="E87" t="n">
-        <v>-9.964083671569824</v>
+        <v>-26.26443672180176</v>
       </c>
       <c r="F87" t="n">
-        <v>1.56235682964325</v>
+        <v>-30.2368221282959</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.942174673080444</v>
+        <v>32.05035018920898</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.8503335118293762</v>
+        <v>24.00671577453613</v>
       </c>
       <c r="C88" t="n">
-        <v>17.08100700378418</v>
+        <v>59.36875534057617</v>
       </c>
       <c r="D88" t="n">
-        <v>-3.293813705444336</v>
+        <v>21.24776268005371</v>
       </c>
       <c r="E88" t="n">
-        <v>-6.996984958648682</v>
+        <v>-19.6708812713623</v>
       </c>
       <c r="F88" t="n">
-        <v>2.052438259124756</v>
+        <v>-29.35228538513184</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.442600965499878</v>
+        <v>35.10524749755859</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.309559464454651</v>
+        <v>20.03123474121094</v>
       </c>
       <c r="C89" t="n">
-        <v>18.48695373535156</v>
+        <v>59.66399765014648</v>
       </c>
       <c r="D89" t="n">
-        <v>-3.650275945663452</v>
+        <v>18.48752021789551</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.930546522140503</v>
+        <v>-13.13667774200439</v>
       </c>
       <c r="F89" t="n">
-        <v>2.795571804046631</v>
+        <v>-29.42073059082031</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.300206184387207</v>
+        <v>35.62765121459961</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.722264528274536</v>
+        <v>17.63287734985352</v>
       </c>
       <c r="C90" t="n">
-        <v>18.1073169708252</v>
+        <v>57.32273483276367</v>
       </c>
       <c r="D90" t="n">
-        <v>-4.240831851959229</v>
+        <v>16.70235824584961</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.6068086624145508</v>
+        <v>-8.902092933654785</v>
       </c>
       <c r="F90" t="n">
-        <v>3.037024259567261</v>
+        <v>-31.05231094360352</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.104838371276855</v>
+        <v>39.26473617553711</v>
       </c>
       <c r="B91" t="n">
-        <v>-3.334496021270752</v>
+        <v>12.75362300872803</v>
       </c>
       <c r="C91" t="n">
-        <v>16.49857139587402</v>
+        <v>46.95693969726562</v>
       </c>
       <c r="D91" t="n">
-        <v>-4.619723796844482</v>
+        <v>13.6231517791748</v>
       </c>
       <c r="E91" t="n">
-        <v>1.612359881401062</v>
+        <v>-6.189798355102539</v>
       </c>
       <c r="F91" t="n">
-        <v>3.773396492004395</v>
+        <v>-31.61608123779297</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.967159271240234</v>
+        <v>41.81886672973633</v>
       </c>
       <c r="B92" t="n">
-        <v>-4.165793418884277</v>
+        <v>9.754912376403809</v>
       </c>
       <c r="C92" t="n">
-        <v>15.17019748687744</v>
+        <v>40.7704963684082</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.625344276428223</v>
+        <v>10.51206016540527</v>
       </c>
       <c r="E92" t="n">
-        <v>3.338679790496826</v>
+        <v>-5.98903751373291</v>
       </c>
       <c r="F92" t="n">
-        <v>4.09882926940918</v>
+        <v>-32.96857070922852</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.286325454711914</v>
+        <v>43.72969055175781</v>
       </c>
       <c r="B93" t="n">
-        <v>-4.758194446563721</v>
+        <v>6.398707389831543</v>
       </c>
       <c r="C93" t="n">
-        <v>12.42541790008545</v>
+        <v>37.13703155517578</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.053153991699219</v>
+        <v>8.046975135803223</v>
       </c>
       <c r="E93" t="n">
-        <v>4.515304565429688</v>
+        <v>-5.294177055358887</v>
       </c>
       <c r="F93" t="n">
-        <v>4.651861667633057</v>
+        <v>-34.90525817871094</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.426851272583008</v>
+        <v>40.58826065063477</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.35249137878418</v>
+        <v>4.300061225891113</v>
       </c>
       <c r="C94" t="n">
-        <v>9.281170845031738</v>
+        <v>28.89609718322754</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.292961597442627</v>
+        <v>6.758585929870605</v>
       </c>
       <c r="E94" t="n">
-        <v>4.684365749359131</v>
+        <v>-5.540179252624512</v>
       </c>
       <c r="F94" t="n">
-        <v>4.91227912902832</v>
+        <v>-35.52150726318359</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.733976364135742</v>
+        <v>42.61442947387695</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.988065719604492</v>
+        <v>1.221070051193237</v>
       </c>
       <c r="C95" t="n">
-        <v>5.578368663787842</v>
+        <v>20.40856170654297</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.844196319580078</v>
+        <v>5.95163631439209</v>
       </c>
       <c r="E95" t="n">
-        <v>4.576970100402832</v>
+        <v>-6.789830684661865</v>
       </c>
       <c r="F95" t="n">
-        <v>5.222512245178223</v>
+        <v>-35.3374137878418</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.770902633666992</v>
+        <v>42.18039703369141</v>
       </c>
       <c r="B96" t="n">
-        <v>-6.391308307647705</v>
+        <v>-1.625870943069458</v>
       </c>
       <c r="C96" t="n">
-        <v>1.552103757858276</v>
+        <v>15.34261512756348</v>
       </c>
       <c r="D96" t="n">
-        <v>-6.809089660644531</v>
+        <v>4.587002754211426</v>
       </c>
       <c r="E96" t="n">
-        <v>3.803637742996216</v>
+        <v>-8.04112720489502</v>
       </c>
       <c r="F96" t="n">
-        <v>5.621984004974365</v>
+        <v>-37.00607681274414</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.409145355224609</v>
+        <v>43.47961807250977</v>
       </c>
       <c r="B97" t="n">
-        <v>-7.040032386779785</v>
+        <v>-1.00927472114563</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.186263918876648</v>
+        <v>11.91816997528076</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.321076393127441</v>
+        <v>5.147492408752441</v>
       </c>
       <c r="E97" t="n">
-        <v>3.542428493499756</v>
+        <v>-9.548244476318359</v>
       </c>
       <c r="F97" t="n">
-        <v>6.428023815155029</v>
+        <v>-34.99669647216797</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.618523597717285</v>
+        <v>41.21909713745117</v>
       </c>
       <c r="B98" t="n">
-        <v>-6.987524509429932</v>
+        <v>-5.563401222229004</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.505190849304199</v>
+        <v>8.787400245666504</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.326859474182129</v>
+        <v>5.119755744934082</v>
       </c>
       <c r="E98" t="n">
-        <v>2.407835245132446</v>
+        <v>-13.92255973815918</v>
       </c>
       <c r="F98" t="n">
-        <v>6.605914115905762</v>
+        <v>-34.49699401855469</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.248377799987793</v>
+        <v>40.01750183105469</v>
       </c>
       <c r="B99" t="n">
-        <v>-7.500409603118896</v>
+        <v>-6.835469245910645</v>
       </c>
       <c r="C99" t="n">
-        <v>-8.101581573486328</v>
+        <v>8.550423622131348</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.235574722290039</v>
+        <v>6.191451072692871</v>
       </c>
       <c r="E99" t="n">
-        <v>1.146999359130859</v>
+        <v>-17.49515914916992</v>
       </c>
       <c r="F99" t="n">
-        <v>6.704322814941406</v>
+        <v>-34.16181945800781</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.447697639465332</v>
+        <v>38.04929351806641</v>
       </c>
       <c r="B100" t="n">
-        <v>-8.422094345092773</v>
+        <v>-10.40711879730225</v>
       </c>
       <c r="C100" t="n">
-        <v>-9.483222007751465</v>
+        <v>7.361456871032715</v>
       </c>
       <c r="D100" t="n">
-        <v>-6.022911071777344</v>
+        <v>9.696398735046387</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2102284133434296</v>
+        <v>-21.2358455657959</v>
       </c>
       <c r="F100" t="n">
-        <v>7.23848295211792</v>
+        <v>-35.533203125</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.171900987625122</v>
+        <v>30.65985488891602</v>
       </c>
       <c r="B101" t="n">
-        <v>-8.399507522583008</v>
+        <v>-7.971226692199707</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.5305814743042</v>
+        <v>11.20090198516846</v>
       </c>
       <c r="D101" t="n">
-        <v>-5.384331703186035</v>
+        <v>9.358086585998535</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.3707426488399506</v>
+        <v>-20.85513687133789</v>
       </c>
       <c r="F101" t="n">
-        <v>5.973850250244141</v>
+        <v>-36.19971084594727</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.46938157081604</v>
+        <v>31.23750686645508</v>
       </c>
       <c r="B102" t="n">
-        <v>-8.558789253234863</v>
+        <v>-12.87499904632568</v>
       </c>
       <c r="C102" t="n">
-        <v>-10.45189762115479</v>
+        <v>11.05325603485107</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.679000377655029</v>
+        <v>13.18441200256348</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.8469953536987305</v>
+        <v>-21.02295303344727</v>
       </c>
       <c r="F102" t="n">
-        <v>4.804845809936523</v>
+        <v>-42.49190902709961</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.654869318008423</v>
+        <v>33.93793487548828</v>
       </c>
       <c r="B103" t="n">
-        <v>-9.02448844909668</v>
+        <v>-8.13898754119873</v>
       </c>
       <c r="C103" t="n">
-        <v>-10.08729076385498</v>
+        <v>12.18649959564209</v>
       </c>
       <c r="D103" t="n">
-        <v>-3.549450874328613</v>
+        <v>15.67581272125244</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.00617241859436</v>
+        <v>-20.6654052734375</v>
       </c>
       <c r="F103" t="n">
-        <v>3.204536437988281</v>
+        <v>-51.50819778442383</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6.117585182189941</v>
+        <v>47.09756469726562</v>
       </c>
       <c r="B104" t="n">
-        <v>-10.98670482635498</v>
+        <v>7.986248970031738</v>
       </c>
       <c r="C104" t="n">
-        <v>-4.7847900390625</v>
+        <v>7.468369483947754</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.062853932380676</v>
+        <v>7.56093692779541</v>
       </c>
       <c r="E104" t="n">
-        <v>-3.167910575866699</v>
+        <v>-21.38271903991699</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7404165863990784</v>
+        <v>4.087491989135742</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6.378873825073242</v>
+        <v>44.21950149536133</v>
       </c>
       <c r="B105" t="n">
-        <v>-10.04542350769043</v>
+        <v>10.62464141845703</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.60003137588501</v>
+        <v>9.712786674499512</v>
       </c>
       <c r="D105" t="n">
-        <v>1.176595330238342</v>
+        <v>14.38534545898438</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.742562055587769</v>
+        <v>-24.60336685180664</v>
       </c>
       <c r="F105" t="n">
-        <v>-2.390582323074341</v>
+        <v>0.03585284203290939</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6.003982543945312</v>
+        <v>43.50371932983398</v>
       </c>
       <c r="B106" t="n">
-        <v>-9.227846145629883</v>
+        <v>11.2557315826416</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.423208713531494</v>
+        <v>9.983546257019043</v>
       </c>
       <c r="D106" t="n">
-        <v>3.309612274169922</v>
+        <v>20.60188484191895</v>
       </c>
       <c r="E106" t="n">
-        <v>-4.028934478759766</v>
+        <v>-24.2274227142334</v>
       </c>
       <c r="F106" t="n">
-        <v>-4.705132961273193</v>
+        <v>-6.339305400848389</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5.404353618621826</v>
+        <v>40.54573440551758</v>
       </c>
       <c r="B107" t="n">
-        <v>-7.923262596130371</v>
+        <v>14.48542499542236</v>
       </c>
       <c r="C107" t="n">
-        <v>-4.874207019805908</v>
+        <v>10.82198619842529</v>
       </c>
       <c r="D107" t="n">
-        <v>6.244225025177002</v>
+        <v>34.81876754760742</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.287708759307861</v>
+        <v>-22.75372314453125</v>
       </c>
       <c r="F107" t="n">
-        <v>-6.615484714508057</v>
+        <v>-7.044493675231934</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.277064323425293</v>
+        <v>37.12541961669922</v>
       </c>
       <c r="B108" t="n">
-        <v>-6.653602600097656</v>
+        <v>17.17565155029297</v>
       </c>
       <c r="C108" t="n">
-        <v>-5.038165092468262</v>
+        <v>12.98466300964355</v>
       </c>
       <c r="D108" t="n">
-        <v>8.399154663085938</v>
+        <v>40.02278137207031</v>
       </c>
       <c r="E108" t="n">
-        <v>-3.904151201248169</v>
+        <v>-20.78310394287109</v>
       </c>
       <c r="F108" t="n">
-        <v>-8.258113861083984</v>
+        <v>-13.97625827789307</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.131689310073853</v>
+        <v>34.94204330444336</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.263531684875488</v>
+        <v>20.55716323852539</v>
       </c>
       <c r="C109" t="n">
-        <v>-4.667544364929199</v>
+        <v>12.34945487976074</v>
       </c>
       <c r="D109" t="n">
-        <v>10.48186302185059</v>
+        <v>48.03285217285156</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.445755243301392</v>
+        <v>-16.71142387390137</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.844107151031494</v>
+        <v>-16.26099395751953</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.062974691390991</v>
+        <v>31.80798530578613</v>
       </c>
       <c r="B110" t="n">
-        <v>-3.51201868057251</v>
+        <v>24.39065170288086</v>
       </c>
       <c r="C110" t="n">
-        <v>-4.608925342559814</v>
+        <v>9.749672889709473</v>
       </c>
       <c r="D110" t="n">
-        <v>12.45033550262451</v>
+        <v>57.09955215454102</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.744503498077393</v>
+        <v>-12.26319217681885</v>
       </c>
       <c r="F110" t="n">
-        <v>-6.847192764282227</v>
+        <v>-16.52606201171875</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.21348237991333</v>
+        <v>28.66475105285645</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.46672797203064</v>
+        <v>30.99785423278809</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.649477481842041</v>
+        <v>11.64471626281738</v>
       </c>
       <c r="D111" t="n">
-        <v>13.6602954864502</v>
+        <v>61.52765274047852</v>
       </c>
       <c r="E111" t="n">
-        <v>-1.990442872047424</v>
+        <v>-10.01610088348389</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.653482913970947</v>
+        <v>-13.7510929107666</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.3112605512142181</v>
+        <v>25.22518157958984</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.3615992069244385</v>
+        <v>31.99210548400879</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.30778169631958</v>
+        <v>8.405016899108887</v>
       </c>
       <c r="D112" t="n">
-        <v>13.09801387786865</v>
+        <v>64.342529296875</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.469062566757202</v>
+        <v>-7.95762825012207</v>
       </c>
       <c r="F112" t="n">
-        <v>-2.745355367660522</v>
+        <v>-3.066323757171631</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.6667280793190002</v>
+        <v>21.95829200744629</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6222450733184814</v>
+        <v>34.66896820068359</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.317442893981934</v>
+        <v>6.567635536193848</v>
       </c>
       <c r="D113" t="n">
-        <v>13.03572654724121</v>
+        <v>61.52219009399414</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.6465104818344116</v>
+        <v>-5.136698246002197</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.5075562596321106</v>
+        <v>1.042858481407166</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.254299879074097</v>
+        <v>18.28217315673828</v>
       </c>
       <c r="B114" t="n">
-        <v>1.950875997543335</v>
+        <v>40.35017395019531</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.743876457214355</v>
+        <v>5.984942436218262</v>
       </c>
       <c r="D114" t="n">
-        <v>11.00563621520996</v>
+        <v>60.22900772094727</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4196422100067139</v>
+        <v>-4.144041538238525</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9571998715400696</v>
+        <v>7.845947265625</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.948260903358459</v>
+        <v>16.28269004821777</v>
       </c>
       <c r="B115" t="n">
-        <v>2.750715017318726</v>
+        <v>42.20573425292969</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.644401550292969</v>
+        <v>2.69769549369812</v>
       </c>
       <c r="D115" t="n">
-        <v>9.725042343139648</v>
+        <v>62.69268035888672</v>
       </c>
       <c r="E115" t="n">
-        <v>1.163089156150818</v>
+        <v>-1.060404300689697</v>
       </c>
       <c r="F115" t="n">
-        <v>1.971283197402954</v>
+        <v>14.17033195495605</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.57252049446106</v>
+        <v>12.57754516601562</v>
       </c>
       <c r="B116" t="n">
-        <v>3.487252235412598</v>
+        <v>46.46188354492188</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.953510284423828</v>
+        <v>1.46471107006073</v>
       </c>
       <c r="D116" t="n">
-        <v>6.718515396118164</v>
+        <v>60.27562713623047</v>
       </c>
       <c r="E116" t="n">
-        <v>1.883554339408875</v>
+        <v>1.695505142211914</v>
       </c>
       <c r="F116" t="n">
-        <v>2.804440259933472</v>
+        <v>17.55591201782227</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-3.320551872253418</v>
+        <v>9.837124824523926</v>
       </c>
       <c r="B117" t="n">
-        <v>3.593725681304932</v>
+        <v>48.22258758544922</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.63289737701416</v>
+        <v>-0.2816898226737976</v>
       </c>
       <c r="D117" t="n">
-        <v>4.011490345001221</v>
+        <v>57.42036437988281</v>
       </c>
       <c r="E117" t="n">
-        <v>2.846148490905762</v>
+        <v>3.563761711120605</v>
       </c>
       <c r="F117" t="n">
-        <v>2.886379718780518</v>
+        <v>19.93746948242188</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-3.552720308303833</v>
+        <v>5.52561616897583</v>
       </c>
       <c r="B118" t="n">
-        <v>3.895097255706787</v>
+        <v>51.07437515258789</v>
       </c>
       <c r="C118" t="n">
-        <v>-6.329409599304199</v>
+        <v>-1.068862080574036</v>
       </c>
       <c r="D118" t="n">
-        <v>0.79889315366745</v>
+        <v>50.80608749389648</v>
       </c>
       <c r="E118" t="n">
-        <v>3.771881818771362</v>
+        <v>6.347626686096191</v>
       </c>
       <c r="F118" t="n">
-        <v>2.513204097747803</v>
+        <v>21.46876335144043</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-4.683213710784912</v>
+        <v>3.631105899810791</v>
       </c>
       <c r="B119" t="n">
-        <v>3.872469902038574</v>
+        <v>56.22463989257812</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.643031597137451</v>
+        <v>-1.811736226081848</v>
       </c>
       <c r="D119" t="n">
-        <v>-2.324398040771484</v>
+        <v>46.56958770751953</v>
       </c>
       <c r="E119" t="n">
-        <v>4.50348424911499</v>
+        <v>8.743363380432129</v>
       </c>
       <c r="F119" t="n">
-        <v>2.124260187149048</v>
+        <v>20.99238395690918</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-4.822390079498291</v>
+        <v>2.533840656280518</v>
       </c>
       <c r="B120" t="n">
-        <v>3.687173843383789</v>
+        <v>57.24178314208984</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.722508430480957</v>
+        <v>-1.325978398323059</v>
       </c>
       <c r="D120" t="n">
-        <v>-5.531871795654297</v>
+        <v>41.69682312011719</v>
       </c>
       <c r="E120" t="n">
-        <v>5.060701847076416</v>
+        <v>8.094133377075195</v>
       </c>
       <c r="F120" t="n">
-        <v>1.336526155471802</v>
+        <v>18.9780101776123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-5.589760303497314</v>
+        <v>-0.5485414862632751</v>
       </c>
       <c r="B121" t="n">
-        <v>3.38485860824585</v>
+        <v>56.40306854248047</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.685416221618652</v>
+        <v>-1.040875554084778</v>
       </c>
       <c r="D121" t="n">
-        <v>-8.051144599914551</v>
+        <v>33.47312545776367</v>
       </c>
       <c r="E121" t="n">
-        <v>5.669878482818604</v>
+        <v>10.4977388381958</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7756920456886292</v>
+        <v>16.54292297363281</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.994189262390137</v>
+        <v>-1.946149349212646</v>
       </c>
       <c r="B122" t="n">
-        <v>3.527351856231689</v>
+        <v>59.67530822753906</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.617673873901367</v>
+        <v>-0.3067981600761414</v>
       </c>
       <c r="D122" t="n">
-        <v>-9.509793281555176</v>
+        <v>29.5964241027832</v>
       </c>
       <c r="E122" t="n">
-        <v>6.209839344024658</v>
+        <v>9.97438907623291</v>
       </c>
       <c r="F122" t="n">
-        <v>0.03916406258940697</v>
+        <v>13.48462295532227</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-6.448198318481445</v>
+        <v>-4.168860912322998</v>
       </c>
       <c r="B123" t="n">
-        <v>3.315096855163574</v>
+        <v>60.09780120849609</v>
       </c>
       <c r="C123" t="n">
-        <v>-6.923920154571533</v>
+        <v>1.817465662956238</v>
       </c>
       <c r="D123" t="n">
-        <v>-10.01366424560547</v>
+        <v>23.20428085327148</v>
       </c>
       <c r="E123" t="n">
-        <v>6.640005111694336</v>
+        <v>10.6018590927124</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.1994040012359619</v>
+        <v>9.018217086791992</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-7.229930400848389</v>
+        <v>-5.265727519989014</v>
       </c>
       <c r="B124" t="n">
-        <v>3.476010322570801</v>
+        <v>61.04643249511719</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.22075080871582</v>
+        <v>3.738272428512573</v>
       </c>
       <c r="D124" t="n">
-        <v>-10.03044128417969</v>
+        <v>17.47124671936035</v>
       </c>
       <c r="E124" t="n">
-        <v>7.152095317840576</v>
+        <v>11.58674335479736</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.678025484085083</v>
+        <v>6.874812126159668</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-7.846001148223877</v>
+        <v>-6.004523754119873</v>
       </c>
       <c r="B125" t="n">
-        <v>3.513423919677734</v>
+        <v>60.05480194091797</v>
       </c>
       <c r="C125" t="n">
-        <v>-6.977472305297852</v>
+        <v>5.590826988220215</v>
       </c>
       <c r="D125" t="n">
-        <v>-9.190008163452148</v>
+        <v>12.69991016387939</v>
       </c>
       <c r="E125" t="n">
-        <v>7.279304981231689</v>
+        <v>8.177309989929199</v>
       </c>
       <c r="F125" t="n">
-        <v>-1.015658140182495</v>
+        <v>2.85453987121582</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-8.55095386505127</v>
+        <v>-6.900697231292725</v>
       </c>
       <c r="B126" t="n">
-        <v>4.39869213104248</v>
+        <v>58.96335601806641</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.205324649810791</v>
+        <v>9.527678489685059</v>
       </c>
       <c r="D126" t="n">
-        <v>-8.148728370666504</v>
+        <v>9.291937828063965</v>
       </c>
       <c r="E126" t="n">
-        <v>7.419460773468018</v>
+        <v>1.301207542419434</v>
       </c>
       <c r="F126" t="n">
-        <v>-1.628293871879578</v>
+        <v>-6.269006252288818</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-9.722994804382324</v>
+        <v>-5.697272777557373</v>
       </c>
       <c r="B127" t="n">
-        <v>5.092922687530518</v>
+        <v>56.50370025634766</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.057248115539551</v>
+        <v>13.06489181518555</v>
       </c>
       <c r="D127" t="n">
-        <v>-6.828658103942871</v>
+        <v>9.701725959777832</v>
       </c>
       <c r="E127" t="n">
-        <v>7.191053867340088</v>
+        <v>-2.091158866882324</v>
       </c>
       <c r="F127" t="n">
-        <v>-2.100977182388306</v>
+        <v>-16.31387901306152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-9.529323577880859</v>
+        <v>-4.253312587738037</v>
       </c>
       <c r="B128" t="n">
-        <v>5.820701122283936</v>
+        <v>55.9117431640625</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.248292922973633</v>
+        <v>18.40705871582031</v>
       </c>
       <c r="D128" t="n">
-        <v>-5.141837596893311</v>
+        <v>9.741087913513184</v>
       </c>
       <c r="E128" t="n">
-        <v>6.62424373626709</v>
+        <v>-15.69823837280273</v>
       </c>
       <c r="F128" t="n">
-        <v>-2.504956245422363</v>
+        <v>-24.94763374328613</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-10.25747776031494</v>
+        <v>-3.151708126068115</v>
       </c>
       <c r="B129" t="n">
-        <v>6.467331409454346</v>
+        <v>52.2333984375</v>
       </c>
       <c r="C129" t="n">
-        <v>-6.495489120483398</v>
+        <v>21.97377586364746</v>
       </c>
       <c r="D129" t="n">
-        <v>-3.91576623916626</v>
+        <v>10.70121097564697</v>
       </c>
       <c r="E129" t="n">
-        <v>5.027835845947266</v>
+        <v>-29.77116584777832</v>
       </c>
       <c r="F129" t="n">
-        <v>-3.076140642166138</v>
+        <v>-35.0971794128418</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-10.93492698669434</v>
+        <v>-4.39008092880249</v>
       </c>
       <c r="B130" t="n">
-        <v>6.942856788635254</v>
+        <v>49.05743026733398</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.998741626739502</v>
+        <v>26.58086776733398</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.537000417709351</v>
+        <v>15.43418312072754</v>
       </c>
       <c r="E130" t="n">
-        <v>2.761672735214233</v>
+        <v>-42.04859924316406</v>
       </c>
       <c r="F130" t="n">
-        <v>-3.566581249237061</v>
+        <v>-41.69644927978516</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-10.90577697753906</v>
+        <v>-1.563523769378662</v>
       </c>
       <c r="B131" t="n">
-        <v>6.514602661132812</v>
+        <v>46.87380981445312</v>
       </c>
       <c r="C131" t="n">
-        <v>-4.363712310791016</v>
+        <v>31.61883544921875</v>
       </c>
       <c r="D131" t="n">
-        <v>-2.118213415145874</v>
+        <v>21.25056457519531</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.1868966966867447</v>
+        <v>-51.89421463012695</v>
       </c>
       <c r="F131" t="n">
-        <v>-3.883092403411865</v>
+        <v>-47.88759613037109</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-10.21850204467773</v>
+        <v>0.9856916069984436</v>
       </c>
       <c r="B132" t="n">
-        <v>6.228253841400146</v>
+        <v>45.43403625488281</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.672065258026123</v>
+        <v>37.46127700805664</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.489620089530945</v>
+        <v>21.96918296813965</v>
       </c>
       <c r="E132" t="n">
-        <v>-3.682471036911011</v>
+        <v>-56.82062530517578</v>
       </c>
       <c r="F132" t="n">
-        <v>-3.394691705703735</v>
+        <v>-52.87650299072266</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-9.689899444580078</v>
+        <v>3.019081592559814</v>
       </c>
       <c r="B133" t="n">
-        <v>5.68406343460083</v>
+        <v>41.3529052734375</v>
       </c>
       <c r="C133" t="n">
-        <v>0.04178285598754883</v>
+        <v>44.46829986572266</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.410943031311035</v>
+        <v>25.35221290588379</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.163837909698486</v>
+        <v>-62.86985015869141</v>
       </c>
       <c r="F133" t="n">
-        <v>-3.369280338287354</v>
+        <v>-48.77548599243164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-8.600218772888184</v>
+        <v>7.728943347930908</v>
       </c>
       <c r="B134" t="n">
-        <v>4.681842803955078</v>
+        <v>39.46513748168945</v>
       </c>
       <c r="C134" t="n">
-        <v>3.074079751968384</v>
+        <v>52.10654830932617</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.672297120094299</v>
+        <v>28.30613327026367</v>
       </c>
       <c r="E134" t="n">
-        <v>-9.860529899597168</v>
+        <v>-59.28593063354492</v>
       </c>
       <c r="F134" t="n">
-        <v>-2.790268659591675</v>
+        <v>-43.2201042175293</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-6.772644519805908</v>
+        <v>12.37967109680176</v>
       </c>
       <c r="B135" t="n">
-        <v>3.772136211395264</v>
+        <v>38.93655395507812</v>
       </c>
       <c r="C135" t="n">
-        <v>6.757029056549072</v>
+        <v>55.48971557617188</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.116091251373291</v>
+        <v>28.37041473388672</v>
       </c>
       <c r="E135" t="n">
-        <v>-11.6908597946167</v>
+        <v>-54.55517578125</v>
       </c>
       <c r="F135" t="n">
-        <v>-1.632962703704834</v>
+        <v>-38.01181793212891</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-5.080100536346436</v>
+        <v>18.07088661193848</v>
       </c>
       <c r="B136" t="n">
-        <v>2.787589550018311</v>
+        <v>34.56865310668945</v>
       </c>
       <c r="C136" t="n">
-        <v>10.06548118591309</v>
+        <v>59.83583068847656</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.416171193122864</v>
+        <v>26.5648136138916</v>
       </c>
       <c r="E136" t="n">
-        <v>-12.49819564819336</v>
+        <v>-45.46184539794922</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.6929759979248047</v>
+        <v>-32.60782241821289</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-3.073713779449463</v>
+        <v>22.45520973205566</v>
       </c>
       <c r="B137" t="n">
-        <v>1.650441884994507</v>
+        <v>31.44779396057129</v>
       </c>
       <c r="C137" t="n">
-        <v>13.41395473480225</v>
+        <v>64.46782684326172</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.178490400314331</v>
+        <v>25.13981628417969</v>
       </c>
       <c r="E137" t="n">
-        <v>-11.87608432769775</v>
+        <v>-31.9480037689209</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2795171439647675</v>
+        <v>-30.44741821289062</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.9935999512672424</v>
+        <v>27.16492652893066</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7157807350158691</v>
+        <v>26.0181770324707</v>
       </c>
       <c r="C138" t="n">
-        <v>15.98178768157959</v>
+        <v>63.66176986694336</v>
       </c>
       <c r="D138" t="n">
-        <v>-2.484224081039429</v>
+        <v>23.5599193572998</v>
       </c>
       <c r="E138" t="n">
-        <v>-9.949180603027344</v>
+        <v>-25.79823875427246</v>
       </c>
       <c r="F138" t="n">
-        <v>1.404632210731506</v>
+        <v>-29.35265731811523</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.388904333114624</v>
+        <v>32.40405654907227</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.486292690038681</v>
+        <v>23.30317497253418</v>
       </c>
       <c r="C139" t="n">
-        <v>17.93905258178711</v>
+        <v>60.17123794555664</v>
       </c>
       <c r="D139" t="n">
-        <v>-3.001755475997925</v>
+        <v>19.66605949401855</v>
       </c>
       <c r="E139" t="n">
-        <v>-6.923677921295166</v>
+        <v>-18.66886138916016</v>
       </c>
       <c r="F139" t="n">
-        <v>2.152718782424927</v>
+        <v>-28.18270111083984</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.105510950088501</v>
+        <v>34.96311187744141</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.389246940612793</v>
+        <v>19.0705680847168</v>
       </c>
       <c r="C140" t="n">
-        <v>19.21646690368652</v>
+        <v>59.93029022216797</v>
       </c>
       <c r="D140" t="n">
-        <v>-3.706300020217896</v>
+        <v>17.010986328125</v>
       </c>
       <c r="E140" t="n">
-        <v>-4.117585182189941</v>
+        <v>-11.3349494934082</v>
       </c>
       <c r="F140" t="n">
-        <v>2.568519353866577</v>
+        <v>-27.80642318725586</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.763875961303711</v>
+        <v>36.13663482666016</v>
       </c>
       <c r="B141" t="n">
-        <v>-2.282199144363403</v>
+        <v>16.53884124755859</v>
       </c>
       <c r="C141" t="n">
-        <v>18.76408195495605</v>
+        <v>56.91411972045898</v>
       </c>
       <c r="D141" t="n">
-        <v>-4.370525360107422</v>
+        <v>15.25296974182129</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.7862157821655273</v>
+        <v>-6.923817157745361</v>
       </c>
       <c r="F141" t="n">
-        <v>2.957771778106689</v>
+        <v>-29.36164093017578</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5.901773452758789</v>
+        <v>39.75097274780273</v>
       </c>
       <c r="B142" t="n">
-        <v>-3.3463454246521</v>
+        <v>11.75488376617432</v>
       </c>
       <c r="C142" t="n">
-        <v>17.6174373626709</v>
+        <v>46.61571884155273</v>
       </c>
       <c r="D142" t="n">
-        <v>-4.735616207122803</v>
+        <v>12.57608795166016</v>
       </c>
       <c r="E142" t="n">
-        <v>1.793279886245728</v>
+        <v>-4.151329040527344</v>
       </c>
       <c r="F142" t="n">
-        <v>3.519514799118042</v>
+        <v>-29.92865371704102</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>6.962987422943115</v>
+        <v>42.36268615722656</v>
       </c>
       <c r="B143" t="n">
-        <v>-4.170882225036621</v>
+        <v>9.041103363037109</v>
       </c>
       <c r="C143" t="n">
-        <v>15.74398708343506</v>
+        <v>39.72068405151367</v>
       </c>
       <c r="D143" t="n">
-        <v>-5.845256328582764</v>
+        <v>8.994000434875488</v>
       </c>
       <c r="E143" t="n">
-        <v>3.500110626220703</v>
+        <v>-3.830084085464478</v>
       </c>
       <c r="F143" t="n">
-        <v>3.899938106536865</v>
+        <v>-31.41483879089355</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8.08899974822998</v>
+        <v>44.30235290527344</v>
       </c>
       <c r="B144" t="n">
-        <v>-4.734531879425049</v>
+        <v>5.157177925109863</v>
       </c>
       <c r="C144" t="n">
-        <v>12.91523361206055</v>
+        <v>35.12085723876953</v>
       </c>
       <c r="D144" t="n">
-        <v>-5.950159072875977</v>
+        <v>6.240723609924316</v>
       </c>
       <c r="E144" t="n">
-        <v>4.503648281097412</v>
+        <v>-3.635946273803711</v>
       </c>
       <c r="F144" t="n">
-        <v>4.459278583526611</v>
+        <v>-32.96110534667969</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8.396089553833008</v>
+        <v>41.22629547119141</v>
       </c>
       <c r="B145" t="n">
-        <v>-5.472048282623291</v>
+        <v>2.907225370407104</v>
       </c>
       <c r="C145" t="n">
-        <v>9.608266830444336</v>
+        <v>26.99201202392578</v>
       </c>
       <c r="D145" t="n">
-        <v>-6.549731254577637</v>
+        <v>5.71958065032959</v>
       </c>
       <c r="E145" t="n">
-        <v>4.844990730285645</v>
+        <v>-3.636552095413208</v>
       </c>
       <c r="F145" t="n">
-        <v>4.929271221160889</v>
+        <v>-33.7386589050293</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.812788963317871</v>
+        <v>43.30434036254883</v>
       </c>
       <c r="B146" t="n">
-        <v>-6.123944759368896</v>
+        <v>-0.4097453951835632</v>
       </c>
       <c r="C146" t="n">
-        <v>5.690613269805908</v>
+        <v>18.57345771789551</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.877607822418213</v>
+        <v>4.879521369934082</v>
       </c>
       <c r="E146" t="n">
-        <v>4.726129531860352</v>
+        <v>-4.778774738311768</v>
       </c>
       <c r="F146" t="n">
-        <v>5.447583675384521</v>
+        <v>-33.43505096435547</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8.907574653625488</v>
+        <v>43.00751113891602</v>
       </c>
       <c r="B147" t="n">
-        <v>-6.652133941650391</v>
+        <v>-2.892857789993286</v>
       </c>
       <c r="C147" t="n">
-        <v>2.280263185501099</v>
+        <v>12.80391407012939</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.992541790008545</v>
+        <v>4.013409614562988</v>
       </c>
       <c r="E147" t="n">
-        <v>3.991366863250732</v>
+        <v>-5.879273891448975</v>
       </c>
       <c r="F147" t="n">
-        <v>5.809749603271484</v>
+        <v>-35.21344375610352</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8.453847885131836</v>
+        <v>44.11590957641602</v>
       </c>
       <c r="B148" t="n">
-        <v>-7.461348533630371</v>
+        <v>-2.154559373855591</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.264923453330994</v>
+        <v>9.803484916687012</v>
       </c>
       <c r="D148" t="n">
-        <v>-7.541350364685059</v>
+        <v>4.088257789611816</v>
       </c>
       <c r="E148" t="n">
-        <v>3.652078151702881</v>
+        <v>-7.990403175354004</v>
       </c>
       <c r="F148" t="n">
-        <v>6.543811321258545</v>
+        <v>-33.34303665161133</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8.656545639038086</v>
+        <v>42.50289916992188</v>
       </c>
       <c r="B149" t="n">
-        <v>-7.524044036865234</v>
+        <v>-6.510424613952637</v>
       </c>
       <c r="C149" t="n">
-        <v>-4.889150619506836</v>
+        <v>7.070727348327637</v>
       </c>
       <c r="D149" t="n">
-        <v>-7.141832828521729</v>
+        <v>4.717709541320801</v>
       </c>
       <c r="E149" t="n">
-        <v>2.725361347198486</v>
+        <v>-12.06785774230957</v>
       </c>
       <c r="F149" t="n">
-        <v>6.852092266082764</v>
+        <v>-32.90529251098633</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8.446630477905273</v>
+        <v>41.13293075561523</v>
       </c>
       <c r="B150" t="n">
-        <v>-8.051581382751465</v>
+        <v>-8.303645133972168</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.635317802429199</v>
+        <v>6.393704414367676</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.921268939971924</v>
+        <v>6.386588096618652</v>
       </c>
       <c r="E150" t="n">
-        <v>1.625272393226624</v>
+        <v>-15.31213665008545</v>
       </c>
       <c r="F150" t="n">
-        <v>6.989313125610352</v>
+        <v>-33.2099609375</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6.622500896453857</v>
+        <v>39.47223663330078</v>
       </c>
       <c r="B151" t="n">
-        <v>-8.979043006896973</v>
+        <v>-11.4075231552124</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.626410484313965</v>
+        <v>5.622897148132324</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.383423328399658</v>
+        <v>9.52340030670166</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7408009171485901</v>
+        <v>-19.44781112670898</v>
       </c>
       <c r="F151" t="n">
-        <v>7.319700241088867</v>
+        <v>-34.88408279418945</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.638282537460327</v>
+        <v>31.90209770202637</v>
       </c>
       <c r="B152" t="n">
-        <v>-9.103216171264648</v>
+        <v>-9.19367504119873</v>
       </c>
       <c r="C152" t="n">
-        <v>-10.28270721435547</v>
+        <v>9.941600799560547</v>
       </c>
       <c r="D152" t="n">
-        <v>-5.763961791992188</v>
+        <v>10.1856861114502</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.2122295349836349</v>
+        <v>-19.23182487487793</v>
       </c>
       <c r="F152" t="n">
-        <v>6.585971355438232</v>
+        <v>-36.7340202331543</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.212072134017944</v>
+        <v>32.91902160644531</v>
       </c>
       <c r="B153" t="n">
-        <v>-9.609623908996582</v>
+        <v>-13.75504970550537</v>
       </c>
       <c r="C153" t="n">
-        <v>-10.69827842712402</v>
+        <v>9.875816345214844</v>
       </c>
       <c r="D153" t="n">
-        <v>-4.86632251739502</v>
+        <v>13.70425510406494</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.6763683557510376</v>
+        <v>-19.75312614440918</v>
       </c>
       <c r="F153" t="n">
-        <v>5.471965789794922</v>
+        <v>-44.01652908325195</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.19970965385437</v>
+        <v>35.4337158203125</v>
       </c>
       <c r="B154" t="n">
-        <v>-9.879189491271973</v>
+        <v>-8.770262718200684</v>
       </c>
       <c r="C154" t="n">
-        <v>-10.31368637084961</v>
+        <v>11.40133094787598</v>
       </c>
       <c r="D154" t="n">
-        <v>-3.721793174743652</v>
+        <v>16.85231399536133</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.103810906410217</v>
+        <v>-19.77482604980469</v>
       </c>
       <c r="F154" t="n">
-        <v>3.640822649002075</v>
+        <v>-53.88176345825195</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6.121184825897217</v>
+        <v>49.43343353271484</v>
       </c>
       <c r="B155" t="n">
-        <v>-11.44777965545654</v>
+        <v>8.005297660827637</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.428379535675049</v>
+        <v>7.047913551330566</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.346747875213623</v>
+        <v>9.357619285583496</v>
       </c>
       <c r="E155" t="n">
-        <v>-3.572105884552002</v>
+        <v>-21.10457420349121</v>
       </c>
       <c r="F155" t="n">
-        <v>0.430223822593689</v>
+        <v>3.927734375</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6.262747287750244</v>
+        <v>46.57417297363281</v>
       </c>
       <c r="B156" t="n">
-        <v>-10.53321361541748</v>
+        <v>10.7451114654541</v>
       </c>
       <c r="C156" t="n">
-        <v>-4.999499797821045</v>
+        <v>9.52314567565918</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8560375571250916</v>
+        <v>16.31513404846191</v>
       </c>
       <c r="E156" t="n">
-        <v>-4.013256072998047</v>
+        <v>-24.0488166809082</v>
       </c>
       <c r="F156" t="n">
-        <v>-2.698467969894409</v>
+        <v>-0.7441173195838928</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5.84147834777832</v>
+        <v>45.75261306762695</v>
       </c>
       <c r="B157" t="n">
-        <v>-9.584756851196289</v>
+        <v>11.59405422210693</v>
       </c>
       <c r="C157" t="n">
-        <v>-4.779085636138916</v>
+        <v>10.31707286834717</v>
       </c>
       <c r="D157" t="n">
-        <v>3.31289529800415</v>
+        <v>22.55059623718262</v>
       </c>
       <c r="E157" t="n">
-        <v>-4.157968044281006</v>
+        <v>-23.49426651000977</v>
       </c>
       <c r="F157" t="n">
-        <v>-4.800848007202148</v>
+        <v>-7.235891342163086</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5.342429161071777</v>
+        <v>42.86497116088867</v>
       </c>
       <c r="B158" t="n">
-        <v>-8.349647521972656</v>
+        <v>15.09812450408936</v>
       </c>
       <c r="C158" t="n">
-        <v>-5.07158088684082</v>
+        <v>11.26545524597168</v>
       </c>
       <c r="D158" t="n">
-        <v>6.360582828521729</v>
+        <v>37.60133361816406</v>
       </c>
       <c r="E158" t="n">
-        <v>-4.368626594543457</v>
+        <v>-22.1466064453125</v>
       </c>
       <c r="F158" t="n">
-        <v>-6.706879138946533</v>
+        <v>-7.888281345367432</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>4.250687122344971</v>
+        <v>39.4166145324707</v>
       </c>
       <c r="B159" t="n">
-        <v>-6.90812349319458</v>
+        <v>17.77172660827637</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.092060565948486</v>
+        <v>13.68415069580078</v>
       </c>
       <c r="D159" t="n">
-        <v>8.850737571716309</v>
+        <v>42.90803909301758</v>
       </c>
       <c r="E159" t="n">
-        <v>-3.89476752281189</v>
+        <v>-19.79535675048828</v>
       </c>
       <c r="F159" t="n">
-        <v>-8.151775360107422</v>
+        <v>-14.41859531402588</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.124219655990601</v>
+        <v>37.19177627563477</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.399392127990723</v>
+        <v>21.1335563659668</v>
       </c>
       <c r="C160" t="n">
-        <v>-4.68543004989624</v>
+        <v>13.32505226135254</v>
       </c>
       <c r="D160" t="n">
-        <v>11.0049467086792</v>
+        <v>51.03261947631836</v>
       </c>
       <c r="E160" t="n">
-        <v>-3.383945941925049</v>
+        <v>-15.3546085357666</v>
       </c>
       <c r="F160" t="n">
-        <v>-7.655207633972168</v>
+        <v>-16.51467895507812</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.155112743377686</v>
+        <v>33.93647003173828</v>
       </c>
       <c r="B161" t="n">
-        <v>-3.536499261856079</v>
+        <v>25.50913429260254</v>
       </c>
       <c r="C161" t="n">
-        <v>-4.490929126739502</v>
+        <v>11.39136695861816</v>
       </c>
       <c r="D161" t="n">
-        <v>13.15434265136719</v>
+        <v>60.12744903564453</v>
       </c>
       <c r="E161" t="n">
-        <v>-2.7404625415802</v>
+        <v>-10.53194713592529</v>
       </c>
       <c r="F161" t="n">
-        <v>-6.509539127349854</v>
+        <v>-16.45048713684082</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.295151948928833</v>
+        <v>30.7432804107666</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.466920018196106</v>
+        <v>32.24257278442383</v>
       </c>
       <c r="C162" t="n">
-        <v>-4.484638690948486</v>
+        <v>12.91786003112793</v>
       </c>
       <c r="D162" t="n">
-        <v>14.5274658203125</v>
+        <v>64.57789611816406</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.964347958564758</v>
+        <v>-8.025206565856934</v>
       </c>
       <c r="F162" t="n">
-        <v>-4.183943271636963</v>
+        <v>-13.10096073150635</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.4635450541973114</v>
+        <v>27.21726989746094</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1067075580358505</v>
+        <v>33.41804122924805</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.128026008605957</v>
+        <v>9.670825004577637</v>
       </c>
       <c r="D163" t="n">
-        <v>13.93050670623779</v>
+        <v>66.84527587890625</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.37796676158905</v>
+        <v>-5.755281448364258</v>
       </c>
       <c r="F163" t="n">
-        <v>-2.118058443069458</v>
+        <v>-2.076674699783325</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.5252008438110352</v>
+        <v>23.78085517883301</v>
       </c>
       <c r="B164" t="n">
-        <v>0.8129271268844604</v>
+        <v>36.3482551574707</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.109238624572754</v>
+        <v>7.651690483093262</v>
       </c>
       <c r="D164" t="n">
-        <v>13.81109714508057</v>
+        <v>63.84666442871094</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.5489591360092163</v>
+        <v>-2.828220367431641</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1200986057519913</v>
+        <v>2.27779483795166</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-1.237856268882751</v>
+        <v>19.5827751159668</v>
       </c>
       <c r="B165" t="n">
-        <v>2.268493890762329</v>
+        <v>41.93015289306641</v>
       </c>
       <c r="C165" t="n">
-        <v>-5.502880573272705</v>
+        <v>7.047709465026855</v>
       </c>
       <c r="D165" t="n">
-        <v>11.86496067047119</v>
+        <v>61.8192138671875</v>
       </c>
       <c r="E165" t="n">
-        <v>0.4816496074199677</v>
+        <v>-1.589456081390381</v>
       </c>
       <c r="F165" t="n">
-        <v>1.590823769569397</v>
+        <v>9.434196472167969</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-1.772379159927368</v>
+        <v>17.5489501953125</v>
       </c>
       <c r="B166" t="n">
-        <v>3.124876022338867</v>
+        <v>43.75864791870117</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.546589851379395</v>
+        <v>3.733620405197144</v>
       </c>
       <c r="D166" t="n">
-        <v>10.09335517883301</v>
+        <v>64.48384094238281</v>
       </c>
       <c r="E166" t="n">
-        <v>1.214686393737793</v>
+        <v>1.420384407043457</v>
       </c>
       <c r="F166" t="n">
-        <v>2.646016597747803</v>
+        <v>15.99998474121094</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-2.428143978118896</v>
+        <v>13.77661800384521</v>
       </c>
       <c r="B167" t="n">
-        <v>3.7611403465271</v>
+        <v>48.03263092041016</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.697317123413086</v>
+        <v>1.936623454093933</v>
       </c>
       <c r="D167" t="n">
-        <v>7.062790870666504</v>
+        <v>61.57438278198242</v>
       </c>
       <c r="E167" t="n">
-        <v>1.924833416938782</v>
+        <v>4.132524490356445</v>
       </c>
       <c r="F167" t="n">
-        <v>3.443055152893066</v>
+        <v>19.32761383056641</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-3.213770627975464</v>
+        <v>10.81980800628662</v>
       </c>
       <c r="B168" t="n">
-        <v>3.938844203948975</v>
+        <v>49.95794677734375</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.626059532165527</v>
+        <v>0.01036530919373035</v>
       </c>
       <c r="D168" t="n">
-        <v>4.057670593261719</v>
+        <v>58.19010925292969</v>
       </c>
       <c r="E168" t="n">
-        <v>2.813854932785034</v>
+        <v>6.024028778076172</v>
       </c>
       <c r="F168" t="n">
-        <v>3.513247728347778</v>
+        <v>22.10696983337402</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-3.452152252197266</v>
+        <v>6.132973194122314</v>
       </c>
       <c r="B169" t="n">
-        <v>4.12928295135498</v>
+        <v>52.66052627563477</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.316536903381348</v>
+        <v>-0.6129295229911804</v>
       </c>
       <c r="D169" t="n">
-        <v>0.7877779603004456</v>
+        <v>51.26935195922852</v>
       </c>
       <c r="E169" t="n">
-        <v>3.72894024848938</v>
+        <v>9.052298545837402</v>
       </c>
       <c r="F169" t="n">
-        <v>2.965359687805176</v>
+        <v>23.19424819946289</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-4.647148609161377</v>
+        <v>3.888796329498291</v>
       </c>
       <c r="B170" t="n">
-        <v>4.063944339752197</v>
+        <v>57.52781295776367</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.590367317199707</v>
+        <v>-1.529597401618958</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.611853122711182</v>
+        <v>46.87530517578125</v>
       </c>
       <c r="E170" t="n">
-        <v>4.481214046478271</v>
+        <v>11.43295192718506</v>
       </c>
       <c r="F170" t="n">
-        <v>2.595721960067749</v>
+        <v>22.87522125244141</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-4.834424018859863</v>
+        <v>2.978447437286377</v>
       </c>
       <c r="B171" t="n">
-        <v>4.031315803527832</v>
+        <v>58.68523025512695</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.784192085266113</v>
+        <v>-1.7105952501297</v>
       </c>
       <c r="D171" t="n">
-        <v>-5.757485389709473</v>
+        <v>41.46673965454102</v>
       </c>
       <c r="E171" t="n">
-        <v>5.103079319000244</v>
+        <v>9.847878456115723</v>
       </c>
       <c r="F171" t="n">
-        <v>1.609517216682434</v>
+        <v>20.83124732971191</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-5.568351745605469</v>
+        <v>-0.462911069393158</v>
       </c>
       <c r="B172" t="n">
-        <v>3.777932167053223</v>
+        <v>57.7198600769043</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.776401042938232</v>
+        <v>-1.579066395759583</v>
       </c>
       <c r="D172" t="n">
-        <v>-8.28922176361084</v>
+        <v>33.25228881835938</v>
       </c>
       <c r="E172" t="n">
-        <v>5.705787181854248</v>
+        <v>12.31062984466553</v>
       </c>
       <c r="F172" t="n">
-        <v>1.024724960327148</v>
+        <v>18.61643028259277</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-6.07538366317749</v>
+        <v>-1.921618938446045</v>
       </c>
       <c r="B173" t="n">
-        <v>3.811933994293213</v>
+        <v>61.27562713623047</v>
       </c>
       <c r="C173" t="n">
-        <v>-6.905398368835449</v>
+        <v>-0.9257404208183289</v>
       </c>
       <c r="D173" t="n">
-        <v>-9.988824844360352</v>
+        <v>28.96367263793945</v>
       </c>
       <c r="E173" t="n">
-        <v>6.208232402801514</v>
+        <v>12.03511524200439</v>
       </c>
       <c r="F173" t="n">
-        <v>0.07020561397075653</v>
+        <v>15.20656967163086</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-6.735674858093262</v>
+        <v>-4.390611171722412</v>
       </c>
       <c r="B174" t="n">
-        <v>3.665152549743652</v>
+        <v>61.67763519287109</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.134575843811035</v>
+        <v>1.584614634513855</v>
       </c>
       <c r="D174" t="n">
-        <v>-10.24919700622559</v>
+        <v>22.40154838562012</v>
       </c>
       <c r="E174" t="n">
-        <v>6.837238788604736</v>
+        <v>13.07928371429443</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.2661306262016296</v>
+        <v>11.04014778137207</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-7.473846912384033</v>
+        <v>-5.945071697235107</v>
       </c>
       <c r="B175" t="n">
-        <v>3.816619396209717</v>
+        <v>62.46174240112305</v>
       </c>
       <c r="C175" t="n">
-        <v>-7.566088676452637</v>
+        <v>3.055208921432495</v>
       </c>
       <c r="D175" t="n">
-        <v>-10.4312572479248</v>
+        <v>16.68764114379883</v>
       </c>
       <c r="E175" t="n">
-        <v>7.343918323516846</v>
+        <v>14.29118061065674</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.9439781904220581</v>
+        <v>8.530961990356445</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-8.210113525390625</v>
+        <v>-6.834180355072021</v>
       </c>
       <c r="B176" t="n">
-        <v>3.857274055480957</v>
+        <v>61.52879333496094</v>
       </c>
       <c r="C176" t="n">
-        <v>-7.212538242340088</v>
+        <v>4.953888893127441</v>
       </c>
       <c r="D176" t="n">
-        <v>-9.600803375244141</v>
+        <v>12.08504009246826</v>
       </c>
       <c r="E176" t="n">
-        <v>7.577658176422119</v>
+        <v>10.97776508331299</v>
       </c>
       <c r="F176" t="n">
-        <v>-1.465625643730164</v>
+        <v>4.367100715637207</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-8.996109962463379</v>
+        <v>-7.924329280853271</v>
       </c>
       <c r="B177" t="n">
-        <v>4.64772367477417</v>
+        <v>60.18646240234375</v>
       </c>
       <c r="C177" t="n">
-        <v>-7.620049476623535</v>
+        <v>8.775782585144043</v>
       </c>
       <c r="D177" t="n">
-        <v>-8.440446853637695</v>
+        <v>8.606860160827637</v>
       </c>
       <c r="E177" t="n">
-        <v>7.782112598419189</v>
+        <v>4.502235412597656</v>
       </c>
       <c r="F177" t="n">
-        <v>-2.150993824005127</v>
+        <v>-4.89519214630127</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-10.08798885345459</v>
+        <v>-6.972522258758545</v>
       </c>
       <c r="B178" t="n">
-        <v>5.359768867492676</v>
+        <v>57.75474166870117</v>
       </c>
       <c r="C178" t="n">
-        <v>-7.316100597381592</v>
+        <v>12.58644390106201</v>
       </c>
       <c r="D178" t="n">
-        <v>-7.084801197052002</v>
+        <v>9.259232521057129</v>
       </c>
       <c r="E178" t="n">
-        <v>7.633340835571289</v>
+        <v>0.6456127166748047</v>
       </c>
       <c r="F178" t="n">
-        <v>-2.582722187042236</v>
+        <v>-15.23555183410645</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-10.02110576629639</v>
+        <v>-5.698955059051514</v>
       </c>
       <c r="B179" t="n">
-        <v>5.97160005569458</v>
+        <v>56.77354049682617</v>
       </c>
       <c r="C179" t="n">
-        <v>-7.667587757110596</v>
+        <v>18.26339149475098</v>
       </c>
       <c r="D179" t="n">
-        <v>-5.452683448791504</v>
+        <v>9.008801460266113</v>
       </c>
       <c r="E179" t="n">
-        <v>7.287158966064453</v>
+        <v>-13.53015995025635</v>
       </c>
       <c r="F179" t="n">
-        <v>-3.093741178512573</v>
+        <v>-24.2656421661377</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-10.87858581542969</v>
+        <v>-4.444671154022217</v>
       </c>
       <c r="B180" t="n">
-        <v>6.650983810424805</v>
+        <v>52.99826049804688</v>
       </c>
       <c r="C180" t="n">
-        <v>-6.894261360168457</v>
+        <v>21.93213844299316</v>
       </c>
       <c r="D180" t="n">
-        <v>-4.173367977142334</v>
+        <v>10.01257228851318</v>
       </c>
       <c r="E180" t="n">
-        <v>5.67608642578125</v>
+        <v>-28.57904243469238</v>
       </c>
       <c r="F180" t="n">
-        <v>-3.638825178146362</v>
+        <v>-34.68331146240234</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-11.43678379058838</v>
+        <v>-5.604577541351318</v>
       </c>
       <c r="B181" t="n">
-        <v>7.150100231170654</v>
+        <v>49.84286880493164</v>
       </c>
       <c r="C181" t="n">
-        <v>-6.164699077606201</v>
+        <v>26.73341178894043</v>
       </c>
       <c r="D181" t="n">
-        <v>-2.845842123031616</v>
+        <v>14.91459274291992</v>
       </c>
       <c r="E181" t="n">
-        <v>3.422086954116821</v>
+        <v>-41.92166137695312</v>
       </c>
       <c r="F181" t="n">
-        <v>-4.003148078918457</v>
+        <v>-41.54019165039062</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-11.44781494140625</v>
+        <v>-2.736602306365967</v>
       </c>
       <c r="B182" t="n">
-        <v>6.769006729125977</v>
+        <v>47.75201034545898</v>
       </c>
       <c r="C182" t="n">
-        <v>-4.393160343170166</v>
+        <v>32.07573699951172</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.212619304656982</v>
+        <v>20.54972648620605</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4439586102962494</v>
+        <v>-53.06737518310547</v>
       </c>
       <c r="F182" t="n">
-        <v>-4.277498245239258</v>
+        <v>-47.77919006347656</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-10.73122882843018</v>
+        <v>-0.06947273015975952</v>
       </c>
       <c r="B183" t="n">
-        <v>6.462419033050537</v>
+        <v>45.91974639892578</v>
       </c>
       <c r="C183" t="n">
-        <v>-2.593769550323486</v>
+        <v>38.18867874145508</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.36356246471405</v>
+        <v>21.42274856567383</v>
       </c>
       <c r="E183" t="n">
-        <v>-3.191758632659912</v>
+        <v>-59.04482269287109</v>
       </c>
       <c r="F183" t="n">
-        <v>-3.726552486419678</v>
+        <v>-53.13040924072266</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-10.10798454284668</v>
+        <v>2.197338581085205</v>
       </c>
       <c r="B184" t="n">
-        <v>5.994739532470703</v>
+        <v>42.16364669799805</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1427414417266846</v>
+        <v>45.6456298828125</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.154037117958069</v>
+        <v>24.85397148132324</v>
       </c>
       <c r="E184" t="n">
-        <v>-6.889216423034668</v>
+        <v>-65.41464996337891</v>
       </c>
       <c r="F184" t="n">
-        <v>-3.595645427703857</v>
+        <v>-48.88890838623047</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-9.036287307739258</v>
+        <v>6.948719501495361</v>
       </c>
       <c r="B185" t="n">
-        <v>5.019635200500488</v>
+        <v>40.05599594116211</v>
       </c>
       <c r="C185" t="n">
-        <v>3.213328123092651</v>
+        <v>53.52639007568359</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.201971650123596</v>
+        <v>27.41705322265625</v>
       </c>
       <c r="E185" t="n">
-        <v>-9.713682174682617</v>
+        <v>-62.05429458618164</v>
       </c>
       <c r="F185" t="n">
-        <v>-2.916078567504883</v>
+        <v>-43.39254379272461</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-7.198438167572021</v>
+        <v>12.0211935043335</v>
       </c>
       <c r="B186" t="n">
-        <v>4.121946334838867</v>
+        <v>39.26913070678711</v>
       </c>
       <c r="C186" t="n">
-        <v>6.966532230377197</v>
+        <v>56.84482955932617</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.7188807129859924</v>
+        <v>28.17230796813965</v>
       </c>
       <c r="E186" t="n">
-        <v>-11.60379028320312</v>
+        <v>-57.01723480224609</v>
       </c>
       <c r="F186" t="n">
-        <v>-1.738439321517944</v>
+        <v>-37.66953277587891</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-5.588085174560547</v>
+        <v>17.67742347717285</v>
       </c>
       <c r="B187" t="n">
-        <v>3.159115314483643</v>
+        <v>34.81538772583008</v>
       </c>
       <c r="C187" t="n">
-        <v>10.28752422332764</v>
+        <v>61.38120651245117</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.9354064464569092</v>
+        <v>25.80943489074707</v>
       </c>
       <c r="E187" t="n">
-        <v>-12.46823406219482</v>
+        <v>-47.02993774414062</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.7880858182907104</v>
+        <v>-32.33774948120117</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-3.436410665512085</v>
+        <v>22.28553771972656</v>
       </c>
       <c r="B188" t="n">
-        <v>1.917572736740112</v>
+        <v>31.65950775146484</v>
       </c>
       <c r="C188" t="n">
-        <v>13.82835292816162</v>
+        <v>65.70764923095703</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.80023729801178</v>
+        <v>24.81301879882812</v>
       </c>
       <c r="E188" t="n">
-        <v>-11.95924854278564</v>
+        <v>-32.68818664550781</v>
       </c>
       <c r="F188" t="n">
-        <v>0.2355407029390335</v>
+        <v>-30.25555038452148</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-1.25844943523407</v>
+        <v>27.19322967529297</v>
       </c>
       <c r="B189" t="n">
-        <v>1.0804842710495</v>
+        <v>26.28497123718262</v>
       </c>
       <c r="C189" t="n">
-        <v>16.18600273132324</v>
+        <v>64.78246307373047</v>
       </c>
       <c r="D189" t="n">
-        <v>-2.218690395355225</v>
+        <v>22.98137283325195</v>
       </c>
       <c r="E189" t="n">
-        <v>-10.00116539001465</v>
+        <v>-25.58611106872559</v>
       </c>
       <c r="F189" t="n">
-        <v>1.326375365257263</v>
+        <v>-29.09445762634277</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9862110018730164</v>
+        <v>32.32448196411133</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.165368065237999</v>
+        <v>23.23294830322266</v>
       </c>
       <c r="C190" t="n">
-        <v>18.46183776855469</v>
+        <v>60.79734802246094</v>
       </c>
       <c r="D190" t="n">
-        <v>-2.718650579452515</v>
+        <v>18.86067390441895</v>
       </c>
       <c r="E190" t="n">
-        <v>-6.868186473846436</v>
+        <v>-18.12384414672852</v>
       </c>
       <c r="F190" t="n">
-        <v>2.174182891845703</v>
+        <v>-27.75644493103027</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.874457597732544</v>
+        <v>35.20582962036133</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.258835792541504</v>
+        <v>18.90939903259277</v>
       </c>
       <c r="C191" t="n">
-        <v>19.66552734375</v>
+        <v>59.95326995849609</v>
       </c>
       <c r="D191" t="n">
-        <v>-3.584023952484131</v>
+        <v>16.21054077148438</v>
       </c>
       <c r="E191" t="n">
-        <v>-4.126583576202393</v>
+        <v>-10.35890007019043</v>
       </c>
       <c r="F191" t="n">
-        <v>2.482259273529053</v>
+        <v>-27.1727237701416</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>4.469382286071777</v>
+        <v>36.22153472900391</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.987624645233154</v>
+        <v>16.29232978820801</v>
       </c>
       <c r="C192" t="n">
-        <v>19.14795684814453</v>
+        <v>56.33507537841797</v>
       </c>
       <c r="D192" t="n">
-        <v>-4.240241050720215</v>
+        <v>14.07454872131348</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.8010711669921875</v>
+        <v>-5.837411403656006</v>
       </c>
       <c r="F192" t="n">
-        <v>2.926911115646362</v>
+        <v>-28.70170211791992</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5.79785680770874</v>
+        <v>40.03151321411133</v>
       </c>
       <c r="B193" t="n">
-        <v>-3.234106302261353</v>
+        <v>11.55200481414795</v>
       </c>
       <c r="C193" t="n">
-        <v>18.21009063720703</v>
+        <v>46.11104583740234</v>
       </c>
       <c r="D193" t="n">
-        <v>-4.694247722625732</v>
+        <v>11.54597187042236</v>
       </c>
       <c r="E193" t="n">
-        <v>1.891350269317627</v>
+        <v>-2.972676277160645</v>
       </c>
       <c r="F193" t="n">
-        <v>3.433627605438232</v>
+        <v>-29.15572929382324</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.01540470123291</v>
+        <v>42.87931442260742</v>
       </c>
       <c r="B194" t="n">
-        <v>-4.090603828430176</v>
+        <v>8.732183456420898</v>
       </c>
       <c r="C194" t="n">
-        <v>16.16842269897461</v>
+        <v>38.66121673583984</v>
       </c>
       <c r="D194" t="n">
-        <v>-5.886805534362793</v>
+        <v>7.978039741516113</v>
       </c>
       <c r="E194" t="n">
-        <v>3.600250005722046</v>
+        <v>-2.597146511077881</v>
       </c>
       <c r="F194" t="n">
-        <v>3.843134641647339</v>
+        <v>-30.55534172058105</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8.069002151489258</v>
+        <v>44.63719940185547</v>
       </c>
       <c r="B195" t="n">
-        <v>-4.708823204040527</v>
+        <v>4.460629463195801</v>
       </c>
       <c r="C195" t="n">
-        <v>13.26733589172363</v>
+        <v>33.66429138183594</v>
       </c>
       <c r="D195" t="n">
-        <v>-5.910594940185547</v>
+        <v>5.134133338928223</v>
       </c>
       <c r="E195" t="n">
-        <v>4.546026229858398</v>
+        <v>-2.328052520751953</v>
       </c>
       <c r="F195" t="n">
-        <v>4.39831018447876</v>
+        <v>-31.9771556854248</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.519956588745117</v>
+        <v>41.59712219238281</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.568797588348389</v>
+        <v>2.290020704269409</v>
       </c>
       <c r="C196" t="n">
-        <v>9.907055854797363</v>
+        <v>25.63732719421387</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.679115772247314</v>
+        <v>4.783398628234863</v>
       </c>
       <c r="E196" t="n">
-        <v>4.973804950714111</v>
+        <v>-2.313778877258301</v>
       </c>
       <c r="F196" t="n">
-        <v>4.971106052398682</v>
+        <v>-32.4638557434082</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8.976722717285156</v>
+        <v>44.00456237792969</v>
       </c>
       <c r="B197" t="n">
-        <v>-6.2573561668396</v>
+        <v>-1.143466234207153</v>
       </c>
       <c r="C197" t="n">
-        <v>5.90714168548584</v>
+        <v>17.05007171630859</v>
       </c>
       <c r="D197" t="n">
-        <v>-7.006199836730957</v>
+        <v>3.855683565139771</v>
       </c>
       <c r="E197" t="n">
-        <v>4.818339347839355</v>
+        <v>-3.468129634857178</v>
       </c>
       <c r="F197" t="n">
-        <v>5.583224773406982</v>
+        <v>-32.02073287963867</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.130130767822266</v>
+        <v>43.7620735168457</v>
       </c>
       <c r="B198" t="n">
-        <v>-6.926697731018066</v>
+        <v>-3.699654817581177</v>
       </c>
       <c r="C198" t="n">
-        <v>2.644527196884155</v>
+        <v>10.76940631866455</v>
       </c>
       <c r="D198" t="n">
-        <v>-7.213294982910156</v>
+        <v>3.278310060501099</v>
       </c>
       <c r="E198" t="n">
-        <v>4.137170791625977</v>
+        <v>-4.617957592010498</v>
       </c>
       <c r="F198" t="n">
-        <v>5.999114036560059</v>
+        <v>-33.30417633056641</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8.729516983032227</v>
+        <v>44.63556289672852</v>
       </c>
       <c r="B199" t="n">
-        <v>-7.792285442352295</v>
+        <v>-2.704856157302856</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.241728186607361</v>
+        <v>8.036860466003418</v>
       </c>
       <c r="D199" t="n">
-        <v>-7.736830234527588</v>
+        <v>3.240901231765747</v>
       </c>
       <c r="E199" t="n">
-        <v>3.73479151725769</v>
+        <v>-6.644397258758545</v>
       </c>
       <c r="F199" t="n">
-        <v>6.631202697753906</v>
+        <v>-31.37845230102539</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8.945581436157227</v>
+        <v>43.44440841674805</v>
       </c>
       <c r="B200" t="n">
-        <v>-7.969945907592773</v>
+        <v>-7.492354393005371</v>
       </c>
       <c r="C200" t="n">
-        <v>-4.592472553253174</v>
+        <v>5.261160850524902</v>
       </c>
       <c r="D200" t="n">
-        <v>-7.718061923980713</v>
+        <v>4.12003231048584</v>
       </c>
       <c r="E200" t="n">
-        <v>2.869340896606445</v>
+        <v>-10.3677864074707</v>
       </c>
       <c r="F200" t="n">
-        <v>7.052996158599854</v>
+        <v>-30.97706031799316</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8.829193115234375</v>
+        <v>41.93435668945312</v>
       </c>
       <c r="B201" t="n">
-        <v>-8.585515975952148</v>
+        <v>-9.25479793548584</v>
       </c>
       <c r="C201" t="n">
-        <v>-7.414224624633789</v>
+        <v>4.866888999938965</v>
       </c>
       <c r="D201" t="n">
-        <v>-7.451714992523193</v>
+        <v>5.977187156677246</v>
       </c>
       <c r="E201" t="n">
-        <v>1.845224499702454</v>
+        <v>-13.58370876312256</v>
       </c>
       <c r="F201" t="n">
-        <v>7.202165603637695</v>
+        <v>-31.29491996765137</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>7.021181583404541</v>
+        <v>40.62479019165039</v>
       </c>
       <c r="B202" t="n">
-        <v>-9.429600715637207</v>
+        <v>-11.98716640472412</v>
       </c>
       <c r="C202" t="n">
-        <v>-9.650208473205566</v>
+        <v>4.369744300842285</v>
       </c>
       <c r="D202" t="n">
-        <v>-6.834004878997803</v>
+        <v>9.193964958190918</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9117985367774963</v>
+        <v>-17.81653022766113</v>
       </c>
       <c r="F202" t="n">
-        <v>7.433295249938965</v>
+        <v>-33.35284805297852</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>4.216952323913574</v>
+        <v>33.47664260864258</v>
       </c>
       <c r="B203" t="n">
-        <v>-9.712303161621094</v>
+        <v>-10.01383495330811</v>
       </c>
       <c r="C203" t="n">
-        <v>-10.22216415405273</v>
+        <v>8.927163124084473</v>
       </c>
       <c r="D203" t="n">
-        <v>-6.21021842956543</v>
+        <v>10.33901500701904</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.212521567940712</v>
+        <v>-17.69792938232422</v>
       </c>
       <c r="F203" t="n">
-        <v>6.993519306182861</v>
+        <v>-35.49794387817383</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.832373857498169</v>
+        <v>34.61314010620117</v>
       </c>
       <c r="B204" t="n">
-        <v>-10.38093757629395</v>
+        <v>-14.30402660369873</v>
       </c>
       <c r="C204" t="n">
-        <v>-10.81232833862305</v>
+        <v>9.166566848754883</v>
       </c>
       <c r="D204" t="n">
-        <v>-5.268279075622559</v>
+        <v>13.95801544189453</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.7693395614624023</v>
+        <v>-18.97495269775391</v>
       </c>
       <c r="F204" t="n">
-        <v>5.927464485168457</v>
+        <v>-43.34393310546875</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.837408065795898</v>
+        <v>39.4775390625</v>
       </c>
       <c r="B205" t="n">
-        <v>-10.53764057159424</v>
+        <v>39.4775390625</v>
       </c>
       <c r="C205" t="n">
-        <v>-10.39132404327393</v>
+        <v>39.4775390625</v>
       </c>
       <c r="D205" t="n">
-        <v>-4.027833938598633</v>
+        <v>39.4775390625</v>
       </c>
       <c r="E205" t="n">
-        <v>-1.33304226398468</v>
+        <v>39.4775390625</v>
       </c>
       <c r="F205" t="n">
-        <v>4.078242301940918</v>
+        <v>39.4775390625</v>
       </c>
     </row>
   </sheetData>
